--- a/DB_AGMS.xlsx
+++ b/DB_AGMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrespuertagonzalez/Documents/AGMS_Analitics/Datos/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF7182-7B1B-8C49-8A37-4A51CF88B3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF58384D-B5CA-0145-B4CB-57E6817C787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11412" uniqueCount="3893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11412" uniqueCount="3892">
   <si>
     <t>Gestión de Venta</t>
   </si>
@@ -10912,9 +10912,6 @@
   </si>
   <si>
     <t>Total Cartera Recuperada</t>
-  </si>
-  <si>
-    <t>Factura</t>
   </si>
   <si>
     <t>AMAI CLINICA SAS</t>
@@ -12673,12 +12670,6 @@
     <xf numFmtId="169" fontId="18" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12777,6 +12768,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -13167,10 +13164,10 @@
   </sheetPr>
   <dimension ref="A1:J1370"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="151" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="151" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1200" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D1157" sqref="D1157"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="40" customHeight="1"/>
@@ -13188,17 +13185,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
     </row>
     <row r="2" spans="1:9" ht="49" customHeight="1">
       <c r="A2" s="44" t="s">
@@ -13230,7 +13227,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="40" customHeight="1">
-      <c r="A3" s="177">
+      <c r="A3" s="175">
         <v>45572</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -13253,14 +13250,14 @@
         <v>264000</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="I3" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="40" customHeight="1">
-      <c r="A4" s="177">
+      <c r="A4" s="175">
         <v>45572</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -13283,14 +13280,14 @@
         <v>264000</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="I4" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="40" customHeight="1">
-      <c r="A5" s="177">
+      <c r="A5" s="175">
         <v>45572</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -13313,14 +13310,14 @@
         <v>214000</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="I5" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="40" customHeight="1">
-      <c r="A6" s="177">
+      <c r="A6" s="175">
         <v>45572</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -13343,14 +13340,14 @@
         <v>292000</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="I6" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40" customHeight="1">
-      <c r="A7" s="177">
+      <c r="A7" s="175">
         <v>45572</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -13373,14 +13370,14 @@
         <v>270000</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="I7" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40" customHeight="1">
-      <c r="A8" s="177">
+      <c r="A8" s="175">
         <v>45572</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -13403,14 +13400,14 @@
         <v>292000</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40" customHeight="1">
-      <c r="A9" s="177">
+      <c r="A9" s="175">
         <v>45572</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -13433,14 +13430,14 @@
         <v>107000</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="I9" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40" customHeight="1">
-      <c r="A10" s="177">
+      <c r="A10" s="175">
         <v>45572</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -13450,7 +13447,7 @@
         <v>215</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="E10" s="14">
         <v>224000</v>
@@ -13463,14 +13460,14 @@
         <v>224000</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="40" customHeight="1">
-      <c r="A11" s="177">
+      <c r="A11" s="175">
         <v>45572</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -13493,14 +13490,14 @@
         <v>347000</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="I11" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40" customHeight="1">
-      <c r="A12" s="177">
+      <c r="A12" s="175">
         <v>45572</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -13523,24 +13520,24 @@
         <v>231000</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="I12" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="40" customHeight="1">
-      <c r="A13" s="177">
+      <c r="A13" s="175">
         <v>45573</v>
       </c>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="176" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="E13" s="14">
         <v>261000</v>
@@ -13553,24 +13550,24 @@
         <v>261000</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="I13" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="40" customHeight="1">
-      <c r="A14" s="177">
+      <c r="A14" s="175">
         <v>45573</v>
       </c>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="176" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="E14" s="14">
         <v>145000</v>
@@ -13583,17 +13580,17 @@
         <v>145000</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="40" customHeight="1">
-      <c r="A15" s="177">
+      <c r="A15" s="175">
         <v>45574</v>
       </c>
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="176" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -13613,14 +13610,14 @@
         <v>231000</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="I15" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="40" customHeight="1">
-      <c r="A16" s="177">
+      <c r="A16" s="175">
         <v>45574</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -13643,17 +13640,17 @@
         <v>231000</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="40" customHeight="1">
-      <c r="A17" s="177">
+      <c r="A17" s="175">
         <v>45575</v>
       </c>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="176" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -13673,24 +13670,24 @@
         <v>231000</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="I17" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="40" customHeight="1">
-      <c r="A18" s="177">
+      <c r="A18" s="175">
         <v>45575</v>
       </c>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="176" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>368</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="E18" s="14">
         <v>262000</v>
@@ -13703,24 +13700,24 @@
         <v>262000</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="I18" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="40" customHeight="1">
-      <c r="A19" s="177">
+      <c r="A19" s="175">
         <v>45575</v>
       </c>
-      <c r="B19" s="178" t="s">
+      <c r="B19" s="176" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>368</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="E19" s="14">
         <v>290000</v>
@@ -13733,17 +13730,17 @@
         <v>290000</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="I19" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="40" customHeight="1">
-      <c r="A20" s="177">
+      <c r="A20" s="175">
         <v>45575</v>
       </c>
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="176" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -13763,17 +13760,17 @@
         <v>264000</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="I20" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="40" customHeight="1">
-      <c r="A21" s="177">
+      <c r="A21" s="175">
         <v>45575</v>
       </c>
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="176" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -13793,17 +13790,17 @@
         <v>264000</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="I21" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="32">
-      <c r="A22" s="177">
+      <c r="A22" s="175">
         <v>45575</v>
       </c>
-      <c r="B22" s="178" t="s">
+      <c r="B22" s="176" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -13823,24 +13820,24 @@
         <v>264000</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="I22" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="40" customHeight="1">
-      <c r="A23" s="177">
+      <c r="A23" s="175">
         <v>45580</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>3264</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="E23" s="14">
         <v>162000</v>
@@ -13853,18 +13850,18 @@
         <v>162000</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="I23" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="40" customHeight="1">
-      <c r="A24" s="177">
+      <c r="A24" s="175">
         <v>45583</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>590</v>
@@ -13883,17 +13880,17 @@
         <v>231000</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="I24" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="40" customHeight="1">
-      <c r="A25" s="177">
+      <c r="A25" s="175">
         <v>45586</v>
       </c>
-      <c r="B25" s="179">
+      <c r="B25" s="177">
         <v>0.33333333333333331</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -13913,14 +13910,14 @@
         <v>164000</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="I25" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="40" customHeight="1">
-      <c r="A26" s="177">
+      <c r="A26" s="175">
         <v>45587</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -13943,14 +13940,14 @@
         <v>231000</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="I26" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="40" customHeight="1">
-      <c r="A27" s="177">
+      <c r="A27" s="175">
         <v>45587</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -13973,14 +13970,14 @@
         <v>292000</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="I27" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="40" customHeight="1">
-      <c r="A28" s="177">
+      <c r="A28" s="175">
         <v>45587</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -14003,14 +14000,14 @@
         <v>270000</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="I28" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="40" customHeight="1">
-      <c r="A29" s="177">
+      <c r="A29" s="175">
         <v>45587</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -14020,7 +14017,7 @@
         <v>177</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="E29" s="14">
         <v>290000</v>
@@ -14033,14 +14030,14 @@
         <v>290000</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="I29" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="40" customHeight="1">
-      <c r="A30" s="177">
+      <c r="A30" s="175">
         <v>45587</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -14063,14 +14060,14 @@
         <v>270000</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="I30" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="40" customHeight="1">
-      <c r="A31" s="177">
+      <c r="A31" s="175">
         <v>45587</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -14093,14 +14090,14 @@
         <v>231000</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="I31" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="40" customHeight="1">
-      <c r="A32" s="177">
+      <c r="A32" s="175">
         <v>45588</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -14110,7 +14107,7 @@
         <v>196</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="E32" s="14">
         <v>255000</v>
@@ -14123,14 +14120,14 @@
         <v>255000</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I32" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="40" customHeight="1">
-      <c r="A33" s="177">
+      <c r="A33" s="175">
         <v>45588</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -14140,7 +14137,7 @@
         <v>196</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="E33" s="14">
         <v>240000</v>
@@ -14153,14 +14150,14 @@
         <v>240000</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I33" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="40" customHeight="1">
-      <c r="A34" s="177">
+      <c r="A34" s="175">
         <v>45588</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -14170,7 +14167,7 @@
         <v>196</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="E34" s="14">
         <v>241000</v>
@@ -14183,14 +14180,14 @@
         <v>241000</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I34" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="40" customHeight="1">
-      <c r="A35" s="177">
+      <c r="A35" s="175">
         <v>45588</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -14200,7 +14197,7 @@
         <v>196</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="E35" s="14">
         <v>275000</v>
@@ -14213,14 +14210,14 @@
         <v>275000</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I35" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="40" customHeight="1">
-      <c r="A36" s="177">
+      <c r="A36" s="175">
         <v>45588</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -14230,7 +14227,7 @@
         <v>196</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="E36" s="14">
         <v>262000</v>
@@ -14243,14 +14240,14 @@
         <v>262000</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I36" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="40" customHeight="1">
-      <c r="A37" s="177">
+      <c r="A37" s="175">
         <v>45588</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -14260,7 +14257,7 @@
         <v>196</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="E37" s="14">
         <v>279000</v>
@@ -14273,14 +14270,14 @@
         <v>279000</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="40" customHeight="1">
-      <c r="A38" s="177">
+      <c r="A38" s="175">
         <v>45588</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -14290,7 +14287,7 @@
         <v>196</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="E38" s="14">
         <v>263000</v>
@@ -14303,14 +14300,14 @@
         <v>263000</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I38" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="40" customHeight="1">
-      <c r="A39" s="177">
+      <c r="A39" s="175">
         <v>45588</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -14333,14 +14330,14 @@
         <v>231000</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I39" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="40" customHeight="1">
-      <c r="A40" s="177">
+      <c r="A40" s="175">
         <v>45588</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -14363,14 +14360,14 @@
         <v>214000</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I40" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="40" customHeight="1">
-      <c r="A41" s="177">
+      <c r="A41" s="175">
         <v>45588</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -14393,14 +14390,14 @@
         <v>319000</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I41" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="40" customHeight="1">
-      <c r="A42" s="177">
+      <c r="A42" s="175">
         <v>45588</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -14423,14 +14420,14 @@
         <v>310000</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I42" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="40" customHeight="1">
-      <c r="A43" s="177">
+      <c r="A43" s="175">
         <v>45588</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -14440,7 +14437,7 @@
         <v>196</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="E43" s="14">
         <v>235000</v>
@@ -14453,14 +14450,14 @@
         <v>235000</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I43" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="40" customHeight="1">
-      <c r="A44" s="177">
+      <c r="A44" s="175">
         <v>45588</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -14483,14 +14480,14 @@
         <v>322000</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I44" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="40" customHeight="1">
-      <c r="A45" s="177">
+      <c r="A45" s="175">
         <v>45588</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -14513,14 +14510,14 @@
         <v>154000</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I45" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="40" customHeight="1">
-      <c r="A46" s="177">
+      <c r="A46" s="175">
         <v>45588</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -14530,7 +14527,7 @@
         <v>196</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="E46" s="14">
         <v>274000</v>
@@ -14543,14 +14540,14 @@
         <v>274000</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I46" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="40" customHeight="1">
-      <c r="A47" s="177">
+      <c r="A47" s="175">
         <v>45588</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -14560,7 +14557,7 @@
         <v>196</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="E47" s="14">
         <v>214000</v>
@@ -14573,14 +14570,14 @@
         <v>214000</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I47" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="40" customHeight="1">
-      <c r="A48" s="177">
+      <c r="A48" s="175">
         <v>45588</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -14590,7 +14587,7 @@
         <v>196</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="E48" s="14">
         <v>162000</v>
@@ -14603,14 +14600,14 @@
         <v>162000</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I48" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="40" customHeight="1">
-      <c r="A49" s="177">
+      <c r="A49" s="175">
         <v>45588</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -14620,7 +14617,7 @@
         <v>196</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="E49" s="14">
         <v>230000</v>
@@ -14632,14 +14629,14 @@
         <v>230000</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="I49" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="40" customHeight="1">
-      <c r="A50" s="177">
+      <c r="A50" s="175">
         <v>45588</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -14661,14 +14658,14 @@
         <v>231000</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="I50" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="40" customHeight="1">
-      <c r="A51" s="177">
+      <c r="A51" s="175">
         <v>45588</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -14691,14 +14688,14 @@
         <v>231000</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="I51" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="40" customHeight="1">
-      <c r="A52" s="177">
+      <c r="A52" s="175">
         <v>45588</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -14721,14 +14718,14 @@
         <v>107000</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="I52" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="40" customHeight="1">
-      <c r="A53" s="177">
+      <c r="A53" s="175">
         <v>45588</v>
       </c>
       <c r="B53" s="14" t="s">
@@ -14738,7 +14735,7 @@
         <v>71</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="E53" s="14">
         <v>255000</v>
@@ -14751,246 +14748,246 @@
         <v>255000</v>
       </c>
       <c r="H53" s="15" t="s">
+        <v>3688</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="40" customHeight="1">
+      <c r="A54" s="178">
+        <v>45593</v>
+      </c>
+      <c r="B54" s="179" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="179" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="179">
+        <v>231000</v>
+      </c>
+      <c r="F54" s="179">
+        <v>1</v>
+      </c>
+      <c r="G54" s="180">
+        <v>231000</v>
+      </c>
+      <c r="H54" s="15" t="s">
         <v>3689</v>
       </c>
-      <c r="I53" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="40" customHeight="1">
-      <c r="A54" s="180">
+      <c r="I54" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="40" customHeight="1">
+      <c r="A55" s="181">
         <v>45593</v>
       </c>
-      <c r="B54" s="181" t="s">
+      <c r="B55" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="181" t="s">
+      <c r="C55" s="182" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="181" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="181">
-        <v>231000</v>
-      </c>
-      <c r="F54" s="181">
-        <v>1</v>
-      </c>
-      <c r="G54" s="182">
-        <v>231000</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>3690</v>
-      </c>
-      <c r="I54" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="40" customHeight="1">
-      <c r="A55" s="183">
+      <c r="D55" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="182">
+        <v>310000</v>
+      </c>
+      <c r="F55" s="182">
+        <v>1</v>
+      </c>
+      <c r="G55" s="183">
+        <v>310000</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>3689</v>
+      </c>
+      <c r="I55" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="40" customHeight="1">
+      <c r="A56" s="181">
         <v>45593</v>
       </c>
-      <c r="B55" s="184" t="s">
+      <c r="B56" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="184" t="s">
+      <c r="C56" s="182" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="184" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="184">
-        <v>310000</v>
-      </c>
-      <c r="F55" s="184">
-        <v>1</v>
-      </c>
-      <c r="G55" s="185">
-        <v>310000</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>3690</v>
-      </c>
-      <c r="I55" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="40" customHeight="1">
-      <c r="A56" s="183">
+      <c r="D56" s="182" t="s">
+        <v>3651</v>
+      </c>
+      <c r="E56" s="182">
+        <v>235000</v>
+      </c>
+      <c r="F56" s="182">
+        <v>1</v>
+      </c>
+      <c r="G56" s="184">
+        <v>235000</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>3689</v>
+      </c>
+      <c r="I56" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="40" customHeight="1">
+      <c r="A57" s="181">
         <v>45593</v>
       </c>
-      <c r="B56" s="184" t="s">
+      <c r="B57" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="184" t="s">
+      <c r="C57" s="182" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="184" t="s">
+      <c r="D57" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="182">
+        <v>154000</v>
+      </c>
+      <c r="F57" s="182">
+        <v>1</v>
+      </c>
+      <c r="G57" s="185">
+        <v>154000</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>3689</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="40" customHeight="1">
+      <c r="A58" s="181">
+        <v>45593</v>
+      </c>
+      <c r="B58" s="182" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="182" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="182" t="s">
         <v>3652</v>
       </c>
-      <c r="E56" s="184">
-        <v>235000</v>
-      </c>
-      <c r="F56" s="184">
-        <v>1</v>
-      </c>
-      <c r="G56" s="186">
-        <v>235000</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>3690</v>
-      </c>
-      <c r="I56" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="40" customHeight="1">
-      <c r="A57" s="183">
+      <c r="E58" s="182">
+        <v>274000</v>
+      </c>
+      <c r="F58" s="182">
+        <v>1</v>
+      </c>
+      <c r="G58" s="186">
+        <v>274000</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>3689</v>
+      </c>
+      <c r="I58" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="40" customHeight="1">
+      <c r="A59" s="181">
         <v>45593</v>
       </c>
-      <c r="B57" s="184" t="s">
+      <c r="B59" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="184" t="s">
+      <c r="C59" s="182" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="184">
-        <v>154000</v>
-      </c>
-      <c r="F57" s="184">
-        <v>1</v>
-      </c>
-      <c r="G57" s="187">
-        <v>154000</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>3690</v>
-      </c>
-      <c r="I57" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="40" customHeight="1">
-      <c r="A58" s="183">
+      <c r="D59" s="182" t="s">
+        <v>3655</v>
+      </c>
+      <c r="E59" s="182">
+        <v>148000</v>
+      </c>
+      <c r="F59" s="182">
+        <v>1</v>
+      </c>
+      <c r="G59" s="187">
+        <v>148000</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>3689</v>
+      </c>
+      <c r="I59" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="40" customHeight="1">
+      <c r="A60" s="181">
         <v>45593</v>
       </c>
-      <c r="B58" s="184" t="s">
+      <c r="B60" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="184" t="s">
+      <c r="C60" s="182" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="184" t="s">
-        <v>3653</v>
-      </c>
-      <c r="E58" s="184">
-        <v>274000</v>
-      </c>
-      <c r="F58" s="184">
-        <v>1</v>
-      </c>
-      <c r="G58" s="188">
-        <v>274000</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>3690</v>
-      </c>
-      <c r="I58" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="40" customHeight="1">
-      <c r="A59" s="183">
+      <c r="D60" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="182">
+        <v>292000</v>
+      </c>
+      <c r="F60" s="182">
+        <v>1</v>
+      </c>
+      <c r="G60" s="188">
+        <v>292000</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>3689</v>
+      </c>
+      <c r="I60" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="40" customHeight="1">
+      <c r="A61" s="181">
         <v>45593</v>
       </c>
-      <c r="B59" s="184" t="s">
+      <c r="B61" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="184" t="s">
+      <c r="C61" s="182" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="184" t="s">
-        <v>3656</v>
-      </c>
-      <c r="E59" s="184">
-        <v>148000</v>
-      </c>
-      <c r="F59" s="184">
-        <v>1</v>
-      </c>
-      <c r="G59" s="189">
-        <v>148000</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>3690</v>
-      </c>
-      <c r="I59" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="40" customHeight="1">
-      <c r="A60" s="183">
-        <v>45593</v>
-      </c>
-      <c r="B60" s="184" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="184" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="184" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="184">
+      <c r="D61" s="182" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="182">
         <v>292000</v>
       </c>
-      <c r="F60" s="184">
-        <v>1</v>
-      </c>
-      <c r="G60" s="190">
+      <c r="F61" s="182">
+        <v>1</v>
+      </c>
+      <c r="G61" s="188">
         <v>292000</v>
       </c>
-      <c r="H60" s="15" t="s">
-        <v>3690</v>
-      </c>
-      <c r="I60" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="40" customHeight="1">
-      <c r="A61" s="183">
-        <v>45593</v>
-      </c>
-      <c r="B61" s="184" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="184" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="184" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="184">
-        <v>292000</v>
-      </c>
-      <c r="F61" s="184">
-        <v>1</v>
-      </c>
-      <c r="G61" s="190">
-        <v>292000</v>
-      </c>
       <c r="H61" s="15" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="40" customHeight="1">
-      <c r="A62" s="177">
+      <c r="A62" s="175">
         <v>45595</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -15013,14 +15010,14 @@
         <v>260000</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="I62" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="40" customHeight="1">
-      <c r="A63" s="177">
+      <c r="A63" s="175">
         <v>45595</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -15043,14 +15040,14 @@
         <v>292000</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="I63" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="40" customHeight="1">
-      <c r="A64" s="177">
+      <c r="A64" s="175">
         <v>45595</v>
       </c>
       <c r="B64" s="14" t="s">
@@ -15073,18 +15070,18 @@
         <v>701000</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="I64" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="40" customHeight="1">
-      <c r="A65" s="177">
+      <c r="A65" s="175">
         <v>45597</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>394</v>
@@ -15103,24 +15100,24 @@
         <v>310000</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I65" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="40" customHeight="1">
-      <c r="A66" s="177">
+      <c r="A66" s="175">
         <v>45597</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>394</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="E66" s="14">
         <v>235000</v>
@@ -15133,18 +15130,18 @@
         <v>235000</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I66" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="40" customHeight="1">
-      <c r="A67" s="177">
+      <c r="A67" s="175">
         <v>45597</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>394</v>
@@ -15163,24 +15160,24 @@
         <v>322000</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I67" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="40" customHeight="1">
-      <c r="A68" s="177">
+      <c r="A68" s="175">
         <v>45597</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>394</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E68" s="14">
         <v>175000</v>
@@ -15193,18 +15190,18 @@
         <v>175000</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I68" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="40" customHeight="1">
-      <c r="A69" s="177">
+      <c r="A69" s="175">
         <v>45597</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>394</v>
@@ -15223,24 +15220,24 @@
         <v>154000</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I69" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="40" customHeight="1">
-      <c r="A70" s="177">
+      <c r="A70" s="175">
         <v>45597</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>394</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="E70" s="14">
         <v>274000</v>
@@ -15253,24 +15250,24 @@
         <v>274000</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I70" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="40" customHeight="1">
-      <c r="A71" s="177">
+      <c r="A71" s="175">
         <v>45597</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>394</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="E71" s="14">
         <v>216000</v>
@@ -15283,24 +15280,24 @@
         <v>216000</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I71" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="40" customHeight="1">
-      <c r="A72" s="177">
+      <c r="A72" s="175">
         <v>45597</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>394</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="E72" s="14">
         <v>287000</v>
@@ -15313,18 +15310,18 @@
         <v>287000</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I72" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="40" customHeight="1">
-      <c r="A73" s="177">
+      <c r="A73" s="175">
         <v>45597</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>394</v>
@@ -15343,24 +15340,24 @@
         <v>280000</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I73" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="40" customHeight="1">
-      <c r="A74" s="177">
+      <c r="A74" s="175">
         <v>45597</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>394</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="E74" s="14">
         <v>338000</v>
@@ -15373,24 +15370,24 @@
         <v>338000</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I74" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="40" customHeight="1">
-      <c r="A75" s="177">
+      <c r="A75" s="175">
         <v>45597</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>394</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="E75" s="14">
         <v>230000</v>
@@ -15403,18 +15400,18 @@
         <v>920000</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I75" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="40" customHeight="1">
-      <c r="A76" s="177">
+      <c r="A76" s="175">
         <v>45597</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>394</v>
@@ -15433,24 +15430,24 @@
         <v>286000</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I76" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="40" customHeight="1">
-      <c r="A77" s="177">
+      <c r="A77" s="175">
         <v>45597</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>394</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="E77" s="14">
         <v>201000</v>
@@ -15463,18 +15460,18 @@
         <v>603000</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="I77" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="40" customHeight="1">
-      <c r="A78" s="177">
+      <c r="A78" s="175">
         <v>45597</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>100</v>
@@ -15493,18 +15490,18 @@
         <v>231000</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="I78" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="40" customHeight="1">
-      <c r="A79" s="177">
+      <c r="A79" s="175">
         <v>45597</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>100</v>
@@ -15523,24 +15520,24 @@
         <v>292000</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="I79" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="40" customHeight="1">
-      <c r="A80" s="177">
+      <c r="A80" s="175">
         <v>45597</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="E80" s="14">
         <v>279000</v>
@@ -15553,24 +15550,24 @@
         <v>279000</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="I80" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="40" customHeight="1">
-      <c r="A81" s="177">
+      <c r="A81" s="175">
         <v>45597</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="E81" s="14">
         <v>263000</v>
@@ -15583,14 +15580,14 @@
         <v>263000</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="I81" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="40" customHeight="1">
-      <c r="A82" s="177">
+      <c r="A82" s="175">
         <v>45602</v>
       </c>
       <c r="B82" s="14" t="s">
@@ -15600,7 +15597,7 @@
         <v>159</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="E82" s="14">
         <v>262000</v>
@@ -15612,14 +15609,14 @@
         <v>262000</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="I82" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="40" customHeight="1">
-      <c r="A83" s="177">
+      <c r="A83" s="175">
         <v>45602</v>
       </c>
       <c r="B83" s="14" t="s">
@@ -15629,7 +15626,7 @@
         <v>159</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="E83" s="14">
         <v>447000</v>
@@ -15642,14 +15639,14 @@
         <v>447000</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="I83" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="40" customHeight="1">
-      <c r="A84" s="177">
+      <c r="A84" s="175">
         <v>45602</v>
       </c>
       <c r="B84" s="14" t="s">
@@ -15672,14 +15669,14 @@
         <v>241000</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="I84" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="40" customHeight="1">
-      <c r="A85" s="177">
+      <c r="A85" s="175">
         <v>45602</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -15689,7 +15686,7 @@
         <v>196</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="E85" s="14">
         <v>290000</v>
@@ -15702,14 +15699,14 @@
         <v>290000</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="I85" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="40" customHeight="1">
-      <c r="A86" s="177">
+      <c r="A86" s="175">
         <v>45602</v>
       </c>
       <c r="B86" s="14" t="s">
@@ -15732,14 +15729,14 @@
         <v>275000</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="I86" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="40" customHeight="1">
-      <c r="A87" s="177">
+      <c r="A87" s="175">
         <v>45602</v>
       </c>
       <c r="B87" s="14" t="s">
@@ -15762,14 +15759,14 @@
         <v>285000</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="I87" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="40" customHeight="1">
-      <c r="A88" s="177">
+      <c r="A88" s="175">
         <v>45602</v>
       </c>
       <c r="B88" s="14" t="s">
@@ -15792,14 +15789,14 @@
         <v>286000</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="I88" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="40" customHeight="1">
-      <c r="A89" s="177">
+      <c r="A89" s="175">
         <v>45602</v>
       </c>
       <c r="B89" s="14" t="s">
@@ -15822,14 +15819,14 @@
         <v>647000</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="I89" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="40" customHeight="1">
-      <c r="A90" s="177">
+      <c r="A90" s="175">
         <v>45603</v>
       </c>
       <c r="B90" s="14" t="s">
@@ -15852,14 +15849,14 @@
         <v>292000</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="I90" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="40" customHeight="1">
-      <c r="A91" s="177">
+      <c r="A91" s="175">
         <v>45604</v>
       </c>
       <c r="B91" s="14" t="s">
@@ -15882,14 +15879,14 @@
         <v>310000</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="I91" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="40" customHeight="1">
-      <c r="A92" s="177">
+      <c r="A92" s="175">
         <v>45604</v>
       </c>
       <c r="B92" s="14" t="s">
@@ -15899,7 +15896,7 @@
         <v>42</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="E92" s="14">
         <v>235000</v>
@@ -15912,14 +15909,14 @@
         <v>235000</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="I92" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="40" customHeight="1">
-      <c r="A93" s="177">
+      <c r="A93" s="175">
         <v>45604</v>
       </c>
       <c r="B93" s="14" t="s">
@@ -15929,7 +15926,7 @@
         <v>42</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="E93" s="14">
         <v>274000</v>
@@ -15942,14 +15939,14 @@
         <v>274000</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="I93" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="40" customHeight="1">
-      <c r="A94" s="177">
+      <c r="A94" s="175">
         <v>45604</v>
       </c>
       <c r="B94" s="14" t="s">
@@ -15972,14 +15969,14 @@
         <v>319000</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="I94" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="40" customHeight="1">
-      <c r="A95" s="177">
+      <c r="A95" s="175">
         <v>45604</v>
       </c>
       <c r="B95" s="14" t="s">
@@ -16002,18 +15999,18 @@
         <v>286000</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="I95" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="40" customHeight="1">
-      <c r="A96" s="177">
+      <c r="A96" s="175">
         <v>45604</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>3297</v>
@@ -16032,14 +16029,14 @@
         <v>107000</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="I96" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="40" customHeight="1">
-      <c r="A97" s="177">
+      <c r="A97" s="175">
         <v>45608</v>
       </c>
       <c r="B97" s="14" t="s">
@@ -16049,7 +16046,7 @@
         <v>3309</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="E97" s="14">
         <v>241000</v>
@@ -16062,24 +16059,24 @@
         <v>241000</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="I97" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="40" customHeight="1">
-      <c r="A98" s="177">
+      <c r="A98" s="175">
         <v>45614</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>131</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="E98" s="14">
         <v>290000</v>
@@ -16092,21 +16089,21 @@
         <v>290000</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="I98" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="40" customHeight="1">
-      <c r="A99" s="177">
+      <c r="A99" s="175">
         <v>45614</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>131</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>337</v>
@@ -16122,21 +16119,21 @@
         <v>172000</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="I99" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="40" customHeight="1">
-      <c r="A100" s="177">
+      <c r="A100" s="175">
         <v>45614</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>131</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>20</v>
@@ -16152,14 +16149,14 @@
         <v>315000</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="I100" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="40" customHeight="1">
-      <c r="A101" s="177">
+      <c r="A101" s="175">
         <v>45615</v>
       </c>
       <c r="B101" s="14" t="s">
@@ -16182,14 +16179,14 @@
         <v>310000</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I101" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="40" customHeight="1">
-      <c r="A102" s="177">
+      <c r="A102" s="175">
         <v>45615</v>
       </c>
       <c r="B102" s="14" t="s">
@@ -16199,7 +16196,7 @@
         <v>383</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="E102" s="14">
         <v>235000</v>
@@ -16212,14 +16209,14 @@
         <v>235000</v>
       </c>
       <c r="H102" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I102" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="40" customHeight="1">
-      <c r="A103" s="177">
+      <c r="A103" s="175">
         <v>45615</v>
       </c>
       <c r="B103" s="14" t="s">
@@ -16242,14 +16239,14 @@
         <v>322000</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I103" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="40" customHeight="1">
-      <c r="A104" s="177">
+      <c r="A104" s="175">
         <v>45615</v>
       </c>
       <c r="B104" s="14" t="s">
@@ -16259,7 +16256,7 @@
         <v>383</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E104" s="14">
         <v>175000</v>
@@ -16272,14 +16269,14 @@
         <v>175000</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I104" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="40" customHeight="1">
-      <c r="A105" s="177">
+      <c r="A105" s="175">
         <v>45615</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -16302,14 +16299,14 @@
         <v>154000</v>
       </c>
       <c r="H105" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I105" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="40" customHeight="1">
-      <c r="A106" s="177">
+      <c r="A106" s="175">
         <v>45615</v>
       </c>
       <c r="B106" s="14" t="s">
@@ -16319,7 +16316,7 @@
         <v>383</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="E106" s="14">
         <v>274000</v>
@@ -16332,14 +16329,14 @@
         <v>274000</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I106" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="40" customHeight="1">
-      <c r="A107" s="177">
+      <c r="A107" s="175">
         <v>45615</v>
       </c>
       <c r="B107" s="14" t="s">
@@ -16349,7 +16346,7 @@
         <v>383</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="E107" s="14">
         <v>216000</v>
@@ -16362,14 +16359,14 @@
         <v>216000</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I107" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="40" customHeight="1">
-      <c r="A108" s="177">
+      <c r="A108" s="175">
         <v>45615</v>
       </c>
       <c r="B108" s="14" t="s">
@@ -16392,14 +16389,14 @@
         <v>316000</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I108" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="40" customHeight="1">
-      <c r="A109" s="177">
+      <c r="A109" s="175">
         <v>45615</v>
       </c>
       <c r="B109" s="14" t="s">
@@ -16422,14 +16419,14 @@
         <v>280000</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I109" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="40" customHeight="1">
-      <c r="A110" s="177">
+      <c r="A110" s="175">
         <v>45615</v>
       </c>
       <c r="B110" s="14" t="s">
@@ -16439,7 +16436,7 @@
         <v>383</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="E110" s="14">
         <v>338000</v>
@@ -16452,14 +16449,14 @@
         <v>338000</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I110" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="40" customHeight="1">
-      <c r="A111" s="177">
+      <c r="A111" s="175">
         <v>45615</v>
       </c>
       <c r="B111" s="14" t="s">
@@ -16482,14 +16479,14 @@
         <v>254000</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I111" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="40" customHeight="1">
-      <c r="A112" s="177">
+      <c r="A112" s="175">
         <v>45615</v>
       </c>
       <c r="B112" s="14" t="s">
@@ -16512,14 +16509,14 @@
         <v>286000</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="I112" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="40" customHeight="1">
-      <c r="A113" s="177">
+      <c r="A113" s="175">
         <v>45615</v>
       </c>
       <c r="B113" s="14" t="s">
@@ -16542,18 +16539,18 @@
         <v>315000</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="I113" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="40" customHeight="1">
-      <c r="A114" s="177">
+      <c r="A114" s="175">
         <v>45617</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>194</v>
@@ -16572,18 +16569,18 @@
         <v>292000</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="I114" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="40" customHeight="1">
-      <c r="A115" s="177">
+      <c r="A115" s="175">
         <v>45617</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>194</v>
@@ -16602,24 +16599,24 @@
         <v>231000</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="I115" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="40" customHeight="1">
-      <c r="A116" s="177">
+      <c r="A116" s="175">
         <v>45622</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="E116" s="14">
         <v>255000</v>
@@ -16632,24 +16629,24 @@
         <v>255000</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="I116" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="40" customHeight="1">
-      <c r="A117" s="177">
+      <c r="A117" s="175">
         <v>45622</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="E117" s="14">
         <v>263000</v>
@@ -16662,24 +16659,24 @@
         <v>263000</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="I117" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="40" customHeight="1">
-      <c r="A118" s="177">
+      <c r="A118" s="175">
         <v>45622</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="E118" s="14">
         <v>0</v>
@@ -16692,14 +16689,14 @@
         <v>0</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="I118" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="40" customHeight="1">
-      <c r="A119" s="177">
+      <c r="A119" s="175">
         <v>45623</v>
       </c>
       <c r="B119" s="14" t="s">
@@ -16709,7 +16706,7 @@
         <v>100</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="E119" s="14">
         <v>279000</v>
@@ -16722,14 +16719,14 @@
         <v>279000</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="I119" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="40" customHeight="1">
-      <c r="A120" s="177">
+      <c r="A120" s="175">
         <v>45623</v>
       </c>
       <c r="B120" s="14" t="s">
@@ -16739,7 +16736,7 @@
         <v>100</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="E120" s="14">
         <v>279000</v>
@@ -16752,14 +16749,14 @@
         <v>279000</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="I120" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="40" customHeight="1">
-      <c r="A121" s="177">
+      <c r="A121" s="175">
         <v>45623</v>
       </c>
       <c r="B121" s="14" t="s">
@@ -16769,7 +16766,7 @@
         <v>100</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="E121" s="14">
         <v>0</v>
@@ -16782,14 +16779,14 @@
         <v>0</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="I121" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="40" customHeight="1">
-      <c r="A122" s="177">
+      <c r="A122" s="175">
         <v>45623</v>
       </c>
       <c r="B122" s="14" t="s">
@@ -16799,7 +16796,7 @@
         <v>273</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="E122" s="14">
         <v>240000</v>
@@ -16812,14 +16809,14 @@
         <v>240000</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="I122" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="40" customHeight="1">
-      <c r="A123" s="177">
+      <c r="A123" s="175">
         <v>45623</v>
       </c>
       <c r="B123" s="14" t="s">
@@ -16829,7 +16826,7 @@
         <v>273</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="E123" s="14">
         <v>0</v>
@@ -16842,14 +16839,14 @@
         <v>0</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="I123" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="40" customHeight="1">
-      <c r="A124" s="177">
+      <c r="A124" s="175">
         <v>45623</v>
       </c>
       <c r="B124" s="14" t="s">
@@ -16859,7 +16856,7 @@
         <v>273</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="E124" s="14">
         <v>260000</v>
@@ -16872,14 +16869,14 @@
         <v>260000</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="I124" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="40" customHeight="1">
-      <c r="A125" s="177">
+      <c r="A125" s="175">
         <v>45623</v>
       </c>
       <c r="B125" s="14" t="s">
@@ -16901,21 +16898,21 @@
         <v>300000</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="I125" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="40" customHeight="1">
-      <c r="A126" s="177">
+      <c r="A126" s="175">
         <v>45623</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>31</v>
@@ -16931,14 +16928,14 @@
         <v>274000</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="I126" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="40" customHeight="1">
-      <c r="A127" s="177">
+      <c r="A127" s="175">
         <v>45624</v>
       </c>
       <c r="B127" s="14" t="s">
@@ -16961,14 +16958,14 @@
         <v>275000</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="I127" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="40" customHeight="1">
-      <c r="A128" s="177">
+      <c r="A128" s="175">
         <v>45624</v>
       </c>
       <c r="B128" s="14" t="s">
@@ -16991,14 +16988,14 @@
         <v>255000</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="I128" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="40" customHeight="1">
-      <c r="A129" s="177">
+      <c r="A129" s="175">
         <v>45624</v>
       </c>
       <c r="B129" s="14" t="s">
@@ -17021,14 +17018,14 @@
         <v>0</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="I129" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="40" customHeight="1">
-      <c r="A130" s="177">
+      <c r="A130" s="175">
         <v>45624</v>
       </c>
       <c r="B130" s="14" t="s">
@@ -17051,14 +17048,14 @@
         <v>290000</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="I130" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="40" customHeight="1">
-      <c r="A131" s="177">
+      <c r="A131" s="175">
         <v>45624</v>
       </c>
       <c r="B131" s="14" t="s">
@@ -17081,14 +17078,14 @@
         <v>279000</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="I131" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="40" customHeight="1">
-      <c r="A132" s="177">
+      <c r="A132" s="175">
         <v>45624</v>
       </c>
       <c r="B132" s="14" t="s">
@@ -17111,14 +17108,14 @@
         <v>0</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="I132" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="40" customHeight="1">
-      <c r="A133" s="177">
+      <c r="A133" s="175">
         <v>45624</v>
       </c>
       <c r="B133" s="14" t="s">
@@ -17141,14 +17138,14 @@
         <v>701000</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="I133" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="40" customHeight="1">
-      <c r="A134" s="177">
+      <c r="A134" s="175">
         <v>45624</v>
       </c>
       <c r="B134" s="14" t="s">
@@ -17171,14 +17168,14 @@
         <v>274000</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="I134" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="40" customHeight="1">
-      <c r="A135" s="177">
+      <c r="A135" s="175">
         <v>45624</v>
       </c>
       <c r="B135" s="14" t="s">
@@ -17201,14 +17198,14 @@
         <v>154000</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="I135" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="40" customHeight="1">
-      <c r="A136" s="177">
+      <c r="A136" s="175">
         <v>45624</v>
       </c>
       <c r="B136" s="14" t="s">
@@ -17230,15 +17227,15 @@
         <f t="shared" si="2"/>
         <v>275000</v>
       </c>
-      <c r="H136" s="195" t="s">
-        <v>3711</v>
+      <c r="H136" s="193" t="s">
+        <v>3710</v>
       </c>
       <c r="I136" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="40" customHeight="1">
-      <c r="A137" s="177">
+      <c r="A137" s="175">
         <v>45624</v>
       </c>
       <c r="B137" s="14" t="s">
@@ -17260,15 +17257,15 @@
         <f t="shared" si="2"/>
         <v>290000</v>
       </c>
-      <c r="H137" s="195" t="s">
-        <v>3711</v>
+      <c r="H137" s="193" t="s">
+        <v>3710</v>
       </c>
       <c r="I137" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="40" customHeight="1">
-      <c r="A138" s="177">
+      <c r="A138" s="175">
         <v>45624</v>
       </c>
       <c r="B138" s="14" t="s">
@@ -17290,15 +17287,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H138" s="195" t="s">
-        <v>3711</v>
+      <c r="H138" s="193" t="s">
+        <v>3710</v>
       </c>
       <c r="I138" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="40" customHeight="1">
-      <c r="A139" s="177">
+      <c r="A139" s="175">
         <v>45625</v>
       </c>
       <c r="B139" s="14" t="s">
@@ -17321,14 +17318,14 @@
         <v>290000</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="I139" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="40" customHeight="1">
-      <c r="A140" s="177">
+      <c r="A140" s="175">
         <v>45625</v>
       </c>
       <c r="B140" s="14" t="s">
@@ -17351,74 +17348,74 @@
         <v>275000</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="I140" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="40" customHeight="1" thickBot="1">
-      <c r="A141" s="191">
+      <c r="A141" s="189">
         <v>45625</v>
       </c>
-      <c r="B141" s="192" t="s">
+      <c r="B141" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="C141" s="192" t="s">
+      <c r="C141" s="190" t="s">
         <v>159</v>
       </c>
-      <c r="D141" s="192" t="s">
+      <c r="D141" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="E141" s="192">
+      <c r="E141" s="190">
         <v>0</v>
       </c>
-      <c r="F141" s="192">
-        <v>1</v>
-      </c>
-      <c r="G141" s="192">
+      <c r="F141" s="190">
+        <v>1</v>
+      </c>
+      <c r="G141" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H141" s="196" t="s">
-        <v>3712</v>
+      <c r="H141" s="194" t="s">
+        <v>3711</v>
       </c>
       <c r="I141" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="40" customHeight="1" thickTop="1">
-      <c r="A142" s="193">
+      <c r="A142" s="191">
         <v>45628</v>
       </c>
-      <c r="B142" s="194" t="s">
+      <c r="B142" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="C142" s="194" t="s">
+      <c r="C142" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="194" t="s">
+      <c r="D142" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="E142" s="194">
+      <c r="E142" s="192">
         <v>254000</v>
       </c>
-      <c r="F142" s="194">
-        <v>1</v>
-      </c>
-      <c r="G142" s="194">
+      <c r="F142" s="192">
+        <v>1</v>
+      </c>
+      <c r="G142" s="192">
         <f t="shared" si="2"/>
         <v>254000</v>
       </c>
-      <c r="H142" s="197" t="s">
-        <v>3713</v>
+      <c r="H142" s="195" t="s">
+        <v>3712</v>
       </c>
       <c r="I142" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="40" customHeight="1">
-      <c r="A143" s="177">
+      <c r="A143" s="175">
         <v>45628</v>
       </c>
       <c r="B143" s="14" t="s">
@@ -17441,14 +17438,14 @@
         <v>292000</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="I143" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="40" customHeight="1">
-      <c r="A144" s="177">
+      <c r="A144" s="175">
         <v>45628</v>
       </c>
       <c r="B144" s="14" t="s">
@@ -17471,21 +17468,21 @@
         <v>231000</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="I144" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="40" customHeight="1">
-      <c r="A145" s="177">
+      <c r="A145" s="175">
         <v>45629</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="D145" s="14" t="s">
         <v>127</v>
@@ -17501,21 +17498,21 @@
         <v>300000</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="I145" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="40" customHeight="1">
-      <c r="A146" s="177">
+      <c r="A146" s="175">
         <v>45629</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="D146" s="14" t="s">
         <v>22</v>
@@ -17531,14 +17528,14 @@
         <v>300000</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="I146" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="40" customHeight="1">
-      <c r="A147" s="177">
+      <c r="A147" s="175">
         <v>45629</v>
       </c>
       <c r="B147" s="14" t="s">
@@ -17561,14 +17558,14 @@
         <v>315000</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="I147" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="40" customHeight="1">
-      <c r="A148" s="177">
+      <c r="A148" s="175">
         <v>45630</v>
       </c>
       <c r="B148" s="14" t="s">
@@ -17591,14 +17588,14 @@
         <v>315000</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="I148" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="40" customHeight="1">
-      <c r="A149" s="177">
+      <c r="A149" s="175">
         <v>45631</v>
       </c>
       <c r="B149" s="14" t="s">
@@ -17621,14 +17618,14 @@
         <v>310000</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I149" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="40" customHeight="1">
-      <c r="A150" s="177">
+      <c r="A150" s="175">
         <v>45631</v>
       </c>
       <c r="B150" s="14" t="s">
@@ -17651,14 +17648,14 @@
         <v>235000</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I150" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="40" customHeight="1">
-      <c r="A151" s="177">
+      <c r="A151" s="175">
         <v>45631</v>
       </c>
       <c r="B151" s="14" t="s">
@@ -17681,14 +17678,14 @@
         <v>322000</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I151" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="40" customHeight="1">
-      <c r="A152" s="177">
+      <c r="A152" s="175">
         <v>45631</v>
       </c>
       <c r="B152" s="14" t="s">
@@ -17711,14 +17708,14 @@
         <v>175000</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I152" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="40" customHeight="1">
-      <c r="A153" s="177">
+      <c r="A153" s="175">
         <v>45631</v>
       </c>
       <c r="B153" s="14" t="s">
@@ -17741,14 +17738,14 @@
         <v>274000</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I153" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="40" customHeight="1">
-      <c r="A154" s="177">
+      <c r="A154" s="175">
         <v>45631</v>
       </c>
       <c r="B154" s="14" t="s">
@@ -17771,14 +17768,14 @@
         <v>154000</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I154" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="40" customHeight="1">
-      <c r="A155" s="177">
+      <c r="A155" s="175">
         <v>45631</v>
       </c>
       <c r="B155" s="14" t="s">
@@ -17801,14 +17798,14 @@
         <v>315000</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I155" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="40" customHeight="1">
-      <c r="A156" s="177">
+      <c r="A156" s="175">
         <v>45631</v>
       </c>
       <c r="B156" s="14" t="s">
@@ -17831,14 +17828,14 @@
         <v>315000</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I156" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="40" customHeight="1">
-      <c r="A157" s="177">
+      <c r="A157" s="175">
         <v>45631</v>
       </c>
       <c r="B157" s="14" t="s">
@@ -17861,14 +17858,14 @@
         <v>315000</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I157" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="40" customHeight="1">
-      <c r="A158" s="177">
+      <c r="A158" s="175">
         <v>45631</v>
       </c>
       <c r="B158" s="14" t="s">
@@ -17891,14 +17888,14 @@
         <v>280000</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I158" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="40" customHeight="1">
-      <c r="A159" s="177">
+      <c r="A159" s="175">
         <v>45631</v>
       </c>
       <c r="B159" s="14" t="s">
@@ -17921,14 +17918,14 @@
         <v>286000</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I159" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="40" customHeight="1">
-      <c r="A160" s="177">
+      <c r="A160" s="175">
         <v>45631</v>
       </c>
       <c r="B160" s="14" t="s">
@@ -17951,14 +17948,14 @@
         <v>216000</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I160" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="40" customHeight="1">
-      <c r="A161" s="177">
+      <c r="A161" s="175">
         <v>45631</v>
       </c>
       <c r="B161" s="14" t="s">
@@ -17981,14 +17978,14 @@
         <v>343000</v>
       </c>
       <c r="H161" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I161" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="40" customHeight="1">
-      <c r="A162" s="177">
+      <c r="A162" s="175">
         <v>45631</v>
       </c>
       <c r="B162" s="14" t="s">
@@ -18011,14 +18008,14 @@
         <v>315000</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="I162" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="40" customHeight="1">
-      <c r="A163" s="177">
+      <c r="A163" s="175">
         <v>45631</v>
       </c>
       <c r="B163" s="14" t="s">
@@ -18041,14 +18038,14 @@
         <v>255000</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="I163" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="40" customHeight="1">
-      <c r="A164" s="177">
+      <c r="A164" s="175">
         <v>45635</v>
       </c>
       <c r="B164" s="14" t="s">
@@ -18071,14 +18068,14 @@
         <v>290000</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="I164" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="40" customHeight="1">
-      <c r="A165" s="177">
+      <c r="A165" s="175">
         <v>45635</v>
       </c>
       <c r="B165" s="14" t="s">
@@ -18101,14 +18098,14 @@
         <v>315000</v>
       </c>
       <c r="H165" s="15" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="I165" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="40" customHeight="1">
-      <c r="A166" s="177">
+      <c r="A166" s="175">
         <v>45635</v>
       </c>
       <c r="B166" s="14" t="s">
@@ -18131,21 +18128,21 @@
         <v>315000</v>
       </c>
       <c r="H166" s="15" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="I166" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="40" customHeight="1">
-      <c r="A167" s="177">
+      <c r="A167" s="175">
         <v>45635</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>137</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>69</v>
@@ -18161,14 +18158,14 @@
         <v>0</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="I167" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="40" customHeight="1">
-      <c r="A168" s="177">
+      <c r="A168" s="175">
         <v>45635</v>
       </c>
       <c r="B168" s="14" t="s">
@@ -18191,14 +18188,14 @@
         <v>292000</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="I168" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="40" customHeight="1">
-      <c r="A169" s="177">
+      <c r="A169" s="175">
         <v>45635</v>
       </c>
       <c r="B169" s="14" t="s">
@@ -18220,14 +18217,14 @@
         <v>260000</v>
       </c>
       <c r="H169" s="15" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="I169" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="40" customHeight="1">
-      <c r="A170" s="177">
+      <c r="A170" s="175">
         <v>45637</v>
       </c>
       <c r="B170" s="14" t="s">
@@ -18250,14 +18247,14 @@
         <v>290000</v>
       </c>
       <c r="H170" s="15" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="I170" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="40" customHeight="1">
-      <c r="A171" s="177">
+      <c r="A171" s="175">
         <v>45638</v>
       </c>
       <c r="B171" s="14" t="s">
@@ -18280,14 +18277,14 @@
         <v>255000</v>
       </c>
       <c r="H171" s="15" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="I171" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="40" customHeight="1">
-      <c r="A172" s="177">
+      <c r="A172" s="175">
         <v>45639</v>
       </c>
       <c r="B172" s="14" t="s">
@@ -18310,14 +18307,14 @@
         <v>1016000</v>
       </c>
       <c r="H172" s="15" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="I172" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="40" customHeight="1">
-      <c r="A173" s="177">
+      <c r="A173" s="175">
         <v>45639</v>
       </c>
       <c r="B173" s="14" t="s">
@@ -18340,14 +18337,14 @@
         <v>1016000</v>
       </c>
       <c r="H173" s="15" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="I173" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="40" customHeight="1">
-      <c r="A174" s="177">
+      <c r="A174" s="175">
         <v>45639</v>
       </c>
       <c r="B174" s="14" t="s">
@@ -18370,14 +18367,14 @@
         <v>315000</v>
       </c>
       <c r="H174" s="15" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="I174" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="40" customHeight="1">
-      <c r="A175" s="177">
+      <c r="A175" s="175">
         <v>45639</v>
       </c>
       <c r="B175" s="14" t="s">
@@ -18400,14 +18397,14 @@
         <v>315000</v>
       </c>
       <c r="H175" s="15" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="I175" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="40" customHeight="1">
-      <c r="A176" s="177">
+      <c r="A176" s="175">
         <v>45639</v>
       </c>
       <c r="B176" s="14" t="s">
@@ -18430,14 +18427,14 @@
         <v>224000</v>
       </c>
       <c r="H176" s="15" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="I176" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="40" customHeight="1">
-      <c r="A177" s="177">
+      <c r="A177" s="175">
         <v>45642</v>
       </c>
       <c r="B177" s="14" t="s">
@@ -18460,14 +18457,14 @@
         <v>274000</v>
       </c>
       <c r="H177" s="15" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="I177" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="40" customHeight="1">
-      <c r="A178" s="177">
+      <c r="A178" s="175">
         <v>45642</v>
       </c>
       <c r="B178" s="14" t="s">
@@ -18490,14 +18487,14 @@
         <v>270000</v>
       </c>
       <c r="H178" s="15" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="I178" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="40" customHeight="1">
-      <c r="A179" s="177">
+      <c r="A179" s="175">
         <v>45642</v>
       </c>
       <c r="B179" s="14" t="s">
@@ -18520,14 +18517,14 @@
         <v>270000</v>
       </c>
       <c r="H179" s="15" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="I179" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="40" customHeight="1">
-      <c r="A180" s="177">
+      <c r="A180" s="175">
         <v>45642</v>
       </c>
       <c r="B180" s="14" t="s">
@@ -18550,14 +18547,14 @@
         <v>292000</v>
       </c>
       <c r="H180" s="15" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="I180" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="40" customHeight="1">
-      <c r="A181" s="177">
+      <c r="A181" s="175">
         <v>45642</v>
       </c>
       <c r="B181" s="14" t="s">
@@ -18580,14 +18577,14 @@
         <v>231000</v>
       </c>
       <c r="H181" s="15" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="I181" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="40" customHeight="1">
-      <c r="A182" s="177">
+      <c r="A182" s="175">
         <v>45642</v>
       </c>
       <c r="B182" s="14" t="s">
@@ -18610,14 +18607,14 @@
         <v>315000</v>
       </c>
       <c r="H182" s="15" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="I182" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="40" customHeight="1">
-      <c r="A183" s="177">
+      <c r="A183" s="175">
         <v>45644</v>
       </c>
       <c r="B183" s="14" t="s">
@@ -18640,14 +18637,14 @@
         <v>157500</v>
       </c>
       <c r="H183" s="15" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="I183" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="40" customHeight="1">
-      <c r="A184" s="177">
+      <c r="A184" s="175">
         <v>45644</v>
       </c>
       <c r="B184" s="14" t="s">
@@ -18670,14 +18667,14 @@
         <v>157500</v>
       </c>
       <c r="H184" s="15" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="I184" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="40" customHeight="1">
-      <c r="A185" s="177">
+      <c r="A185" s="175">
         <v>45646</v>
       </c>
       <c r="B185" s="14" t="s">
@@ -18700,14 +18697,14 @@
         <v>292000</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="I185" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="40" customHeight="1">
-      <c r="A186" s="177">
+      <c r="A186" s="175">
         <v>45646</v>
       </c>
       <c r="B186" s="14" t="s">
@@ -18730,14 +18727,14 @@
         <v>231000</v>
       </c>
       <c r="H186" s="15" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="I186" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="40" customHeight="1">
-      <c r="A187" s="177">
+      <c r="A187" s="175">
         <v>45646</v>
       </c>
       <c r="B187" s="14" t="s">
@@ -18760,14 +18757,14 @@
         <v>315000</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="I187" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="40" customHeight="1">
-      <c r="A188" s="177">
+      <c r="A188" s="175">
         <v>45646</v>
       </c>
       <c r="B188" s="14" t="s">
@@ -18790,14 +18787,14 @@
         <v>157500</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="I188" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="40" customHeight="1">
-      <c r="A189" s="177">
+      <c r="A189" s="175">
         <v>45646</v>
       </c>
       <c r="B189" s="14" t="s">
@@ -18820,7 +18817,7 @@
         <v>157500</v>
       </c>
       <c r="H189" s="15" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="I189" s="43" t="s">
         <v>14</v>
@@ -45396,7 +45393,7 @@
         <v>1</v>
       </c>
       <c r="G1080" s="52">
-        <f t="shared" ref="G1080:G1152" si="46">E1080*F1080</f>
+        <f t="shared" ref="G1080:G1081" si="46">E1080*F1080</f>
         <v>264000</v>
       </c>
       <c r="H1080" s="15" t="s">
@@ -45450,13 +45447,13 @@
         <v>20</v>
       </c>
       <c r="E1082" s="62" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F1082" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1082" s="52" t="s">
         <v>3736</v>
-      </c>
-      <c r="F1082" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1082" s="52" t="s">
-        <v>3737</v>
       </c>
       <c r="H1082" s="15" t="s">
         <v>586</v>
@@ -45479,13 +45476,13 @@
         <v>127</v>
       </c>
       <c r="E1083" s="62" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F1083" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1083" s="52" t="s">
         <v>3736</v>
-      </c>
-      <c r="F1083" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1083" s="52" t="s">
-        <v>3737</v>
       </c>
       <c r="H1083" s="15" t="s">
         <v>587</v>
@@ -45508,13 +45505,13 @@
         <v>20</v>
       </c>
       <c r="E1084" s="62" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F1084" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1084" s="52" t="s">
         <v>3736</v>
-      </c>
-      <c r="F1084" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1084" s="52" t="s">
-        <v>3737</v>
       </c>
       <c r="H1084" s="15" t="s">
         <v>587</v>
@@ -45537,13 +45534,13 @@
         <v>22</v>
       </c>
       <c r="E1085" s="62" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F1085" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1085" s="52" t="s">
         <v>3736</v>
-      </c>
-      <c r="F1085" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1085" s="52" t="s">
-        <v>3737</v>
       </c>
       <c r="H1085" s="15" t="s">
         <v>587</v>
@@ -45566,13 +45563,13 @@
         <v>27</v>
       </c>
       <c r="E1086" s="62" t="s">
+        <v>3737</v>
+      </c>
+      <c r="F1086" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1086" s="52" t="s">
         <v>3738</v>
-      </c>
-      <c r="F1086" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1086" s="52" t="s">
-        <v>3739</v>
       </c>
       <c r="H1086" s="15" t="s">
         <v>588</v>
@@ -45595,13 +45592,13 @@
         <v>268</v>
       </c>
       <c r="E1087" s="62" t="s">
+        <v>3739</v>
+      </c>
+      <c r="F1087" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1087" s="52" t="s">
         <v>3740</v>
-      </c>
-      <c r="F1087" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1087" s="52" t="s">
-        <v>3741</v>
       </c>
       <c r="H1087" s="15" t="s">
         <v>588</v>
@@ -45621,16 +45618,16 @@
         <v>19</v>
       </c>
       <c r="D1088" s="14" t="s">
+        <v>3741</v>
+      </c>
+      <c r="E1088" s="62" t="s">
         <v>3742</v>
       </c>
-      <c r="E1088" s="62" t="s">
+      <c r="F1088" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1088" s="52" t="s">
         <v>3743</v>
-      </c>
-      <c r="F1088" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1088" s="52" t="s">
-        <v>3744</v>
       </c>
       <c r="H1088" s="15" t="s">
         <v>588</v>
@@ -45653,13 +45650,13 @@
         <v>110</v>
       </c>
       <c r="E1089" s="62" t="s">
+        <v>3744</v>
+      </c>
+      <c r="F1089" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1089" s="52" t="s">
         <v>3745</v>
-      </c>
-      <c r="F1089" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1089" s="52" t="s">
-        <v>3746</v>
       </c>
       <c r="H1089" s="15" t="s">
         <v>589</v>
@@ -45682,13 +45679,13 @@
         <v>591</v>
       </c>
       <c r="E1090" s="62" t="s">
+        <v>3746</v>
+      </c>
+      <c r="F1090" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1090" s="52" t="s">
         <v>3747</v>
-      </c>
-      <c r="F1090" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1090" s="52" t="s">
-        <v>3748</v>
       </c>
       <c r="H1090" s="15" t="s">
         <v>592</v>
@@ -45711,13 +45708,13 @@
         <v>593</v>
       </c>
       <c r="E1091" s="62" t="s">
+        <v>3748</v>
+      </c>
+      <c r="F1091" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1091" s="52" t="s">
         <v>3749</v>
-      </c>
-      <c r="F1091" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1091" s="52" t="s">
-        <v>3750</v>
       </c>
       <c r="H1091" s="15" t="s">
         <v>594</v>
@@ -45740,13 +45737,13 @@
         <v>595</v>
       </c>
       <c r="E1092" s="62" t="s">
+        <v>3748</v>
+      </c>
+      <c r="F1092" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1092" s="52" t="s">
         <v>3749</v>
-      </c>
-      <c r="F1092" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1092" s="52" t="s">
-        <v>3750</v>
       </c>
       <c r="H1092" s="15" t="s">
         <v>594</v>
@@ -45769,13 +45766,13 @@
         <v>127</v>
       </c>
       <c r="E1093" s="62" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F1093" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1093" s="52" t="s">
         <v>3736</v>
-      </c>
-      <c r="F1093" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1093" s="52" t="s">
-        <v>3737</v>
       </c>
       <c r="H1093" s="15" t="s">
         <v>594</v>
@@ -45798,13 +45795,13 @@
         <v>597</v>
       </c>
       <c r="E1094" s="62" t="s">
+        <v>3750</v>
+      </c>
+      <c r="F1094" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1094" s="52" t="s">
         <v>3751</v>
-      </c>
-      <c r="F1094" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1094" s="52" t="s">
-        <v>3752</v>
       </c>
       <c r="H1094" s="15" t="s">
         <v>598</v>
@@ -45827,13 +45824,13 @@
         <v>599</v>
       </c>
       <c r="E1095" s="62" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F1095" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1095" s="52" t="s">
         <v>3753</v>
-      </c>
-      <c r="F1095" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1095" s="52" t="s">
-        <v>3754</v>
       </c>
       <c r="H1095" s="15" t="s">
         <v>598</v>
@@ -45856,13 +45853,13 @@
         <v>600</v>
       </c>
       <c r="E1096" s="62" t="s">
+        <v>3754</v>
+      </c>
+      <c r="F1096" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1096" s="52" t="s">
         <v>3755</v>
-      </c>
-      <c r="F1096" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1096" s="52" t="s">
-        <v>3756</v>
       </c>
       <c r="H1096" s="15" t="s">
         <v>598</v>
@@ -45885,13 +45882,13 @@
         <v>340</v>
       </c>
       <c r="E1097" s="62" t="s">
+        <v>3756</v>
+      </c>
+      <c r="F1097" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1097" s="52" t="s">
         <v>3757</v>
-      </c>
-      <c r="F1097" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1097" s="52" t="s">
-        <v>3758</v>
       </c>
       <c r="H1097" s="15" t="s">
         <v>601</v>
@@ -45914,13 +45911,13 @@
         <v>50</v>
       </c>
       <c r="E1098" s="62" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="F1098" s="14">
         <v>2</v>
       </c>
       <c r="G1098" s="52" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="H1098" s="15" t="s">
         <v>602</v>
@@ -45943,13 +45940,13 @@
         <v>45</v>
       </c>
       <c r="E1099" s="62" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="F1099" s="14">
         <v>2</v>
       </c>
       <c r="G1099" s="52" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="H1099" s="15" t="s">
         <v>602</v>
@@ -45972,13 +45969,13 @@
         <v>114</v>
       </c>
       <c r="E1100" s="62" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="F1100" s="14">
         <v>2</v>
       </c>
       <c r="G1100" s="52" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="H1100" s="15" t="s">
         <v>602</v>
@@ -46001,13 +45998,13 @@
         <v>69</v>
       </c>
       <c r="E1101" s="62" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="F1101" s="14">
         <v>1</v>
       </c>
       <c r="G1101" s="52" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="H1101" s="15" t="s">
         <v>602</v>
@@ -46030,13 +46027,13 @@
         <v>198</v>
       </c>
       <c r="E1102" s="62" t="s">
+        <v>3765</v>
+      </c>
+      <c r="F1102" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1102" s="52" t="s">
         <v>3766</v>
-      </c>
-      <c r="F1102" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1102" s="52" t="s">
-        <v>3767</v>
       </c>
       <c r="H1102" s="15" t="s">
         <v>602</v>
@@ -46059,13 +46056,13 @@
         <v>537</v>
       </c>
       <c r="E1103" s="62" t="s">
+        <v>3767</v>
+      </c>
+      <c r="F1103" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1103" s="52" t="s">
         <v>3768</v>
-      </c>
-      <c r="F1103" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1103" s="52" t="s">
-        <v>3769</v>
       </c>
       <c r="H1103" s="15" t="s">
         <v>602</v>
@@ -46088,13 +46085,13 @@
         <v>39</v>
       </c>
       <c r="E1104" s="62" t="s">
+        <v>3769</v>
+      </c>
+      <c r="F1104" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1104" s="52" t="s">
         <v>3770</v>
-      </c>
-      <c r="F1104" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1104" s="52" t="s">
-        <v>3771</v>
       </c>
       <c r="H1104" s="15" t="s">
         <v>604</v>
@@ -46117,13 +46114,13 @@
         <v>90</v>
       </c>
       <c r="E1105" s="62" t="s">
+        <v>3771</v>
+      </c>
+      <c r="F1105" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1105" s="52" t="s">
         <v>3772</v>
-      </c>
-      <c r="F1105" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1105" s="52" t="s">
-        <v>3773</v>
       </c>
       <c r="H1105" s="15" t="s">
         <v>606</v>
@@ -46146,13 +46143,13 @@
         <v>225</v>
       </c>
       <c r="E1106" s="62" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="F1106" s="125">
         <v>5</v>
       </c>
       <c r="G1106" s="52" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="H1106" s="15" t="s">
         <v>607</v>
@@ -46175,13 +46172,13 @@
         <v>225</v>
       </c>
       <c r="E1107" s="62" t="s">
+        <v>3765</v>
+      </c>
+      <c r="F1107" s="125">
+        <v>1</v>
+      </c>
+      <c r="G1107" s="52" t="s">
         <v>3766</v>
-      </c>
-      <c r="F1107" s="125">
-        <v>1</v>
-      </c>
-      <c r="G1107" s="52" t="s">
-        <v>3767</v>
       </c>
       <c r="H1107" s="15" t="s">
         <v>607</v>
@@ -46204,13 +46201,13 @@
         <v>236</v>
       </c>
       <c r="E1108" s="62" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="F1108" s="14">
         <v>4</v>
       </c>
       <c r="G1108" s="52" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="H1108" s="15" t="s">
         <v>607</v>
@@ -46233,13 +46230,13 @@
         <v>239</v>
       </c>
       <c r="E1109" s="62" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="F1109" s="14">
         <v>5</v>
       </c>
       <c r="G1109" s="52" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="H1109" s="15" t="s">
         <v>607</v>
@@ -46262,13 +46259,13 @@
         <v>239</v>
       </c>
       <c r="E1110" s="62" t="s">
+        <v>3765</v>
+      </c>
+      <c r="F1110" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1110" s="52" t="s">
         <v>3766</v>
-      </c>
-      <c r="F1110" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1110" s="52" t="s">
-        <v>3767</v>
       </c>
       <c r="H1110" s="15" t="s">
         <v>607</v>
@@ -46288,16 +46285,16 @@
         <v>227</v>
       </c>
       <c r="D1111" s="14" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E1111" s="62" t="s">
         <v>3780</v>
       </c>
-      <c r="E1111" s="62" t="s">
+      <c r="F1111" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1111" s="52" t="s">
         <v>3781</v>
-      </c>
-      <c r="F1111" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1111" s="52" t="s">
-        <v>3782</v>
       </c>
       <c r="H1111" s="15" t="s">
         <v>607</v>
@@ -46320,13 +46317,13 @@
         <v>38</v>
       </c>
       <c r="E1112" s="62" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F1112" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1112" s="52" t="s">
         <v>3783</v>
-      </c>
-      <c r="F1112" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1112" s="52" t="s">
-        <v>3784</v>
       </c>
       <c r="H1112" s="15" t="s">
         <v>607</v>
@@ -46349,13 +46346,13 @@
         <v>181</v>
       </c>
       <c r="E1113" s="62" t="s">
+        <v>3784</v>
+      </c>
+      <c r="F1113" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="52" t="s">
         <v>3785</v>
-      </c>
-      <c r="F1113" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1113" s="52" t="s">
-        <v>3786</v>
       </c>
       <c r="H1113" s="15" t="s">
         <v>608</v>
@@ -46378,7 +46375,7 @@
         <v>85</v>
       </c>
       <c r="E1114" s="62" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="F1114" s="14">
         <v>1</v>
@@ -46407,13 +46404,13 @@
         <v>609</v>
       </c>
       <c r="E1115" s="62" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="F1115" s="14">
         <v>6</v>
       </c>
       <c r="G1115" s="52" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="H1115" s="15" t="s">
         <v>610</v>
@@ -46436,13 +46433,13 @@
         <v>609</v>
       </c>
       <c r="E1116" s="62" t="s">
+        <v>3765</v>
+      </c>
+      <c r="F1116" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1116" s="52" t="s">
         <v>3766</v>
-      </c>
-      <c r="F1116" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1116" s="52" t="s">
-        <v>3767</v>
       </c>
       <c r="H1116" s="15" t="s">
         <v>610</v>
@@ -46465,13 +46462,13 @@
         <v>583</v>
       </c>
       <c r="E1117" s="62" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="F1117" s="14">
         <v>10</v>
       </c>
       <c r="G1117" s="52" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="H1117" s="15" t="s">
         <v>610</v>
@@ -46494,13 +46491,13 @@
         <v>583</v>
       </c>
       <c r="E1118" s="62" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F1118" s="14">
         <v>2</v>
       </c>
       <c r="G1118" s="52" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="H1118" s="15" t="s">
         <v>610</v>
@@ -46523,13 +46520,13 @@
         <v>611</v>
       </c>
       <c r="E1119" s="62" t="s">
+        <v>3791</v>
+      </c>
+      <c r="F1119" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1119" s="52" t="s">
         <v>3792</v>
-      </c>
-      <c r="F1119" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1119" s="52" t="s">
-        <v>3793</v>
       </c>
       <c r="H1119" s="15" t="s">
         <v>610</v>
@@ -46552,13 +46549,13 @@
         <v>268</v>
       </c>
       <c r="E1120" s="62" t="s">
+        <v>3793</v>
+      </c>
+      <c r="F1120" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1120" s="52" t="s">
         <v>3794</v>
-      </c>
-      <c r="F1120" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1120" s="52" t="s">
-        <v>3795</v>
       </c>
       <c r="H1120" s="15" t="s">
         <v>610</v>
@@ -46581,13 +46578,13 @@
         <v>488</v>
       </c>
       <c r="E1121" s="62" t="s">
+        <v>3795</v>
+      </c>
+      <c r="F1121" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1121" s="52" t="s">
         <v>3796</v>
-      </c>
-      <c r="F1121" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1121" s="52" t="s">
-        <v>3797</v>
       </c>
       <c r="H1121" s="15" t="s">
         <v>613</v>
@@ -46610,13 +46607,13 @@
         <v>225</v>
       </c>
       <c r="E1122" s="62" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="F1122" s="14">
         <v>5</v>
       </c>
       <c r="G1122" s="52" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="H1122" s="15" t="s">
         <v>614</v>
@@ -46639,13 +46636,13 @@
         <v>225</v>
       </c>
       <c r="E1123" s="62" t="s">
+        <v>3765</v>
+      </c>
+      <c r="F1123" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1123" s="52" t="s">
         <v>3766</v>
-      </c>
-      <c r="F1123" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1123" s="52" t="s">
-        <v>3767</v>
       </c>
       <c r="H1123" s="15" t="s">
         <v>614</v>
@@ -46668,13 +46665,13 @@
         <v>401</v>
       </c>
       <c r="E1124" s="62" t="s">
+        <v>3797</v>
+      </c>
+      <c r="F1124" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1124" s="52" t="s">
         <v>3798</v>
-      </c>
-      <c r="F1124" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1124" s="52" t="s">
-        <v>3799</v>
       </c>
       <c r="H1124" s="15" t="s">
         <v>614</v>
@@ -46697,13 +46694,13 @@
         <v>403</v>
       </c>
       <c r="E1125" s="62" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="F1125" s="14">
         <v>6</v>
       </c>
       <c r="G1125" s="52" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="H1125" s="15" t="s">
         <v>615</v>
@@ -46726,13 +46723,13 @@
         <v>403</v>
       </c>
       <c r="E1126" s="62" t="s">
+        <v>3765</v>
+      </c>
+      <c r="F1126" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1126" s="52" t="s">
         <v>3766</v>
-      </c>
-      <c r="F1126" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1126" s="52" t="s">
-        <v>3767</v>
       </c>
       <c r="H1126" s="15" t="s">
         <v>615</v>
@@ -46755,13 +46752,13 @@
         <v>84</v>
       </c>
       <c r="E1127" s="62" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="F1127" s="14">
         <v>2</v>
       </c>
       <c r="G1127" s="52" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="H1127" s="15" t="s">
         <v>616</v>
@@ -46784,13 +46781,13 @@
         <v>562</v>
       </c>
       <c r="E1128" s="62" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="F1128" s="14">
         <v>2</v>
       </c>
       <c r="G1128" s="52" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="H1128" s="15" t="s">
         <v>616</v>
@@ -46810,16 +46807,16 @@
         <v>329</v>
       </c>
       <c r="D1129" s="14" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E1129" s="62" t="s">
         <v>3780</v>
       </c>
-      <c r="E1129" s="62" t="s">
+      <c r="F1129" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1129" s="52" t="s">
         <v>3781</v>
-      </c>
-      <c r="F1129" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1129" s="52" t="s">
-        <v>3782</v>
       </c>
       <c r="H1129" s="15" t="s">
         <v>616</v>
@@ -46842,13 +46839,13 @@
         <v>38</v>
       </c>
       <c r="E1130" s="62" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F1130" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1130" s="52" t="s">
         <v>3783</v>
-      </c>
-      <c r="F1130" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1130" s="52" t="s">
-        <v>3784</v>
       </c>
       <c r="H1130" s="15" t="s">
         <v>616</v>
@@ -46871,13 +46868,13 @@
         <v>39</v>
       </c>
       <c r="E1131" s="62" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="F1131" s="14">
         <v>2</v>
       </c>
       <c r="G1131" s="52" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="H1131" s="15" t="s">
         <v>616</v>
@@ -46900,13 +46897,13 @@
         <v>29</v>
       </c>
       <c r="E1132" s="62" t="s">
+        <v>3807</v>
+      </c>
+      <c r="F1132" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1132" s="52" t="s">
         <v>3808</v>
-      </c>
-      <c r="F1132" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1132" s="52" t="s">
-        <v>3809</v>
       </c>
       <c r="H1132" s="15" t="s">
         <v>616</v>
@@ -46929,13 +46926,13 @@
         <v>90</v>
       </c>
       <c r="E1133" s="62" t="s">
+        <v>3809</v>
+      </c>
+      <c r="F1133" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1133" s="52" t="s">
         <v>3810</v>
-      </c>
-      <c r="F1133" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1133" s="52" t="s">
-        <v>3811</v>
       </c>
       <c r="H1133" s="15" t="s">
         <v>616</v>
@@ -46958,13 +46955,13 @@
         <v>37</v>
       </c>
       <c r="E1134" s="62" t="s">
+        <v>3811</v>
+      </c>
+      <c r="F1134" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1134" s="52" t="s">
         <v>3812</v>
-      </c>
-      <c r="F1134" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1134" s="52" t="s">
-        <v>3813</v>
       </c>
       <c r="H1134" s="15" t="s">
         <v>616</v>
@@ -46987,13 +46984,13 @@
         <v>199</v>
       </c>
       <c r="E1135" s="62" t="s">
+        <v>3813</v>
+      </c>
+      <c r="F1135" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1135" s="52" t="s">
         <v>3814</v>
-      </c>
-      <c r="F1135" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1135" s="52" t="s">
-        <v>3815</v>
       </c>
       <c r="H1135" s="15" t="s">
         <v>616</v>
@@ -47016,13 +47013,13 @@
         <v>617</v>
       </c>
       <c r="E1136" s="62" t="s">
+        <v>3815</v>
+      </c>
+      <c r="F1136" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1136" s="52" t="s">
         <v>3816</v>
-      </c>
-      <c r="F1136" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1136" s="52" t="s">
-        <v>3817</v>
       </c>
       <c r="H1136" s="15" t="s">
         <v>616</v>
@@ -47045,13 +47042,13 @@
         <v>161</v>
       </c>
       <c r="E1137" s="62" t="s">
+        <v>3817</v>
+      </c>
+      <c r="F1137" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1137" s="52" t="s">
         <v>3818</v>
-      </c>
-      <c r="F1137" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1137" s="52" t="s">
-        <v>3819</v>
       </c>
       <c r="H1137" s="15" t="s">
         <v>616</v>
@@ -47074,13 +47071,13 @@
         <v>311</v>
       </c>
       <c r="E1138" s="62" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="F1138" s="14">
         <v>2</v>
       </c>
       <c r="G1138" s="52" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="H1138" s="15" t="s">
         <v>616</v>
@@ -47103,13 +47100,13 @@
         <v>57</v>
       </c>
       <c r="E1139" s="62" t="s">
+        <v>3821</v>
+      </c>
+      <c r="F1139" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1139" s="52" t="s">
         <v>3822</v>
-      </c>
-      <c r="F1139" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1139" s="52" t="s">
-        <v>3823</v>
       </c>
       <c r="H1139" s="15" t="s">
         <v>618</v>
@@ -47132,13 +47129,13 @@
         <v>55</v>
       </c>
       <c r="E1140" s="62" t="s">
+        <v>3823</v>
+      </c>
+      <c r="F1140" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1140" s="52" t="s">
         <v>3824</v>
-      </c>
-      <c r="F1140" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1140" s="52" t="s">
-        <v>3825</v>
       </c>
       <c r="H1140" s="15" t="s">
         <v>618</v>
@@ -47158,16 +47155,16 @@
         <v>569</v>
       </c>
       <c r="D1141" s="14" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E1141" s="62" t="s">
         <v>3780</v>
       </c>
-      <c r="E1141" s="62" t="s">
+      <c r="F1141" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1141" s="52" t="s">
         <v>3781</v>
-      </c>
-      <c r="F1141" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1141" s="52" t="s">
-        <v>3782</v>
       </c>
       <c r="H1141" s="15" t="s">
         <v>618</v>
@@ -47190,13 +47187,13 @@
         <v>38</v>
       </c>
       <c r="E1142" s="62" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F1142" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1142" s="52" t="s">
         <v>3783</v>
-      </c>
-      <c r="F1142" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1142" s="52" t="s">
-        <v>3784</v>
       </c>
       <c r="H1142" s="15" t="s">
         <v>618</v>
@@ -47219,13 +47216,13 @@
         <v>29</v>
       </c>
       <c r="E1143" s="62" t="s">
+        <v>3807</v>
+      </c>
+      <c r="F1143" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1143" s="52" t="s">
         <v>3808</v>
-      </c>
-      <c r="F1143" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1143" s="52" t="s">
-        <v>3809</v>
       </c>
       <c r="H1143" s="15" t="s">
         <v>618</v>
@@ -47248,13 +47245,13 @@
         <v>113</v>
       </c>
       <c r="E1144" s="62" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="F1144" s="14">
         <v>1</v>
       </c>
       <c r="G1144" s="52" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="H1144" s="15" t="s">
         <v>619</v>
@@ -47277,13 +47274,13 @@
         <v>38</v>
       </c>
       <c r="E1145" s="62" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F1145" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1145" s="52" t="s">
         <v>3783</v>
-      </c>
-      <c r="F1145" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1145" s="52" t="s">
-        <v>3784</v>
       </c>
       <c r="H1145" s="15" t="s">
         <v>619</v>
@@ -47306,13 +47303,13 @@
         <v>39</v>
       </c>
       <c r="E1146" s="62" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="F1146" s="14">
         <v>1</v>
       </c>
       <c r="G1146" s="52" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="H1146" s="15" t="s">
         <v>621</v>
@@ -47335,13 +47332,13 @@
         <v>562</v>
       </c>
       <c r="E1147" s="62" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="F1147" s="14">
         <v>1</v>
       </c>
       <c r="G1147" s="52" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="H1147" s="15" t="s">
         <v>621</v>
@@ -47364,13 +47361,13 @@
         <v>29</v>
       </c>
       <c r="E1148" s="62" t="s">
+        <v>3807</v>
+      </c>
+      <c r="F1148" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1148" s="52" t="s">
         <v>3808</v>
-      </c>
-      <c r="F1148" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1148" s="52" t="s">
-        <v>3809</v>
       </c>
       <c r="H1148" s="15" t="s">
         <v>621</v>
@@ -47393,13 +47390,13 @@
         <v>84</v>
       </c>
       <c r="E1149" s="62" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="F1149" s="14">
         <v>1</v>
       </c>
       <c r="G1149" s="52" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="H1149" s="15" t="s">
         <v>621</v>
@@ -47419,16 +47416,16 @@
         <v>620</v>
       </c>
       <c r="D1150" s="14" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E1150" s="62" t="s">
         <v>3780</v>
       </c>
-      <c r="E1150" s="62" t="s">
+      <c r="F1150" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1150" s="52" t="s">
         <v>3781</v>
-      </c>
-      <c r="F1150" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1150" s="52" t="s">
-        <v>3782</v>
       </c>
       <c r="H1150" s="15" t="s">
         <v>621</v>
@@ -47451,13 +47448,13 @@
         <v>38</v>
       </c>
       <c r="E1151" s="62" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F1151" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1151" s="52" t="s">
         <v>3783</v>
-      </c>
-      <c r="F1151" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1151" s="52" t="s">
-        <v>3784</v>
       </c>
       <c r="H1151" s="15" t="s">
         <v>621</v>
@@ -47480,13 +47477,13 @@
         <v>35</v>
       </c>
       <c r="E1152" s="62" t="s">
+        <v>3828</v>
+      </c>
+      <c r="F1152" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1152" s="52" t="s">
         <v>3829</v>
-      </c>
-      <c r="F1152" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1152" s="52" t="s">
-        <v>3830</v>
       </c>
       <c r="H1152" s="15" t="s">
         <v>621</v>
@@ -47509,13 +47506,13 @@
         <v>46</v>
       </c>
       <c r="E1153" s="142" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="F1153" s="141">
         <v>2</v>
       </c>
       <c r="G1153" s="143" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="H1153" s="144" t="s">
         <v>622</v>
@@ -47538,13 +47535,13 @@
         <v>69</v>
       </c>
       <c r="E1154" s="142" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="F1154" s="141">
         <v>2</v>
       </c>
       <c r="G1154" s="143" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="H1154" s="144" t="s">
         <v>622</v>
@@ -47567,13 +47564,13 @@
         <v>199</v>
       </c>
       <c r="E1155" s="142" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="F1155" s="141">
         <v>3</v>
       </c>
       <c r="G1155" s="143" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="H1155" s="144" t="s">
         <v>622</v>
@@ -47596,13 +47593,13 @@
         <v>199</v>
       </c>
       <c r="E1156" s="142" t="s">
+        <v>3765</v>
+      </c>
+      <c r="F1156" s="141">
+        <v>1</v>
+      </c>
+      <c r="G1156" s="143" t="s">
         <v>3766</v>
-      </c>
-      <c r="F1156" s="141">
-        <v>1</v>
-      </c>
-      <c r="G1156" s="143" t="s">
-        <v>3767</v>
       </c>
       <c r="H1156" s="144" t="s">
         <v>622</v>
@@ -47619,19 +47616,19 @@
         <v>119</v>
       </c>
       <c r="C1157" s="14" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="D1157" s="14" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E1157" s="62" t="s">
         <v>3780</v>
       </c>
-      <c r="E1157" s="62" t="s">
+      <c r="F1157" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1157" s="52" t="s">
         <v>3781</v>
-      </c>
-      <c r="F1157" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1157" s="52" t="s">
-        <v>3782</v>
       </c>
       <c r="H1157" s="15" t="s">
         <v>624</v>
@@ -47654,13 +47651,13 @@
         <v>127</v>
       </c>
       <c r="E1158" s="62" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F1158" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1158" s="52" t="s">
         <v>3736</v>
-      </c>
-      <c r="F1158" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1158" s="52" t="s">
-        <v>3737</v>
       </c>
       <c r="H1158" s="15" t="s">
         <v>625</v>
@@ -47683,13 +47680,13 @@
         <v>20</v>
       </c>
       <c r="E1159" s="62" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F1159" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1159" s="52" t="s">
         <v>3736</v>
-      </c>
-      <c r="F1159" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1159" s="52" t="s">
-        <v>3737</v>
       </c>
       <c r="H1159" s="15" t="s">
         <v>625</v>
@@ -47712,13 +47709,13 @@
         <v>22</v>
       </c>
       <c r="E1160" s="62" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F1160" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1160" s="52" t="s">
         <v>3736</v>
-      </c>
-      <c r="F1160" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1160" s="52" t="s">
-        <v>3737</v>
       </c>
       <c r="H1160" s="15" t="s">
         <v>625</v>
@@ -47741,13 +47738,13 @@
         <v>185</v>
       </c>
       <c r="E1161" s="62" t="s">
+        <v>3833</v>
+      </c>
+      <c r="F1161" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1161" s="52" t="s">
         <v>3834</v>
-      </c>
-      <c r="F1161" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1161" s="52" t="s">
-        <v>3835</v>
       </c>
       <c r="H1161" s="15" t="s">
         <v>626</v>
@@ -47770,13 +47767,13 @@
         <v>114</v>
       </c>
       <c r="E1162" s="62" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="F1162" s="14">
         <v>1</v>
       </c>
       <c r="G1162" s="52" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="H1162" s="15" t="s">
         <v>626</v>
@@ -47799,13 +47796,13 @@
         <v>199</v>
       </c>
       <c r="E1163" s="62" t="s">
+        <v>3813</v>
+      </c>
+      <c r="F1163" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1163" s="52" t="s">
         <v>3814</v>
-      </c>
-      <c r="F1163" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1163" s="52" t="s">
-        <v>3815</v>
       </c>
       <c r="H1163" s="15" t="s">
         <v>626</v>
@@ -47828,13 +47825,13 @@
         <v>45</v>
       </c>
       <c r="E1164" s="62" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="F1164" s="14">
         <v>1</v>
       </c>
       <c r="G1164" s="52" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="H1164" s="15" t="s">
         <v>626</v>
@@ -47857,13 +47854,13 @@
         <v>22</v>
       </c>
       <c r="E1165" s="62" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="F1165" s="14">
         <v>2</v>
       </c>
       <c r="G1165" s="52" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="H1165" s="15" t="s">
         <v>626</v>
@@ -47886,13 +47883,13 @@
         <v>57</v>
       </c>
       <c r="E1166" s="62" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="F1166" s="14">
         <v>5</v>
       </c>
       <c r="G1166" s="52" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="H1166" s="15" t="s">
         <v>628</v>
@@ -47915,13 +47912,13 @@
         <v>57</v>
       </c>
       <c r="E1167" s="62" t="s">
+        <v>3765</v>
+      </c>
+      <c r="F1167" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1167" s="52" t="s">
         <v>3766</v>
-      </c>
-      <c r="F1167" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1167" s="52" t="s">
-        <v>3767</v>
       </c>
       <c r="H1167" s="15" t="s">
         <v>628</v>
@@ -47944,13 +47941,13 @@
         <v>136</v>
       </c>
       <c r="E1168" s="62" t="s">
+        <v>3838</v>
+      </c>
+      <c r="F1168" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1168" s="52" t="s">
         <v>3839</v>
-      </c>
-      <c r="F1168" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1168" s="52" t="s">
-        <v>3840</v>
       </c>
       <c r="H1168" s="15" t="s">
         <v>628</v>
@@ -47973,13 +47970,13 @@
         <v>257</v>
       </c>
       <c r="E1169" s="62" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F1169" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1169" s="52" t="s">
         <v>3841</v>
-      </c>
-      <c r="F1169" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1169" s="52" t="s">
-        <v>3842</v>
       </c>
       <c r="H1169" s="15" t="s">
         <v>629</v>
@@ -48002,13 +47999,13 @@
         <v>45</v>
       </c>
       <c r="E1170" s="62" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="F1170" s="14">
         <v>1</v>
       </c>
       <c r="G1170" s="52" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="H1170" s="15" t="s">
         <v>631</v>
@@ -48028,16 +48025,16 @@
         <v>632</v>
       </c>
       <c r="D1171" s="14" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="E1171" s="62" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F1171" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1171" s="52" t="s">
         <v>3841</v>
-      </c>
-      <c r="F1171" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1171" s="52" t="s">
-        <v>3842</v>
       </c>
       <c r="H1171" s="15" t="s">
         <v>633</v>
@@ -48060,13 +48057,13 @@
         <v>136</v>
       </c>
       <c r="E1172" s="62" t="s">
+        <v>3843</v>
+      </c>
+      <c r="F1172" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1172" s="52" t="s">
         <v>3844</v>
-      </c>
-      <c r="F1172" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1172" s="52" t="s">
-        <v>3845</v>
       </c>
       <c r="H1172" s="15" t="s">
         <v>633</v>
@@ -48086,16 +48083,16 @@
         <v>632</v>
       </c>
       <c r="D1173" s="14" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="E1173" s="62" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F1173" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1173" s="52" t="s">
         <v>3846</v>
-      </c>
-      <c r="F1173" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1173" s="52" t="s">
-        <v>3847</v>
       </c>
       <c r="H1173" s="15" t="s">
         <v>633</v>
@@ -48118,13 +48115,13 @@
         <v>340</v>
       </c>
       <c r="E1174" s="62" t="s">
+        <v>3756</v>
+      </c>
+      <c r="F1174" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1174" s="52" t="s">
         <v>3757</v>
-      </c>
-      <c r="F1174" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1174" s="52" t="s">
-        <v>3758</v>
       </c>
       <c r="H1174" s="15" t="s">
         <v>634</v>
@@ -48147,13 +48144,13 @@
         <v>635</v>
       </c>
       <c r="E1175" s="62" t="s">
+        <v>3847</v>
+      </c>
+      <c r="F1175" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1175" s="52" t="s">
         <v>3848</v>
-      </c>
-      <c r="F1175" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1175" s="52" t="s">
-        <v>3849</v>
       </c>
       <c r="H1175" s="15" t="s">
         <v>634</v>
@@ -48173,16 +48170,16 @@
         <v>636</v>
       </c>
       <c r="D1176" s="14" t="s">
+        <v>3849</v>
+      </c>
+      <c r="E1176" s="62" t="s">
         <v>3850</v>
-      </c>
-      <c r="E1176" s="62" t="s">
-        <v>3851</v>
       </c>
       <c r="F1176" s="14">
         <v>5</v>
       </c>
       <c r="G1176" s="52" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="H1176" s="15" t="s">
         <v>637</v>
@@ -48195,7 +48192,7 @@
       <c r="A1177" s="43">
         <v>45890</v>
       </c>
-      <c r="B1177" s="198" t="s">
+      <c r="B1177" s="196" t="s">
         <v>10</v>
       </c>
       <c r="C1177" s="14" t="s">
@@ -48205,13 +48202,13 @@
         <v>136</v>
       </c>
       <c r="E1177" s="62" t="s">
+        <v>3843</v>
+      </c>
+      <c r="F1177" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1177" s="52" t="s">
         <v>3844</v>
-      </c>
-      <c r="F1177" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1177" s="52" t="s">
-        <v>3845</v>
       </c>
       <c r="H1177" s="15" t="s">
         <v>637</v>
@@ -48224,23 +48221,23 @@
       <c r="A1178" s="43">
         <v>45890</v>
       </c>
-      <c r="B1178" s="198" t="s">
+      <c r="B1178" s="196" t="s">
         <v>10</v>
       </c>
       <c r="C1178" s="14" t="s">
         <v>636</v>
       </c>
       <c r="D1178" s="14" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="E1178" s="62" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F1178" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1178" s="52" t="s">
         <v>3841</v>
-      </c>
-      <c r="F1178" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1178" s="52" t="s">
-        <v>3842</v>
       </c>
       <c r="H1178" s="15" t="s">
         <v>637</v>
@@ -48253,7 +48250,7 @@
       <c r="A1179" s="43">
         <v>45890</v>
       </c>
-      <c r="B1179" s="198" t="s">
+      <c r="B1179" s="196" t="s">
         <v>10</v>
       </c>
       <c r="C1179" s="14" t="s">
@@ -48263,13 +48260,13 @@
         <v>135</v>
       </c>
       <c r="E1179" s="62" t="s">
+        <v>3852</v>
+      </c>
+      <c r="F1179" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1179" s="52" t="s">
         <v>3853</v>
-      </c>
-      <c r="F1179" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1179" s="52" t="s">
-        <v>3854</v>
       </c>
       <c r="H1179" s="15" t="s">
         <v>637</v>
@@ -48292,16 +48289,16 @@
         <v>90</v>
       </c>
       <c r="E1180" s="62" t="s">
+        <v>3809</v>
+      </c>
+      <c r="F1180" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1180" s="52" t="s">
         <v>3810</v>
       </c>
-      <c r="F1180" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1180" s="52" t="s">
-        <v>3811</v>
-      </c>
       <c r="H1180" s="15" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="I1180" s="43" t="s">
         <v>14</v>
@@ -48321,16 +48318,16 @@
         <v>45</v>
       </c>
       <c r="E1181" s="62" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="F1181" s="14">
         <v>3</v>
       </c>
       <c r="G1181" s="52" t="s">
+        <v>3854</v>
+      </c>
+      <c r="H1181" s="15" t="s">
         <v>3855</v>
-      </c>
-      <c r="H1181" s="15" t="s">
-        <v>3856</v>
       </c>
       <c r="I1181" s="43" t="s">
         <v>14</v>
@@ -48344,22 +48341,22 @@
         <v>102</v>
       </c>
       <c r="C1182" s="14" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="D1182" s="14" t="s">
         <v>136</v>
       </c>
       <c r="E1182" s="62" t="s">
+        <v>3843</v>
+      </c>
+      <c r="F1182" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1182" s="52" t="s">
         <v>3844</v>
       </c>
-      <c r="F1182" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1182" s="52" t="s">
-        <v>3845</v>
-      </c>
       <c r="H1182" s="15" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="I1182" s="43" t="s">
         <v>14</v>
@@ -48373,22 +48370,22 @@
         <v>102</v>
       </c>
       <c r="C1183" s="14" t="s">
+        <v>3625</v>
+      </c>
+      <c r="D1183" s="14" t="s">
+        <v>3842</v>
+      </c>
+      <c r="E1183" s="62" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F1183" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1183" s="52" t="s">
+        <v>3841</v>
+      </c>
+      <c r="H1183" s="15" t="s">
         <v>3626</v>
-      </c>
-      <c r="D1183" s="14" t="s">
-        <v>3843</v>
-      </c>
-      <c r="E1183" s="62" t="s">
-        <v>3841</v>
-      </c>
-      <c r="F1183" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1183" s="52" t="s">
-        <v>3842</v>
-      </c>
-      <c r="H1183" s="15" t="s">
-        <v>3627</v>
       </c>
       <c r="I1183" s="43" t="s">
         <v>14</v>
@@ -48402,22 +48399,22 @@
         <v>102</v>
       </c>
       <c r="C1184" s="14" t="s">
+        <v>3625</v>
+      </c>
+      <c r="D1184" s="14" t="s">
+        <v>3741</v>
+      </c>
+      <c r="E1184" s="62" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F1184" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1184" s="52" t="s">
+        <v>3846</v>
+      </c>
+      <c r="H1184" s="15" t="s">
         <v>3626</v>
-      </c>
-      <c r="D1184" s="14" t="s">
-        <v>3742</v>
-      </c>
-      <c r="E1184" s="62" t="s">
-        <v>3846</v>
-      </c>
-      <c r="F1184" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1184" s="52" t="s">
-        <v>3847</v>
-      </c>
-      <c r="H1184" s="15" t="s">
-        <v>3627</v>
       </c>
       <c r="I1184" s="43" t="s">
         <v>14</v>
@@ -48431,22 +48428,22 @@
         <v>102</v>
       </c>
       <c r="C1185" s="14" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="D1185" s="14" t="s">
         <v>3610</v>
       </c>
       <c r="E1185" s="62" t="s">
+        <v>3856</v>
+      </c>
+      <c r="F1185" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1185" s="52" t="s">
         <v>3857</v>
       </c>
-      <c r="F1185" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1185" s="52" t="s">
-        <v>3858</v>
-      </c>
       <c r="H1185" s="15" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="I1185" s="43" t="s">
         <v>14</v>
@@ -48460,22 +48457,22 @@
         <v>102</v>
       </c>
       <c r="C1186" s="14" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="D1186" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E1186" s="62" t="s">
+        <v>3843</v>
+      </c>
+      <c r="F1186" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1186" s="52" t="s">
         <v>3844</v>
       </c>
-      <c r="F1186" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1186" s="52" t="s">
-        <v>3845</v>
-      </c>
       <c r="H1186" s="15" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="I1186" s="43" t="s">
         <v>14</v>
@@ -48489,22 +48486,22 @@
         <v>102</v>
       </c>
       <c r="C1187" s="14" t="s">
+        <v>3625</v>
+      </c>
+      <c r="D1187" s="14" t="s">
+        <v>3858</v>
+      </c>
+      <c r="E1187" s="62" t="s">
+        <v>3856</v>
+      </c>
+      <c r="F1187" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1187" s="52" t="s">
+        <v>3857</v>
+      </c>
+      <c r="H1187" s="15" t="s">
         <v>3626</v>
-      </c>
-      <c r="D1187" s="14" t="s">
-        <v>3859</v>
-      </c>
-      <c r="E1187" s="62" t="s">
-        <v>3857</v>
-      </c>
-      <c r="F1187" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1187" s="52" t="s">
-        <v>3858</v>
-      </c>
-      <c r="H1187" s="15" t="s">
-        <v>3627</v>
       </c>
       <c r="I1187" s="43" t="s">
         <v>14</v>
@@ -48518,22 +48515,22 @@
         <v>102</v>
       </c>
       <c r="C1188" s="14" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="D1188" s="14" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E1188" s="62" t="s">
         <v>3860</v>
-      </c>
-      <c r="E1188" s="62" t="s">
-        <v>3861</v>
       </c>
       <c r="F1188" s="14">
         <v>5</v>
       </c>
       <c r="G1188" s="52" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="H1188" s="15" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="I1188" s="43" t="s">
         <v>14</v>
@@ -48547,22 +48544,22 @@
         <v>102</v>
       </c>
       <c r="C1189" s="14" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="D1189" s="14" t="s">
         <v>82</v>
       </c>
       <c r="E1189" s="62" t="s">
+        <v>3862</v>
+      </c>
+      <c r="F1189" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1189" s="52" t="s">
         <v>3863</v>
       </c>
-      <c r="F1189" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1189" s="52" t="s">
-        <v>3864</v>
-      </c>
       <c r="H1189" s="15" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="I1189" s="43" t="s">
         <v>14</v>
@@ -48582,16 +48579,16 @@
         <v>127</v>
       </c>
       <c r="E1190" s="62" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F1190" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1190" s="52" t="s">
         <v>3736</v>
       </c>
-      <c r="F1190" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1190" s="52" t="s">
-        <v>3737</v>
-      </c>
       <c r="H1190" s="15" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="I1190" s="43" t="s">
         <v>14</v>
@@ -48611,16 +48608,16 @@
         <v>69</v>
       </c>
       <c r="E1191" s="62" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="F1191" s="14">
         <v>10</v>
       </c>
       <c r="G1191" s="52" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="H1191" s="15" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="I1191" s="43" t="s">
         <v>14</v>
@@ -48640,16 +48637,16 @@
         <v>69</v>
       </c>
       <c r="E1192" s="62" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F1192" s="14">
         <v>2</v>
       </c>
       <c r="G1192" s="52" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="H1192" s="15" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="I1192" s="43" t="s">
         <v>14</v>
@@ -48666,19 +48663,19 @@
         <v>310</v>
       </c>
       <c r="D1193" s="14" t="s">
+        <v>3849</v>
+      </c>
+      <c r="E1193" s="62" t="s">
         <v>3850</v>
-      </c>
-      <c r="E1193" s="62" t="s">
-        <v>3851</v>
       </c>
       <c r="F1193" s="14">
         <v>2</v>
       </c>
       <c r="G1193" s="52" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="H1193" s="15" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="I1193" s="43" t="s">
         <v>14</v>
@@ -48695,19 +48692,19 @@
         <v>310</v>
       </c>
       <c r="D1194" s="14" t="s">
+        <v>3867</v>
+      </c>
+      <c r="E1194" s="62" t="s">
         <v>3868</v>
-      </c>
-      <c r="E1194" s="62" t="s">
-        <v>3869</v>
       </c>
       <c r="F1194" s="14">
         <v>5</v>
       </c>
       <c r="G1194" s="52" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="H1194" s="15" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="I1194" s="43" t="s">
         <v>14</v>
@@ -48724,19 +48721,19 @@
         <v>310</v>
       </c>
       <c r="D1195" s="14" t="s">
+        <v>3870</v>
+      </c>
+      <c r="E1195" s="62" t="s">
+        <v>3868</v>
+      </c>
+      <c r="F1195" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1195" s="52" t="s">
         <v>3871</v>
       </c>
-      <c r="E1195" s="62" t="s">
-        <v>3869</v>
-      </c>
-      <c r="F1195" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1195" s="52" t="s">
-        <v>3872</v>
-      </c>
       <c r="H1195" s="15" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="I1195" s="43" t="s">
         <v>14</v>
@@ -48756,16 +48753,16 @@
         <v>76</v>
       </c>
       <c r="E1196" s="62" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F1196" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1196" s="52" t="s">
         <v>3841</v>
       </c>
-      <c r="F1196" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1196" s="52" t="s">
-        <v>3842</v>
-      </c>
       <c r="H1196" s="15" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="I1196" s="43" t="s">
         <v>14</v>
@@ -48785,16 +48782,16 @@
         <v>136</v>
       </c>
       <c r="E1197" s="62" t="s">
+        <v>3843</v>
+      </c>
+      <c r="F1197" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1197" s="52" t="s">
         <v>3844</v>
       </c>
-      <c r="F1197" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1197" s="52" t="s">
-        <v>3845</v>
-      </c>
       <c r="H1197" s="15" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="I1197" s="43" t="s">
         <v>14</v>
@@ -48814,16 +48811,16 @@
         <v>27</v>
       </c>
       <c r="E1198" s="62" t="s">
+        <v>3843</v>
+      </c>
+      <c r="F1198" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1198" s="52" t="s">
         <v>3844</v>
       </c>
-      <c r="F1198" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1198" s="52" t="s">
-        <v>3845</v>
-      </c>
       <c r="H1198" s="15" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="I1198" s="43" t="s">
         <v>14</v>
@@ -48840,19 +48837,19 @@
         <v>321</v>
       </c>
       <c r="D1199" s="14" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="E1199" s="62" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F1199" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1199" s="52" t="s">
         <v>3841</v>
       </c>
-      <c r="F1199" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1199" s="52" t="s">
-        <v>3842</v>
-      </c>
       <c r="H1199" s="15" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="I1199" s="43" t="s">
         <v>14</v>
@@ -48872,16 +48869,16 @@
         <v>158</v>
       </c>
       <c r="E1200" s="62" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F1200" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1200" s="52" t="s">
         <v>3841</v>
       </c>
-      <c r="F1200" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1200" s="52" t="s">
-        <v>3842</v>
-      </c>
       <c r="H1200" s="15" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="I1200" s="43" t="s">
         <v>14</v>
@@ -48898,19 +48895,19 @@
         <v>321</v>
       </c>
       <c r="D1201" s="14" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="E1201" s="62" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F1201" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1201" s="52" t="s">
         <v>3846</v>
       </c>
-      <c r="F1201" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1201" s="52" t="s">
-        <v>3847</v>
-      </c>
       <c r="H1201" s="15" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="I1201" s="43" t="s">
         <v>14</v>
@@ -48930,16 +48927,16 @@
         <v>110</v>
       </c>
       <c r="E1202" s="62" t="s">
+        <v>3744</v>
+      </c>
+      <c r="F1202" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1202" s="52" t="s">
         <v>3745</v>
       </c>
-      <c r="F1202" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1202" s="52" t="s">
-        <v>3746</v>
-      </c>
       <c r="H1202" s="15" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="I1202" s="43" t="s">
         <v>14</v>
@@ -48959,16 +48956,16 @@
         <v>106</v>
       </c>
       <c r="E1203" s="62" t="s">
+        <v>3852</v>
+      </c>
+      <c r="F1203" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1203" s="52" t="s">
         <v>3853</v>
       </c>
-      <c r="F1203" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1203" s="52" t="s">
-        <v>3854</v>
-      </c>
       <c r="H1203" s="15" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="I1203" s="43" t="s">
         <v>14</v>
@@ -48988,16 +48985,16 @@
         <v>39</v>
       </c>
       <c r="E1204" s="62" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="F1204" s="14">
         <v>1</v>
       </c>
       <c r="G1204" s="52" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="H1204" s="15" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="I1204" s="43" t="s">
         <v>14</v>
@@ -49017,16 +49014,16 @@
         <v>29</v>
       </c>
       <c r="E1205" s="62" t="s">
+        <v>3807</v>
+      </c>
+      <c r="F1205" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1205" s="52" t="s">
         <v>3808</v>
       </c>
-      <c r="F1205" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1205" s="52" t="s">
-        <v>3809</v>
-      </c>
       <c r="H1205" s="15" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="I1205" s="43" t="s">
         <v>14</v>
@@ -49046,16 +49043,16 @@
         <v>35</v>
       </c>
       <c r="E1206" s="62" t="s">
+        <v>3828</v>
+      </c>
+      <c r="F1206" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1206" s="52" t="s">
         <v>3829</v>
       </c>
-      <c r="F1206" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1206" s="52" t="s">
-        <v>3830</v>
-      </c>
       <c r="H1206" s="15" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="I1206" s="43" t="s">
         <v>14</v>
@@ -49069,22 +49066,22 @@
         <v>119</v>
       </c>
       <c r="C1207" s="14" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D1207" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E1207" s="62" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="F1207" s="14">
         <v>1</v>
       </c>
       <c r="G1207" s="52" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="H1207" s="15" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="I1207" s="43" t="s">
         <v>14</v>
@@ -49098,22 +49095,22 @@
         <v>119</v>
       </c>
       <c r="C1208" s="14" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D1208" s="14" t="s">
         <v>562</v>
       </c>
       <c r="E1208" s="62" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="F1208" s="14">
         <v>1</v>
       </c>
       <c r="G1208" s="52" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="H1208" s="15" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="I1208" s="43" t="s">
         <v>14</v>
@@ -49127,22 +49124,22 @@
         <v>119</v>
       </c>
       <c r="C1209" s="14" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D1209" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E1209" s="62" t="s">
+        <v>3807</v>
+      </c>
+      <c r="F1209" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1209" s="52" t="s">
         <v>3808</v>
       </c>
-      <c r="F1209" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1209" s="52" t="s">
-        <v>3809</v>
-      </c>
       <c r="H1209" s="15" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="I1209" s="43" t="s">
         <v>14</v>
@@ -49156,22 +49153,22 @@
         <v>119</v>
       </c>
       <c r="C1210" s="14" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D1210" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E1210" s="62" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="F1210" s="14">
         <v>1</v>
       </c>
       <c r="G1210" s="52" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="H1210" s="15" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="I1210" s="43" t="s">
         <v>14</v>
@@ -49185,22 +49182,22 @@
         <v>119</v>
       </c>
       <c r="C1211" s="14" t="s">
+        <v>3872</v>
+      </c>
+      <c r="D1211" s="14" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E1211" s="62" t="s">
+        <v>3780</v>
+      </c>
+      <c r="F1211" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1211" s="52" t="s">
+        <v>3781</v>
+      </c>
+      <c r="H1211" s="15" t="s">
         <v>3873</v>
-      </c>
-      <c r="D1211" s="14" t="s">
-        <v>3780</v>
-      </c>
-      <c r="E1211" s="62" t="s">
-        <v>3781</v>
-      </c>
-      <c r="F1211" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1211" s="52" t="s">
-        <v>3782</v>
-      </c>
-      <c r="H1211" s="15" t="s">
-        <v>3874</v>
       </c>
       <c r="I1211" s="43" t="s">
         <v>14</v>
@@ -49214,22 +49211,22 @@
         <v>119</v>
       </c>
       <c r="C1212" s="14" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D1212" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E1212" s="62" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F1212" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1212" s="52" t="s">
         <v>3783</v>
       </c>
-      <c r="F1212" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1212" s="52" t="s">
-        <v>3784</v>
-      </c>
       <c r="H1212" s="15" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="I1212" s="43" t="s">
         <v>14</v>
@@ -49243,22 +49240,22 @@
         <v>119</v>
       </c>
       <c r="C1213" s="14" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D1213" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E1213" s="62" t="s">
+        <v>3828</v>
+      </c>
+      <c r="F1213" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1213" s="52" t="s">
         <v>3829</v>
       </c>
-      <c r="F1213" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1213" s="52" t="s">
-        <v>3830</v>
-      </c>
       <c r="H1213" s="15" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="I1213" s="43" t="s">
         <v>14</v>
@@ -49272,22 +49269,22 @@
         <v>119</v>
       </c>
       <c r="C1214" s="14" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D1214" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E1214" s="62" t="s">
+        <v>3874</v>
+      </c>
+      <c r="F1214" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1214" s="52" t="s">
         <v>3875</v>
       </c>
-      <c r="F1214" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1214" s="52" t="s">
-        <v>3876</v>
-      </c>
       <c r="H1214" s="15" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="I1214" s="43" t="s">
         <v>14</v>
@@ -49301,13 +49298,13 @@
         <v>119</v>
       </c>
       <c r="C1215" s="14" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D1215" s="14" t="s">
         <v>85</v>
       </c>
       <c r="E1215" s="62" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="F1215" s="14">
         <v>1</v>
@@ -49316,7 +49313,7 @@
         <v>3602</v>
       </c>
       <c r="H1215" s="15" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="I1215" s="43" t="s">
         <v>14</v>
@@ -49330,22 +49327,22 @@
         <v>119</v>
       </c>
       <c r="C1216" s="14" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D1216" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E1216" s="62" t="s">
+        <v>3876</v>
+      </c>
+      <c r="F1216" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1216" s="52" t="s">
         <v>3877</v>
       </c>
-      <c r="F1216" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1216" s="52" t="s">
-        <v>3878</v>
-      </c>
       <c r="H1216" s="15" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="I1216" s="43" t="s">
         <v>14</v>
@@ -49365,16 +49362,16 @@
         <v>22</v>
       </c>
       <c r="E1217" s="62" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F1217" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1217" s="52" t="s">
         <v>3736</v>
       </c>
-      <c r="F1217" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1217" s="52" t="s">
-        <v>3737</v>
-      </c>
       <c r="H1217" s="15" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="I1217" s="43" t="s">
         <v>14</v>
@@ -49394,16 +49391,16 @@
         <v>35</v>
       </c>
       <c r="E1218" s="62" t="s">
+        <v>3828</v>
+      </c>
+      <c r="F1218" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1218" s="52" t="s">
         <v>3829</v>
       </c>
-      <c r="F1218" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1218" s="52" t="s">
-        <v>3830</v>
-      </c>
       <c r="H1218" s="15" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="I1218" s="43" t="s">
         <v>14</v>
@@ -49423,16 +49420,16 @@
         <v>74</v>
       </c>
       <c r="E1219" s="62" t="s">
+        <v>3878</v>
+      </c>
+      <c r="F1219" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1219" s="52" t="s">
         <v>3879</v>
       </c>
-      <c r="F1219" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1219" s="52" t="s">
-        <v>3880</v>
-      </c>
       <c r="H1219" s="15" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="I1219" s="43" t="s">
         <v>14</v>
@@ -49452,16 +49449,16 @@
         <v>84</v>
       </c>
       <c r="E1220" s="62" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="F1220" s="14">
         <v>1</v>
       </c>
       <c r="G1220" s="52" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="H1220" s="15" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="I1220" s="43" t="s">
         <v>14</v>
@@ -49481,16 +49478,16 @@
         <v>110</v>
       </c>
       <c r="E1221" s="62" t="s">
+        <v>3744</v>
+      </c>
+      <c r="F1221" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1221" s="52" t="s">
         <v>3745</v>
       </c>
-      <c r="F1221" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1221" s="52" t="s">
-        <v>3746</v>
-      </c>
       <c r="H1221" s="15" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="I1221" s="43" t="s">
         <v>14</v>
@@ -49501,25 +49498,25 @@
         <v>45897</v>
       </c>
       <c r="B1222" s="41" t="s">
+        <v>3880</v>
+      </c>
+      <c r="C1222" s="14" t="s">
         <v>3881</v>
-      </c>
-      <c r="C1222" s="14" t="s">
-        <v>3882</v>
       </c>
       <c r="D1222" s="14" t="s">
         <v>403</v>
       </c>
       <c r="E1222" s="62" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="F1222" s="14">
         <v>1</v>
       </c>
       <c r="G1222" s="52" t="s">
+        <v>3882</v>
+      </c>
+      <c r="H1222" s="15" t="s">
         <v>3883</v>
-      </c>
-      <c r="H1222" s="15" t="s">
-        <v>3884</v>
       </c>
       <c r="I1222" s="43" t="s">
         <v>313</v>
@@ -49536,19 +49533,19 @@
         <v>234</v>
       </c>
       <c r="D1223" s="14" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="E1223" s="62" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F1223" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1223" s="52" t="s">
         <v>3846</v>
       </c>
-      <c r="F1223" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1223" s="52" t="s">
-        <v>3847</v>
-      </c>
       <c r="H1223" s="15" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="I1223" s="43" t="s">
         <v>14</v>
@@ -49559,7 +49556,7 @@
         <v>45899</v>
       </c>
       <c r="B1224" s="41" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="C1224" s="14" t="s">
         <v>11</v>
@@ -49568,16 +49565,16 @@
         <v>12</v>
       </c>
       <c r="E1224" s="62" t="s">
+        <v>3886</v>
+      </c>
+      <c r="F1224" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1224" s="52" t="s">
         <v>3887</v>
       </c>
-      <c r="F1224" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1224" s="52" t="s">
-        <v>3888</v>
-      </c>
       <c r="H1224" s="15" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="I1224" s="43" t="s">
         <v>14</v>
@@ -49588,7 +49585,7 @@
         <v>45899</v>
       </c>
       <c r="B1225" s="41" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="C1225" s="14" t="s">
         <v>11</v>
@@ -49597,16 +49594,16 @@
         <v>15</v>
       </c>
       <c r="E1225" s="62" t="s">
+        <v>3888</v>
+      </c>
+      <c r="F1225" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1225" s="52" t="s">
         <v>3889</v>
       </c>
-      <c r="F1225" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1225" s="52" t="s">
-        <v>3890</v>
-      </c>
       <c r="H1225" s="15" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="I1225" s="43" t="s">
         <v>14</v>
@@ -49617,7 +49614,7 @@
         <v>45899</v>
       </c>
       <c r="B1226" s="41" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="C1226" s="14" t="s">
         <v>11</v>
@@ -49626,16 +49623,16 @@
         <v>3548</v>
       </c>
       <c r="E1226" s="62" t="s">
+        <v>3890</v>
+      </c>
+      <c r="F1226" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1226" s="52" t="s">
         <v>3891</v>
       </c>
-      <c r="F1226" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1226" s="52" t="s">
-        <v>3892</v>
-      </c>
       <c r="H1226" s="15" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="I1226" s="43" t="s">
         <v>14</v>
@@ -49646,7 +49643,7 @@
         <v>0</v>
       </c>
       <c r="G1227" s="52">
-        <f t="shared" ref="G1207:G1270" si="47">E1227*F1227</f>
+        <f t="shared" ref="G1227:G1270" si="47">E1227*F1227</f>
         <v>0</v>
       </c>
     </row>
@@ -50615,6 +50612,28 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="12" alignment="center"/>
+  <conditionalFormatting sqref="G3:G53 G62:G189">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I3:I986">
     <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="MONA LINDA">
       <formula>NOT(ISERROR(SEARCH("MONA LINDA",I3)))</formula>
@@ -50641,28 +50660,6 @@
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>$C$219</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G53 G62:G189">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -74030,8 +74027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925868F2-EAF0-1549-A5AE-CF82CA03C71B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -74047,19 +74044,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="160" t="s">
         <v>3615</v>
       </c>
       <c r="B1" s="150" t="s">
         <v>3616</v>
       </c>
-      <c r="C1" s="150" t="s">
-        <v>3623</v>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="D1" s="150" t="s">
         <v>3617</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="161" t="s">
         <v>3618</v>
       </c>
       <c r="F1" s="150" t="s">
@@ -74068,12 +74065,12 @@
       <c r="G1" s="150" t="s">
         <v>3620</v>
       </c>
-      <c r="H1" s="164" t="s">
+      <c r="H1" s="162" t="s">
         <v>3621</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="163" t="s">
         <v>234</v>
       </c>
       <c r="B2" s="151">
@@ -74085,18 +74082,18 @@
       <c r="D2" s="153">
         <v>45899</v>
       </c>
-      <c r="E2" s="166">
+      <c r="E2" s="164">
         <v>45537</v>
       </c>
       <c r="F2" s="154"/>
-      <c r="G2" s="167">
-        <f>B2-F2</f>
+      <c r="G2" s="165">
+        <f t="shared" ref="G2:G26" si="0">B2-F2</f>
         <v>231000</v>
       </c>
       <c r="H2" s="152"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="166" t="s">
         <v>368</v>
       </c>
       <c r="B3" s="151">
@@ -74108,18 +74105,18 @@
       <c r="D3" s="153">
         <v>45873</v>
       </c>
-      <c r="E3" s="166">
+      <c r="E3" s="164">
         <v>45903</v>
       </c>
       <c r="F3" s="154"/>
-      <c r="G3" s="167">
-        <f>B3-F3</f>
+      <c r="G3" s="165">
+        <f t="shared" si="0"/>
         <v>1565000</v>
       </c>
       <c r="H3" s="155"/>
     </row>
     <row r="4" spans="1:8" ht="16">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="163" t="s">
         <v>144</v>
       </c>
       <c r="B4" s="151">
@@ -74131,527 +74128,527 @@
       <c r="D4" s="153">
         <v>45877</v>
       </c>
-      <c r="E4" s="169">
+      <c r="E4" s="167">
         <v>45884</v>
       </c>
       <c r="F4" s="154"/>
-      <c r="G4" s="167">
-        <f>B4-F4</f>
+      <c r="G4" s="165">
+        <f t="shared" si="0"/>
         <v>2333000</v>
       </c>
       <c r="H4" s="153"/>
     </row>
     <row r="5" spans="1:8" ht="16">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="163" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="170">
+      <c r="B5" s="168">
         <v>3118000</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="169" t="s">
         <v>607</v>
       </c>
-      <c r="D5" s="172">
+      <c r="D5" s="170">
         <v>45877</v>
       </c>
-      <c r="E5" s="173">
+      <c r="E5" s="171">
         <v>45907</v>
       </c>
       <c r="F5" s="154"/>
-      <c r="G5" s="167">
-        <f>B5-F5</f>
+      <c r="G5" s="165">
+        <f t="shared" si="0"/>
         <v>3118000</v>
       </c>
       <c r="H5" s="155"/>
     </row>
     <row r="6" spans="1:8" ht="16">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="163" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="170">
+      <c r="B6" s="168">
         <v>5239000</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="169" t="s">
         <v>610</v>
       </c>
-      <c r="D6" s="172">
+      <c r="D6" s="170">
         <v>45877</v>
       </c>
-      <c r="E6" s="173">
+      <c r="E6" s="171">
         <v>45907</v>
       </c>
       <c r="F6" s="154">
         <v>3939000</v>
       </c>
-      <c r="G6" s="167">
-        <f>B6-F6</f>
+      <c r="G6" s="165">
+        <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
       <c r="H6" s="152"/>
     </row>
     <row r="7" spans="1:8" ht="16">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="163" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="170">
+      <c r="B7" s="168">
         <v>1002000</v>
       </c>
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="169" t="s">
         <v>615</v>
       </c>
-      <c r="D7" s="172">
+      <c r="D7" s="170">
         <v>45880</v>
       </c>
-      <c r="E7" s="174">
+      <c r="E7" s="172">
         <v>45910</v>
       </c>
       <c r="F7" s="154"/>
-      <c r="G7" s="167">
-        <f>B7-F7</f>
+      <c r="G7" s="165">
+        <f t="shared" si="0"/>
         <v>1002000</v>
       </c>
       <c r="H7" s="152"/>
     </row>
     <row r="8" spans="1:8" ht="16">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="163" t="s">
         <v>569</v>
       </c>
-      <c r="B8" s="170">
+      <c r="B8" s="168">
         <v>1064000</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="169" t="s">
         <v>618</v>
       </c>
-      <c r="D8" s="172">
+      <c r="D8" s="170">
         <v>45880</v>
       </c>
-      <c r="E8" s="173">
+      <c r="E8" s="171">
         <v>45888</v>
       </c>
       <c r="F8" s="154"/>
-      <c r="G8" s="167">
-        <f>B8-F8</f>
+      <c r="G8" s="165">
+        <f t="shared" si="0"/>
         <v>1064000</v>
       </c>
       <c r="H8" s="152"/>
     </row>
     <row r="9" spans="1:8" ht="16">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="170">
+      <c r="B9" s="168">
         <v>464000</v>
       </c>
-      <c r="C9" s="171" t="s">
+      <c r="C9" s="169" t="s">
         <v>619</v>
       </c>
-      <c r="D9" s="172">
+      <c r="D9" s="170">
         <v>45880</v>
       </c>
-      <c r="E9" s="173">
+      <c r="E9" s="171">
         <v>45888</v>
       </c>
       <c r="F9" s="154"/>
-      <c r="G9" s="167">
-        <f>B9-F9</f>
+      <c r="G9" s="165">
+        <f t="shared" si="0"/>
         <v>464000</v>
       </c>
       <c r="H9" s="153"/>
     </row>
     <row r="10" spans="1:8" ht="32">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="163" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="170">
+      <c r="B10" s="168">
         <v>6410000</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="169" t="s">
         <v>616</v>
       </c>
-      <c r="D10" s="172">
+      <c r="D10" s="170">
         <v>45881</v>
       </c>
-      <c r="E10" s="173">
+      <c r="E10" s="171">
         <v>45901</v>
       </c>
       <c r="F10" s="154"/>
-      <c r="G10" s="167">
-        <f>B10-F10</f>
+      <c r="G10" s="165">
+        <f t="shared" si="0"/>
         <v>6410000</v>
       </c>
       <c r="H10" s="155"/>
     </row>
     <row r="11" spans="1:8" ht="16">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="163" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="170">
+      <c r="B11" s="168">
         <v>1715000</v>
       </c>
-      <c r="C11" s="171" t="s">
+      <c r="C11" s="169" t="s">
         <v>622</v>
       </c>
-      <c r="D11" s="172">
+      <c r="D11" s="170">
         <v>45882</v>
       </c>
-      <c r="E11" s="173">
+      <c r="E11" s="171">
         <v>45897</v>
       </c>
       <c r="F11" s="154"/>
-      <c r="G11" s="167">
-        <f>B11-F11</f>
+      <c r="G11" s="165">
+        <f t="shared" si="0"/>
         <v>1715000</v>
       </c>
       <c r="H11" s="153"/>
     </row>
     <row r="12" spans="1:8" ht="16">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="163" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="170">
+      <c r="B12" s="168">
         <v>945000</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="169" t="s">
         <v>625</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="170">
         <v>45883</v>
       </c>
-      <c r="E12" s="173">
+      <c r="E12" s="171">
         <v>45884</v>
       </c>
       <c r="F12" s="154"/>
-      <c r="G12" s="167">
-        <f>B12-F12</f>
+      <c r="G12" s="165">
+        <f t="shared" si="0"/>
         <v>945000</v>
       </c>
       <c r="H12" s="152"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="166" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="170">
+      <c r="B13" s="168">
         <v>981500</v>
       </c>
-      <c r="C13" s="171" t="s">
+      <c r="C13" s="169" t="s">
         <v>628</v>
       </c>
-      <c r="D13" s="172">
+      <c r="D13" s="170">
         <v>45879</v>
       </c>
-      <c r="E13" s="173">
+      <c r="E13" s="171">
         <v>45904</v>
       </c>
       <c r="F13" s="154"/>
-      <c r="G13" s="167">
-        <f>B13-F13</f>
+      <c r="G13" s="165">
+        <f t="shared" si="0"/>
         <v>981500</v>
       </c>
       <c r="H13" s="155"/>
     </row>
     <row r="14" spans="1:8" ht="16">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="163" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="170">
+      <c r="B14" s="168">
         <v>292000</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="169" t="s">
         <v>629</v>
       </c>
-      <c r="D14" s="172">
+      <c r="D14" s="170">
         <v>45889</v>
       </c>
-      <c r="E14" s="174">
+      <c r="E14" s="172">
         <v>45889</v>
       </c>
       <c r="F14" s="154"/>
-      <c r="G14" s="167">
-        <f>B14-F14</f>
+      <c r="G14" s="165">
+        <f t="shared" si="0"/>
         <v>292000</v>
       </c>
       <c r="H14" s="152"/>
     </row>
     <row r="15" spans="1:8" ht="16">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="163" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B15" s="168">
+        <v>793000</v>
+      </c>
+      <c r="C15" s="169" t="s">
+        <v>633</v>
+      </c>
+      <c r="D15" s="170">
+        <v>45890</v>
+      </c>
+      <c r="E15" s="171">
+        <v>45891</v>
+      </c>
+      <c r="F15" s="154"/>
+      <c r="G15" s="165">
+        <f t="shared" si="0"/>
+        <v>793000</v>
+      </c>
+      <c r="H15" s="153"/>
+    </row>
+    <row r="16" spans="1:8" ht="16">
+      <c r="A16" s="163" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="168">
+        <v>952000</v>
+      </c>
+      <c r="C16" s="169" t="s">
+        <v>634</v>
+      </c>
+      <c r="D16" s="170">
+        <v>45890</v>
+      </c>
+      <c r="E16" s="172">
+        <v>45891</v>
+      </c>
+      <c r="F16" s="154"/>
+      <c r="G16" s="165">
+        <f t="shared" si="0"/>
+        <v>952000</v>
+      </c>
+      <c r="H16" s="152"/>
+    </row>
+    <row r="17" spans="1:8" ht="16">
+      <c r="A17" s="163" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="168">
+        <v>343000</v>
+      </c>
+      <c r="C17" s="169" t="s">
         <v>3624</v>
       </c>
-      <c r="B15" s="170">
-        <v>793000</v>
-      </c>
-      <c r="C15" s="171" t="s">
-        <v>633</v>
-      </c>
-      <c r="D15" s="172">
-        <v>45890</v>
-      </c>
-      <c r="E15" s="173">
+      <c r="D17" s="170">
         <v>45891</v>
       </c>
-      <c r="F15" s="154"/>
-      <c r="G15" s="167">
-        <f>B15-F15</f>
-        <v>793000</v>
-      </c>
-      <c r="H15" s="153"/>
-    </row>
-    <row r="16" spans="1:8" ht="16">
-      <c r="A16" s="165" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="170">
-        <v>952000</v>
-      </c>
-      <c r="C16" s="171" t="s">
-        <v>634</v>
-      </c>
-      <c r="D16" s="172">
-        <v>45890</v>
-      </c>
-      <c r="E16" s="174">
-        <v>45891</v>
-      </c>
-      <c r="F16" s="154"/>
-      <c r="G16" s="167">
-        <f>B16-F16</f>
-        <v>952000</v>
-      </c>
-      <c r="H16" s="152"/>
-    </row>
-    <row r="17" spans="1:8" ht="16">
-      <c r="A17" s="165" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="170">
+      <c r="E17" s="171">
+        <v>45906</v>
+      </c>
+      <c r="F17" s="154"/>
+      <c r="G17" s="165">
+        <f t="shared" si="0"/>
         <v>343000</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="H17" s="153"/>
+    </row>
+    <row r="18" spans="1:8" ht="16">
+      <c r="A18" s="163" t="s">
         <v>3625</v>
       </c>
-      <c r="D17" s="172">
-        <v>45891</v>
-      </c>
-      <c r="E17" s="173">
-        <v>45906</v>
-      </c>
-      <c r="F17" s="154"/>
-      <c r="G17" s="167">
-        <f>B17-F17</f>
-        <v>343000</v>
-      </c>
-      <c r="H17" s="153"/>
-    </row>
-    <row r="18" spans="1:8" ht="16">
-      <c r="A18" s="165" t="s">
+      <c r="B18" s="168">
+        <v>2342000</v>
+      </c>
+      <c r="C18" s="169" t="s">
         <v>3626</v>
       </c>
-      <c r="B18" s="170">
+      <c r="D18" s="170">
+        <v>45896</v>
+      </c>
+      <c r="E18" s="171">
+        <v>45897</v>
+      </c>
+      <c r="F18" s="154"/>
+      <c r="G18" s="165">
+        <f t="shared" si="0"/>
         <v>2342000</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="H18" s="153"/>
+    </row>
+    <row r="19" spans="1:8" ht="16">
+      <c r="A19" s="163" t="s">
+        <v>510</v>
+      </c>
+      <c r="B19" s="168">
+        <v>2550000</v>
+      </c>
+      <c r="C19" s="169" t="s">
         <v>3627</v>
       </c>
-      <c r="D18" s="172">
+      <c r="D19" s="170">
         <v>45896</v>
       </c>
-      <c r="E18" s="173">
+      <c r="E19" s="171">
+        <v>45926</v>
+      </c>
+      <c r="F19" s="154"/>
+      <c r="G19" s="165">
+        <f t="shared" si="0"/>
+        <v>2550000</v>
+      </c>
+      <c r="H19" s="153"/>
+    </row>
+    <row r="20" spans="1:8" ht="32">
+      <c r="A20" s="163" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="168">
+        <v>2040000</v>
+      </c>
+      <c r="C20" s="169" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D20" s="170">
+        <v>45896</v>
+      </c>
+      <c r="E20" s="172">
+        <v>45926</v>
+      </c>
+      <c r="F20" s="154"/>
+      <c r="G20" s="165">
+        <f t="shared" si="0"/>
+        <v>2040000</v>
+      </c>
+      <c r="H20" s="152"/>
+    </row>
+    <row r="21" spans="1:8" ht="16">
+      <c r="A21" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="168">
+        <v>701000</v>
+      </c>
+      <c r="C21" s="169" t="s">
+        <v>3629</v>
+      </c>
+      <c r="D21" s="170">
+        <v>45896</v>
+      </c>
+      <c r="E21" s="171">
+        <v>45926</v>
+      </c>
+      <c r="F21" s="154"/>
+      <c r="G21" s="165">
+        <f t="shared" si="0"/>
+        <v>701000</v>
+      </c>
+      <c r="H21" s="152"/>
+    </row>
+    <row r="22" spans="1:8" ht="16">
+      <c r="A22" s="163" t="s">
+        <v>754</v>
+      </c>
+      <c r="B22" s="168">
+        <v>951000</v>
+      </c>
+      <c r="C22" s="169" t="s">
+        <v>3630</v>
+      </c>
+      <c r="D22" s="170">
+        <v>45896</v>
+      </c>
+      <c r="E22" s="172">
+        <v>45898</v>
+      </c>
+      <c r="F22" s="154"/>
+      <c r="G22" s="165">
+        <f t="shared" si="0"/>
+        <v>951000</v>
+      </c>
+      <c r="H22" s="152"/>
+    </row>
+    <row r="23" spans="1:8" ht="16">
+      <c r="A23" s="163" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="168">
+        <v>1025000</v>
+      </c>
+      <c r="C23" s="169" t="s">
+        <v>3631</v>
+      </c>
+      <c r="D23" s="170">
         <v>45897</v>
       </c>
-      <c r="F18" s="154"/>
-      <c r="G18" s="167">
-        <f>B18-F18</f>
-        <v>2342000</v>
-      </c>
-      <c r="H18" s="153"/>
-    </row>
-    <row r="19" spans="1:8" ht="16">
-      <c r="A19" s="165" t="s">
-        <v>510</v>
-      </c>
-      <c r="B19" s="170">
-        <v>2550000</v>
-      </c>
-      <c r="C19" s="171" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D19" s="172">
-        <v>45896</v>
-      </c>
-      <c r="E19" s="173">
-        <v>45926</v>
-      </c>
-      <c r="F19" s="154"/>
-      <c r="G19" s="167">
-        <f>B19-F19</f>
-        <v>2550000</v>
-      </c>
-      <c r="H19" s="153"/>
-    </row>
-    <row r="20" spans="1:8" ht="32">
-      <c r="A20" s="165" t="s">
-        <v>321</v>
-      </c>
-      <c r="B20" s="170">
-        <v>2040000</v>
-      </c>
-      <c r="C20" s="171" t="s">
-        <v>3629</v>
-      </c>
-      <c r="D20" s="172">
-        <v>45896</v>
-      </c>
-      <c r="E20" s="174">
-        <v>45926</v>
-      </c>
-      <c r="F20" s="154"/>
-      <c r="G20" s="167">
-        <f>B20-F20</f>
-        <v>2040000</v>
-      </c>
-      <c r="H20" s="152"/>
-    </row>
-    <row r="21" spans="1:8" ht="16">
-      <c r="A21" s="165" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="170">
-        <v>701000</v>
-      </c>
-      <c r="C21" s="171" t="s">
-        <v>3630</v>
-      </c>
-      <c r="D21" s="172">
-        <v>45896</v>
-      </c>
-      <c r="E21" s="173">
-        <v>45926</v>
-      </c>
-      <c r="F21" s="154"/>
-      <c r="G21" s="167">
-        <f>B21-F21</f>
-        <v>701000</v>
-      </c>
-      <c r="H21" s="152"/>
-    </row>
-    <row r="22" spans="1:8" ht="16">
-      <c r="A22" s="165" t="s">
-        <v>754</v>
-      </c>
-      <c r="B22" s="170">
-        <v>951000</v>
-      </c>
-      <c r="C22" s="171" t="s">
-        <v>3631</v>
-      </c>
-      <c r="D22" s="172">
-        <v>45896</v>
-      </c>
-      <c r="E22" s="174">
-        <v>45898</v>
-      </c>
-      <c r="F22" s="154"/>
-      <c r="G22" s="167">
-        <f>B22-F22</f>
-        <v>951000</v>
-      </c>
-      <c r="H22" s="152"/>
-    </row>
-    <row r="23" spans="1:8" ht="16">
-      <c r="A23" s="165" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="170">
+      <c r="E23" s="172">
+        <v>45899</v>
+      </c>
+      <c r="F23" s="154"/>
+      <c r="G23" s="165">
+        <f t="shared" si="0"/>
         <v>1025000</v>
       </c>
-      <c r="C23" s="171" t="s">
+      <c r="H23" s="152"/>
+    </row>
+    <row r="24" spans="1:8" ht="16">
+      <c r="A24" s="163" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B24" s="168">
+        <v>393000</v>
+      </c>
+      <c r="C24" s="169" t="s">
         <v>3632</v>
       </c>
-      <c r="D23" s="172">
+      <c r="D24" s="170">
         <v>45897</v>
       </c>
-      <c r="E23" s="174">
+      <c r="E24" s="172">
+        <v>374617</v>
+      </c>
+      <c r="F24" s="154"/>
+      <c r="G24" s="165">
+        <f t="shared" si="0"/>
+        <v>393000</v>
+      </c>
+      <c r="H24" s="152"/>
+    </row>
+    <row r="25" spans="1:8" ht="16">
+      <c r="A25" s="163" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" s="168">
+        <v>664000</v>
+      </c>
+      <c r="C25" s="169" t="s">
+        <v>3633</v>
+      </c>
+      <c r="D25" s="170">
+        <v>45897</v>
+      </c>
+      <c r="E25" s="172">
+        <v>45927</v>
+      </c>
+      <c r="F25" s="154"/>
+      <c r="G25" s="165">
+        <f t="shared" si="0"/>
+        <v>664000</v>
+      </c>
+      <c r="H25" s="152"/>
+    </row>
+    <row r="26" spans="1:8" ht="16">
+      <c r="A26" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="168">
+        <v>503000</v>
+      </c>
+      <c r="C26" s="169" t="s">
+        <v>3634</v>
+      </c>
+      <c r="D26" s="170">
         <v>45899</v>
       </c>
-      <c r="F23" s="154"/>
-      <c r="G23" s="167">
-        <f>B23-F23</f>
-        <v>1025000</v>
-      </c>
-      <c r="H23" s="152"/>
-    </row>
-    <row r="24" spans="1:8" ht="16">
-      <c r="A24" s="165" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B24" s="170">
-        <v>393000</v>
-      </c>
-      <c r="C24" s="171" t="s">
-        <v>3633</v>
-      </c>
-      <c r="D24" s="172">
-        <v>45897</v>
-      </c>
-      <c r="E24" s="174">
-        <v>374617</v>
-      </c>
-      <c r="F24" s="154"/>
-      <c r="G24" s="167">
-        <f>B24-F24</f>
-        <v>393000</v>
-      </c>
-      <c r="H24" s="152"/>
-    </row>
-    <row r="25" spans="1:8" ht="16">
-      <c r="A25" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" s="170">
-        <v>664000</v>
-      </c>
-      <c r="C25" s="171" t="s">
-        <v>3634</v>
-      </c>
-      <c r="D25" s="172">
-        <v>45897</v>
-      </c>
-      <c r="E25" s="174">
-        <v>45927</v>
-      </c>
-      <c r="F25" s="154"/>
-      <c r="G25" s="167">
-        <f>B25-F25</f>
-        <v>664000</v>
-      </c>
-      <c r="H25" s="152"/>
-    </row>
-    <row r="26" spans="1:8" ht="16">
-      <c r="A26" s="165" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="170">
-        <v>503000</v>
-      </c>
-      <c r="C26" s="171" t="s">
-        <v>3635</v>
-      </c>
-      <c r="D26" s="172">
-        <v>45899</v>
-      </c>
-      <c r="E26" s="174">
+      <c r="E26" s="172">
         <v>45929</v>
       </c>
       <c r="F26" s="154"/>
-      <c r="G26" s="167">
-        <f>B26-F26</f>
+      <c r="G26" s="165">
+        <f t="shared" si="0"/>
         <v>503000</v>
       </c>
       <c r="H26" s="152"/>
     </row>
     <row r="27" spans="1:8" ht="32">
       <c r="B27" s="156" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -74660,12 +74657,12 @@
         <v>3622</v>
       </c>
       <c r="G27" s="158" t="s">
-        <v>3637</v>
-      </c>
-      <c r="H27" s="175"/>
+        <v>3636</v>
+      </c>
+      <c r="H27" s="173"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="176"/>
+      <c r="A28" s="174"/>
       <c r="B28" s="159">
         <f>SUM(B2:B26)</f>
         <v>38616500</v>
@@ -74673,11 +74670,11 @@
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="53"/>
-      <c r="F28" s="175">
+      <c r="F28" s="173">
         <f>SUM(F2:F26)</f>
         <v>3939000</v>
       </c>
-      <c r="G28" s="175">
+      <c r="G28" s="173">
         <f>SUM(G2:G26)</f>
         <v>34677500</v>
       </c>

--- a/DB_AGMS.xlsx
+++ b/DB_AGMS.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrespuertagonzalez/Documents/AGMS_Analitics/Datos/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF58384D-B5CA-0145-B4CB-57E6817C787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97847FD4-99C1-604D-9D10-D7D4CF114EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="2" r:id="rId1"/>
     <sheet name="Lista Medicos" sheetId="1" r:id="rId2"/>
     <sheet name="Metadatos" sheetId="3" r:id="rId3"/>
-    <sheet name="CarteraAgosto" sheetId="13" r:id="rId4"/>
+    <sheet name="Cartera" sheetId="13" r:id="rId4"/>
+    <sheet name="Productos" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Lista Medicos'!$A$1:$G$1045</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11412" uniqueCount="3892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12014" uniqueCount="4099">
   <si>
     <t>Gestión de Venta</t>
   </si>
@@ -11719,6 +11720,627 @@
   </si>
   <si>
     <t>$ 130.000</t>
+  </si>
+  <si>
+    <t>TIPO DE PIEL</t>
+  </si>
+  <si>
+    <t>CONDICION</t>
+  </si>
+  <si>
+    <t>SENSIBLE</t>
+  </si>
+  <si>
+    <t>ANTIEDAD</t>
+  </si>
+  <si>
+    <t>PROFESIONAL</t>
+  </si>
+  <si>
+    <t>PIEL NORMAL/ MIXTA</t>
+  </si>
+  <si>
+    <t>$ 80.000</t>
+  </si>
+  <si>
+    <t>PIEL SECA/MIXTA</t>
+  </si>
+  <si>
+    <t>RETAIL</t>
+  </si>
+  <si>
+    <t>PIEL GRASA/MIXTA</t>
+  </si>
+  <si>
+    <t>$ 82.000</t>
+  </si>
+  <si>
+    <t>$ 172.000</t>
+  </si>
+  <si>
+    <t>ACNE</t>
+  </si>
+  <si>
+    <t>$ 113.000</t>
+  </si>
+  <si>
+    <t>$ 134.000</t>
+  </si>
+  <si>
+    <t>$ 240.000</t>
+  </si>
+  <si>
+    <t>$ 190.000</t>
+  </si>
+  <si>
+    <t>PIGMENTACION</t>
+  </si>
+  <si>
+    <t>$ 182.000</t>
+  </si>
+  <si>
+    <t>$ 189.000</t>
+  </si>
+  <si>
+    <t>$ 150.000</t>
+  </si>
+  <si>
+    <t>$ 285.000</t>
+  </si>
+  <si>
+    <t>$ 262.000</t>
+  </si>
+  <si>
+    <t>$ 279.000</t>
+  </si>
+  <si>
+    <t>$ 263.000</t>
+  </si>
+  <si>
+    <t>$ 1.300.000</t>
+  </si>
+  <si>
+    <t>$ 203.000</t>
+  </si>
+  <si>
+    <t>$ 257.000</t>
+  </si>
+  <si>
+    <t>$ 148.000</t>
+  </si>
+  <si>
+    <t>$ 224.000</t>
+  </si>
+  <si>
+    <t>$ 347.000</t>
+  </si>
+  <si>
+    <t>$ 212.000</t>
+  </si>
+  <si>
+    <t>$ 230.000</t>
+  </si>
+  <si>
+    <t>$ 294.000</t>
+  </si>
+  <si>
+    <t>$ 161.000</t>
+  </si>
+  <si>
+    <t>$ 286.000</t>
+  </si>
+  <si>
+    <t>$ 162.000</t>
+  </si>
+  <si>
+    <t>$ 246.000</t>
+  </si>
+  <si>
+    <t>$ 277.000</t>
+  </si>
+  <si>
+    <t>$ 242.000</t>
+  </si>
+  <si>
+    <t>$ 408.000</t>
+  </si>
+  <si>
+    <t>$ 238.000</t>
+  </si>
+  <si>
+    <t>$ 201.000</t>
+  </si>
+  <si>
+    <t>$ 384.000</t>
+  </si>
+  <si>
+    <t>$ 392.000</t>
+  </si>
+  <si>
+    <t>$ 237.000</t>
+  </si>
+  <si>
+    <t>$ 226.000</t>
+  </si>
+  <si>
+    <t>$ 147.000</t>
+  </si>
+  <si>
+    <t>$ 211.000</t>
+  </si>
+  <si>
+    <t>$ 186.000</t>
+  </si>
+  <si>
+    <t>$ 282.000</t>
+  </si>
+  <si>
+    <t>$366.000</t>
+  </si>
+  <si>
+    <t>$ 370.000</t>
+  </si>
+  <si>
+    <t>Pro Restore</t>
+  </si>
+  <si>
+    <t>$ 715.000</t>
+  </si>
+  <si>
+    <t>$ 1.016.000</t>
+  </si>
+  <si>
+    <t>$ 260.000</t>
+  </si>
+  <si>
+    <t>$ 264.000</t>
+  </si>
+  <si>
+    <t>$ 107.000</t>
+  </si>
+  <si>
+    <t>$ 219.000</t>
+  </si>
+  <si>
+    <t>$ 433.000</t>
+  </si>
+  <si>
+    <t>$ 170.000</t>
+  </si>
+  <si>
+    <t>$ 10.000</t>
+  </si>
+  <si>
+    <t>Precio Medico</t>
+  </si>
+  <si>
+    <t>Age Defense Treatment</t>
+  </si>
+  <si>
+    <t>Micelar Water - 400ml</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>Precio Paciente</t>
+  </si>
+  <si>
+    <t>DD Urban Protec Cream LIGHT</t>
+  </si>
+  <si>
+    <t>DD Urban Protec Cream DARK</t>
+  </si>
+  <si>
+    <t>Deep Cleanser 3 en 1 - 150 ml</t>
+  </si>
+  <si>
+    <t>Deep Cleanser 3 en 1- 500 ml</t>
+  </si>
+  <si>
+    <t>Detox Cleanser Purifying Action B-HA 150ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No aplica </t>
+  </si>
+  <si>
+    <t>Eye Contour Anti wrinkle GRIS 15 ml</t>
+  </si>
+  <si>
+    <t>Eye Contour CIRCLE BLANCA 15 ml</t>
+  </si>
+  <si>
+    <t>Eye Perfection Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLD MASK X10 </t>
+  </si>
+  <si>
+    <t>GOJI TREATMENT</t>
+  </si>
+  <si>
+    <t>GREEN PURIFYNG MASK X 10</t>
+  </si>
+  <si>
+    <t>Hydra Lifting Firming Fresh Serum 50 ML</t>
+  </si>
+  <si>
+    <t>Lightening Clarifying Concentrated Serum Noche - 1 oz/30ml</t>
+  </si>
+  <si>
+    <t>Lightening Clarifying Anti-aging Cream SPF50</t>
+  </si>
+  <si>
+    <t>HYDRO NUTRY ANTI-AGING 360 CREAM</t>
+  </si>
+  <si>
+    <t>Infinity Treatment</t>
+  </si>
+  <si>
+    <t>NACAR PROFESSIONAL TREATMENT</t>
+  </si>
+  <si>
+    <t>Ocean Miracle Treatment</t>
+  </si>
+  <si>
+    <t>PURIFYING TREATMENT</t>
+  </si>
+  <si>
+    <t>REGENERIN INHIBITOR CONTRACTURE TREATMENT</t>
+  </si>
+  <si>
+    <t>REGENERIN WRINKLE SERUM</t>
+  </si>
+  <si>
+    <t>REGENERING MASK X10</t>
+  </si>
+  <si>
+    <t>RETINOL PROAGE RENEWAL NIGHT CREAM 0.15% PURE</t>
+  </si>
+  <si>
+    <t>RETINOL PROAGE RENEWAL NIGHT CREAM 0.3% PURE</t>
+  </si>
+  <si>
+    <t>RETINOL PROAGE RENEWAL DAY CREAM SPF 50 ML</t>
+  </si>
+  <si>
+    <t>RETINOL PROAGE TREATMENT 0.30%</t>
+  </si>
+  <si>
+    <t>RETINOL PROAGE TREATMENT 0.15%</t>
+  </si>
+  <si>
+    <t>SENSATIONS HYDRO REVITALIZING CREAM 50 ML</t>
+  </si>
+  <si>
+    <t>Sheet Mask Retinol - V</t>
+  </si>
+  <si>
+    <t>Sheet Mask Vitamina C</t>
+  </si>
+  <si>
+    <t>Sheet Mask Hyaluronic</t>
+  </si>
+  <si>
+    <t>SHINE STOP TREATMENT</t>
+  </si>
+  <si>
+    <t>SKIN SENSATION TREATMENT</t>
+  </si>
+  <si>
+    <t>Eye Perfection Presotherapy</t>
+  </si>
+  <si>
+    <t>Three Action Peel Renewal Serum</t>
+  </si>
+  <si>
+    <t>PRECLEANSE 473 ML</t>
+  </si>
+  <si>
+    <t>PreCleanse - 150ML</t>
+  </si>
+  <si>
+    <t>Special Cleansing Gel - 500 ML</t>
+  </si>
+  <si>
+    <t>Special Cleansing Gel - 250 ML</t>
+  </si>
+  <si>
+    <t>Intensive Moisture Cleanser 150 ML</t>
+  </si>
+  <si>
+    <t>Intensive Moisture Cleanser 473 ML</t>
+  </si>
+  <si>
+    <t>Multi-Active Toner 250 ML</t>
+  </si>
+  <si>
+    <t>Multi-Active Toner 473 ML</t>
+  </si>
+  <si>
+    <t>Liquid Peelfoliant 59 ML</t>
+  </si>
+  <si>
+    <t>Daily Microfoliant - 75 G</t>
+  </si>
+  <si>
+    <t>Daily MIcrofoliant 170 g</t>
+  </si>
+  <si>
+    <t>Daily Microfoliant - 13g</t>
+  </si>
+  <si>
+    <t>DAILY MILK FOLIANT 6.0 170 ML</t>
+  </si>
+  <si>
+    <t>DAILY MILK FOLIANT 75 GR</t>
+  </si>
+  <si>
+    <t>DAILY MILK FOLIANT 13 g</t>
+  </si>
+  <si>
+    <t>Daily Superfoliant-57G</t>
+  </si>
+  <si>
+    <t>Daily Superfoliant-13g</t>
+  </si>
+  <si>
+    <t>Hydro Masque Exfoliant - 50ML</t>
+  </si>
+  <si>
+    <t>Intensive Moisture Balance 100ML</t>
+  </si>
+  <si>
+    <t>Skin Smoothing Cream New - 177ML</t>
+  </si>
+  <si>
+    <t>Skin Smoothing Cream New - 100ML</t>
+  </si>
+  <si>
+    <t>Active Moist - 177ML</t>
+  </si>
+  <si>
+    <t>Active Moist - 100 ML</t>
+  </si>
+  <si>
+    <t>Stress Positive Eye Lift-25ML</t>
+  </si>
+  <si>
+    <t>Sound Sleep Cocoon - 50ml</t>
+  </si>
+  <si>
+    <t>HYALURONIC CERAMIDE MIST 150 ML</t>
+  </si>
+  <si>
+    <t>Invisible Physical Defense spf 30 - 50ML</t>
+  </si>
+  <si>
+    <t>Invisible Physical Defense spf 30 - 177ML</t>
+  </si>
+  <si>
+    <t>Skin Resurfacing Cleanser 150 ML</t>
+  </si>
+  <si>
+    <t>Skin Resurfacing Cleanser 473 ML</t>
+  </si>
+  <si>
+    <t>Antioxidant HydraMist - 150 ML</t>
+  </si>
+  <si>
+    <t>Antioxidant HydraMist - 355 ML</t>
+  </si>
+  <si>
+    <t>Antioxidante Hydramist pq</t>
+  </si>
+  <si>
+    <t>Dynamic Skin Recovery SPF50 - 50 ML</t>
+  </si>
+  <si>
+    <t>Dynamic Skin Recovery SPF50 - 120 ML</t>
+  </si>
+  <si>
+    <t>DYNAMIC SKIN RETINOL SERUM</t>
+  </si>
+  <si>
+    <t>MultiVitamin Power Recovery Masque - 177ML</t>
+  </si>
+  <si>
+    <t>MultiVitamin Power Recovery Masque - 75ML</t>
+  </si>
+  <si>
+    <t>MultiVitamin Power Serum 22ML</t>
+  </si>
+  <si>
+    <t>Multivitamin Power Firm - 74ML</t>
+  </si>
+  <si>
+    <t>Multivitamin Power Firm - 15ML</t>
+  </si>
+  <si>
+    <t>Skin Perfect Primer - 22 ML</t>
+  </si>
+  <si>
+    <t>Skin perfect primer - 50ML</t>
+  </si>
+  <si>
+    <t>Super Rich Repair - 118ML</t>
+  </si>
+  <si>
+    <t>Biolumin-C PRO Serum - 59ML</t>
+  </si>
+  <si>
+    <t>Biolumin-C Serum - 30ML</t>
+  </si>
+  <si>
+    <t>Biolumin-C Serum - 59ML</t>
+  </si>
+  <si>
+    <t>Biolumin-C Eye Serum 15ML</t>
+  </si>
+  <si>
+    <t>Biolumin-C Gel Moisturizer - 50ML</t>
+  </si>
+  <si>
+    <t>Biolumin-C Gel Moisturizer - 177ML</t>
+  </si>
+  <si>
+    <t>Ultracalming Cleanser 500 ML</t>
+  </si>
+  <si>
+    <t>UltraCalming Cleanser - 250 ML</t>
+  </si>
+  <si>
+    <t>Redness Relief Essence 355ML</t>
+  </si>
+  <si>
+    <t>Redness Relief Essence 150ML</t>
+  </si>
+  <si>
+    <t>Calm Water Gel - 177ML</t>
+  </si>
+  <si>
+    <t>Calm Water Gel - 50ML</t>
+  </si>
+  <si>
+    <t>Stabilizing Repair cream - 177ML</t>
+  </si>
+  <si>
+    <t>Stabilizing Repair cream - 50ML</t>
+  </si>
+  <si>
+    <t>Clearing Skin Wash - 250 ML</t>
+  </si>
+  <si>
+    <t>Clearing Skin Wash - 500 ML</t>
+  </si>
+  <si>
+    <t>Sebum Clearing Masque - 75ML</t>
+  </si>
+  <si>
+    <t>CLEARING OIL RETINOL - 30ML</t>
+  </si>
+  <si>
+    <t>Oil Free Matte SPF30 - 50 ML</t>
+  </si>
+  <si>
+    <t>Barrier Repair 118ML</t>
+  </si>
+  <si>
+    <t>Conductive Masque-177ml</t>
+  </si>
+  <si>
+    <t>Light Energy Masque</t>
+  </si>
+  <si>
+    <t>Massage Cream 6 oz - 177ML</t>
+  </si>
+  <si>
+    <t>Multi Active Scaling 237 ML</t>
+  </si>
+  <si>
+    <t>Neck Fit Refining Masque - 100ML</t>
+  </si>
+  <si>
+    <t>Post Extraction Solution 237 ML</t>
+  </si>
+  <si>
+    <t>PURIFYNG MASQ EXFOLIANTE 177 ML</t>
+  </si>
+  <si>
+    <t>Pro Power Eye Peel - 26 Trat 52 patches</t>
+  </si>
+  <si>
+    <t>Melanopro peeling System</t>
+  </si>
+  <si>
+    <t>Massage Cream 177ML</t>
+  </si>
+  <si>
+    <t>NCTF</t>
+  </si>
+  <si>
+    <t>BASIC ENZYME COLLAGENASE</t>
+  </si>
+  <si>
+    <t>BASIC ENZYME HYALURONIDESE</t>
+  </si>
+  <si>
+    <t>BASIC ENZYME LIPASE</t>
+  </si>
+  <si>
+    <t>CREMA LIGHTENING 50ml</t>
+  </si>
+  <si>
+    <t>Discovery Set</t>
+  </si>
+  <si>
+    <t>FACE HAIR RESOR XTRA Pelo / 5 Viales de 5 ml</t>
+  </si>
+  <si>
+    <t>LIPOTROFIN Serum Intensive 20 amp</t>
+  </si>
+  <si>
+    <t>METABOLITES - Serum Intensive 20 amp</t>
+  </si>
+  <si>
+    <t>MUSCLEBIG Serum Intensive 20 amp</t>
+  </si>
+  <si>
+    <t>PEELING ARGILAC MASK 60 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEELING AZELAICO. 60 ML </t>
+  </si>
+  <si>
+    <t>PEELING FERULICO. 60 ML</t>
+  </si>
+  <si>
+    <t>PEELING GLICOLICO</t>
+  </si>
+  <si>
+    <t>PEELING LIGHTENING 60 ML</t>
+  </si>
+  <si>
+    <t>PEELING MANDELICO. 60 ML</t>
+  </si>
+  <si>
+    <t>SILICIO ORG. 20 amp. 2 c.c. Regenerador</t>
+  </si>
+  <si>
+    <t>SIMIL CARE Crema Post tratamiento 300 ML</t>
+  </si>
+  <si>
+    <t>SIMIL CARE Crema Post tratamiento 50 ML</t>
+  </si>
+  <si>
+    <t>SKIN REPAIR SERUM</t>
+  </si>
+  <si>
+    <t>SUERO LIGHTENING 30 ML</t>
+  </si>
+  <si>
+    <t>XTRA FACE ANTIAGING / 5 Viales de 5 ml</t>
+  </si>
+  <si>
+    <t>XTRA FACELIFT 3 Viales (5 ml ) Tercio superior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTRA LIGTHENING PLUS / 5 Viales de 5 ml </t>
+  </si>
+  <si>
+    <t>XTRA LIGTHENING PLUS / 1 vial 5ml</t>
+  </si>
+  <si>
+    <t>XTRA SKIN FIRMING/ 5 viales 5ml</t>
+  </si>
+  <si>
+    <t>XTRA SKIN REPAIR / 5 Viales de 5 ml</t>
+  </si>
+  <si>
+    <t>VAPOR OZONO PORTATIL (F-100C)</t>
+  </si>
+  <si>
+    <t>PROFESIONAL o RETAIL</t>
   </si>
 </sst>
 </file>
@@ -12283,7 +12905,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12775,6 +13397,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -74027,8 +74651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925868F2-EAF0-1549-A5AE-CF82CA03C71B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -74784,4 +75408,2335 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE787CD-2F1F-ED42-8EA4-E89B8397361C}">
+  <dimension ref="A1:G144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4098</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3955</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3959</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3834</v>
+      </c>
+      <c r="F2" s="199">
+        <v>392000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F3" s="199">
+        <v>120000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3891</v>
+      </c>
+      <c r="F4" s="199">
+        <v>199000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3891</v>
+      </c>
+      <c r="F5" s="199">
+        <v>199000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3901</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3902</v>
+      </c>
+      <c r="F6" s="199">
+        <v>124000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3901</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3903</v>
+      </c>
+      <c r="F7" s="199" t="s">
+        <v>3958</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3901</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3904</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3905</v>
+      </c>
+      <c r="F8" s="199">
+        <v>172000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3906</v>
+      </c>
+      <c r="F9" s="199" t="s">
+        <v>3958</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3906</v>
+      </c>
+      <c r="F10" s="199">
+        <v>206000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3907</v>
+      </c>
+      <c r="F11" s="199">
+        <v>340000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3836</v>
+      </c>
+      <c r="F12" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3814</v>
+      </c>
+      <c r="F13" s="199">
+        <v>365000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3901</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3904</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3768</v>
+      </c>
+      <c r="F14" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F15" s="199">
+        <v>290000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3909</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3910</v>
+      </c>
+      <c r="F16" s="199">
+        <v>278000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3909</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F17" s="199">
+        <v>282000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3912</v>
+      </c>
+      <c r="F18" s="199">
+        <v>226000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3913</v>
+      </c>
+      <c r="F19" s="199">
+        <v>392000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3909</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3835</v>
+      </c>
+      <c r="F20" s="199">
+        <v>392000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3834</v>
+      </c>
+      <c r="F21" s="199">
+        <v>392000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3814</v>
+      </c>
+      <c r="F22" s="199">
+        <v>365000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3914</v>
+      </c>
+      <c r="F23" s="199">
+        <v>392000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F24" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3768</v>
+      </c>
+      <c r="F25" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3824</v>
+      </c>
+      <c r="F26" s="199">
+        <v>260000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3889</v>
+      </c>
+      <c r="F27" s="199">
+        <v>271000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3887</v>
+      </c>
+      <c r="F28" s="199">
+        <v>303000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3915</v>
+      </c>
+      <c r="F29" s="199">
+        <v>392000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3916</v>
+      </c>
+      <c r="F30" s="199">
+        <v>392000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3903</v>
+      </c>
+      <c r="F31" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3736</v>
+      </c>
+      <c r="F32" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3897</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3736</v>
+      </c>
+      <c r="F33" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3897</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3736</v>
+      </c>
+      <c r="F34" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>3992</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3764</v>
+      </c>
+      <c r="F35" s="199">
+        <v>365000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>3993</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3764</v>
+      </c>
+      <c r="F36" s="199">
+        <v>392000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>3994</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3917</v>
+      </c>
+      <c r="F37" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>3995</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3918</v>
+      </c>
+      <c r="F38" s="199">
+        <v>278000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>3996</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3825</v>
+      </c>
+      <c r="F39" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>3997</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3824</v>
+      </c>
+      <c r="F40" s="199">
+        <v>259000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>3998</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3798</v>
+      </c>
+      <c r="F41" s="199">
+        <v>310000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>3999</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3822</v>
+      </c>
+      <c r="F42" s="199">
+        <v>223000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>4000</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3822</v>
+      </c>
+      <c r="F43" s="199">
+        <v>223000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>4001</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3919</v>
+      </c>
+      <c r="F44" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>4002</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3920</v>
+      </c>
+      <c r="F45" s="199">
+        <v>228000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>4003</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3827</v>
+      </c>
+      <c r="F46" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>4004</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3848</v>
+      </c>
+      <c r="F47" s="199">
+        <v>312000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>4005</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3921</v>
+      </c>
+      <c r="F48" s="199">
+        <v>345000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>4006</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3808</v>
+      </c>
+      <c r="F49" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>4007</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3871</v>
+      </c>
+      <c r="F50" s="199">
+        <v>107000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>4008</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3922</v>
+      </c>
+      <c r="F51" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G51" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>4009</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3921</v>
+      </c>
+      <c r="F52" s="199">
+        <v>345000</v>
+      </c>
+      <c r="G52" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>4010</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3871</v>
+      </c>
+      <c r="F53" s="199">
+        <v>107000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>4011</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3921</v>
+      </c>
+      <c r="F54" s="199">
+        <v>345000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>4012</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3871</v>
+      </c>
+      <c r="F55" s="199">
+        <v>107000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>4013</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3923</v>
+      </c>
+      <c r="F56" s="199">
+        <v>321000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>4014</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3846</v>
+      </c>
+      <c r="F57" s="199">
+        <v>355000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>4015</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3812</v>
+      </c>
+      <c r="F58" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>4016</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3924</v>
+      </c>
+      <c r="F59" s="199">
+        <v>354000</v>
+      </c>
+      <c r="G59" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>4017</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3825</v>
+      </c>
+      <c r="F60" s="199" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>4018</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3924</v>
+      </c>
+      <c r="F61" s="199">
+        <v>354000</v>
+      </c>
+      <c r="G61" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>4019</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3924</v>
+      </c>
+      <c r="F62" s="199">
+        <v>354000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>4020</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3925</v>
+      </c>
+      <c r="F63" s="199">
+        <v>426000</v>
+      </c>
+      <c r="G63" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>4021</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3926</v>
+      </c>
+      <c r="F64" s="199">
+        <v>249000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E65" t="s">
+        <v>3882</v>
+      </c>
+      <c r="F65" s="199">
+        <v>255000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>4023</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3863</v>
+      </c>
+      <c r="F66" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G66" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>4024</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3882</v>
+      </c>
+      <c r="F67" s="199">
+        <v>256000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>4025</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3927</v>
+      </c>
+      <c r="F68" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G68" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>4026</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3928</v>
+      </c>
+      <c r="F69" s="199">
+        <v>249000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>4027</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3785</v>
+      </c>
+      <c r="F70" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G70" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>4028</v>
+      </c>
+      <c r="E71" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="F71" s="199">
+        <v>46000</v>
+      </c>
+      <c r="G71" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>4029</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3929</v>
+      </c>
+      <c r="F72" s="199">
+        <v>379000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>4030</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3916</v>
+      </c>
+      <c r="F73" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G73" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>4031</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3930</v>
+      </c>
+      <c r="F74" s="199">
+        <v>407000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>4032</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3810</v>
+      </c>
+      <c r="F75" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>4033</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3764</v>
+      </c>
+      <c r="F76" s="199">
+        <v>345000</v>
+      </c>
+      <c r="G76" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>4034</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3931</v>
+      </c>
+      <c r="F77" s="199">
+        <v>371000</v>
+      </c>
+      <c r="G77" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>4035</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3932</v>
+      </c>
+      <c r="F78" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G78" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>4036</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3933</v>
+      </c>
+      <c r="F79" s="199">
+        <v>365000</v>
+      </c>
+      <c r="G79" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>4037</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3934</v>
+      </c>
+      <c r="F80" s="199">
+        <v>308000</v>
+      </c>
+      <c r="G80" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>4038</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3927</v>
+      </c>
+      <c r="F81" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G81" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>4039</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3935</v>
+      </c>
+      <c r="F82" s="199">
+        <v>384000</v>
+      </c>
+      <c r="G82" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3936</v>
+      </c>
+      <c r="F83" s="199">
+        <v>392000</v>
+      </c>
+      <c r="G83" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3792</v>
+      </c>
+      <c r="F84" s="199">
+        <v>421000</v>
+      </c>
+      <c r="G84" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>4042</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3753</v>
+      </c>
+      <c r="F85" s="199">
+        <v>656000</v>
+      </c>
+      <c r="G85" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>4043</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3764</v>
+      </c>
+      <c r="F86" s="199">
+        <v>391000</v>
+      </c>
+      <c r="G86" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3937</v>
+      </c>
+      <c r="F87" s="199">
+        <v>365000</v>
+      </c>
+      <c r="G87" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3818</v>
+      </c>
+      <c r="F88" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G88" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3798</v>
+      </c>
+      <c r="F89" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3822</v>
+      </c>
+      <c r="F90" s="199">
+        <v>223000</v>
+      </c>
+      <c r="G90" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3938</v>
+      </c>
+      <c r="F91" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3939</v>
+      </c>
+      <c r="F92" s="199">
+        <v>224000</v>
+      </c>
+      <c r="G92" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3602</v>
+      </c>
+      <c r="F93" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G93" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>4051</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F94" s="199">
+        <v>292000</v>
+      </c>
+      <c r="G94" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>4052</v>
+      </c>
+      <c r="E95" t="s">
+        <v>3816</v>
+      </c>
+      <c r="F95" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G95" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>4053</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3940</v>
+      </c>
+      <c r="F96" s="199">
+        <v>325000</v>
+      </c>
+      <c r="G96" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>4054</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3822</v>
+      </c>
+      <c r="F97" s="199">
+        <v>223000</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>4055</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3914</v>
+      </c>
+      <c r="F98" s="199">
+        <v>361000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>4056</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3941</v>
+      </c>
+      <c r="F99" s="199">
+        <v>286000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>4057</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3942</v>
+      </c>
+      <c r="F100" s="199">
+        <v>434000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>4058</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3934</v>
+      </c>
+      <c r="F101" s="199">
+        <v>308000</v>
+      </c>
+      <c r="G101" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>4059</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3943</v>
+      </c>
+      <c r="F102" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G102" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>4060</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3829</v>
+      </c>
+      <c r="F103" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G103" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>4061</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3875</v>
+      </c>
+      <c r="F104" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G104" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>4062</v>
+      </c>
+      <c r="E105" t="s">
+        <v>3879</v>
+      </c>
+      <c r="F105" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>4063</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3781</v>
+      </c>
+      <c r="F106" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G106" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>4064</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3944</v>
+      </c>
+      <c r="F107" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G107" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>4065</v>
+      </c>
+      <c r="E108" t="s">
+        <v>3783</v>
+      </c>
+      <c r="F108" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G108" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>3945</v>
+      </c>
+      <c r="E109" t="s">
+        <v>3946</v>
+      </c>
+      <c r="F109" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>4066</v>
+      </c>
+      <c r="E110" t="s">
+        <v>3877</v>
+      </c>
+      <c r="F110" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G110" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>4067</v>
+      </c>
+      <c r="E111" t="s">
+        <v>3745</v>
+      </c>
+      <c r="F111" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G111" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>4068</v>
+      </c>
+      <c r="E112" t="s">
+        <v>3757</v>
+      </c>
+      <c r="F112" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G112" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E113" t="s">
+        <v>3879</v>
+      </c>
+      <c r="F113" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G113" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E114" t="s">
+        <v>3947</v>
+      </c>
+      <c r="F114" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G114" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>4071</v>
+      </c>
+      <c r="E115" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F115" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G115" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>4072</v>
+      </c>
+      <c r="E116" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F116" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G116" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>4073</v>
+      </c>
+      <c r="E117" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F117" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G117" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>4074</v>
+      </c>
+      <c r="E118" t="s">
+        <v>3948</v>
+      </c>
+      <c r="F118" s="199">
+        <v>403000</v>
+      </c>
+      <c r="G118" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>4075</v>
+      </c>
+      <c r="E119" t="s">
+        <v>3857</v>
+      </c>
+      <c r="F119" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G119" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>268</v>
+      </c>
+      <c r="E120" t="s">
+        <v>3794</v>
+      </c>
+      <c r="F120" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G120" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>4076</v>
+      </c>
+      <c r="E121" t="s">
+        <v>3853</v>
+      </c>
+      <c r="F121" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G121" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>4077</v>
+      </c>
+      <c r="E122" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F122" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G122" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>4078</v>
+      </c>
+      <c r="E123" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F123" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G123" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>4079</v>
+      </c>
+      <c r="E124" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F124" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G124" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>4080</v>
+      </c>
+      <c r="E125" t="s">
+        <v>3841</v>
+      </c>
+      <c r="F125" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G125" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>4081</v>
+      </c>
+      <c r="E126" t="s">
+        <v>3844</v>
+      </c>
+      <c r="F126" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G126" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>4082</v>
+      </c>
+      <c r="E127" t="s">
+        <v>3844</v>
+      </c>
+      <c r="F127" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G127" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>4083</v>
+      </c>
+      <c r="E128" t="s">
+        <v>3841</v>
+      </c>
+      <c r="F128" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G128" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>4084</v>
+      </c>
+      <c r="E129" t="s">
+        <v>3841</v>
+      </c>
+      <c r="F129" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G129" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>4085</v>
+      </c>
+      <c r="E130" t="s">
+        <v>3841</v>
+      </c>
+      <c r="F130" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G130" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>4086</v>
+      </c>
+      <c r="E131" t="s">
+        <v>3841</v>
+      </c>
+      <c r="F131" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G131" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>4087</v>
+      </c>
+      <c r="E132" t="s">
+        <v>3846</v>
+      </c>
+      <c r="F132" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G132" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>4088</v>
+      </c>
+      <c r="E133" t="s">
+        <v>3950</v>
+      </c>
+      <c r="F133" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G133" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>4089</v>
+      </c>
+      <c r="E134" t="s">
+        <v>3951</v>
+      </c>
+      <c r="F134" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G134" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>4090</v>
+      </c>
+      <c r="E135" t="s">
+        <v>3798</v>
+      </c>
+      <c r="F135" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G135" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>4091</v>
+      </c>
+      <c r="E136" t="s">
+        <v>3853</v>
+      </c>
+      <c r="F136" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G136" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>4092</v>
+      </c>
+      <c r="E137" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F137" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G137" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>4093</v>
+      </c>
+      <c r="E138" t="s">
+        <v>3853</v>
+      </c>
+      <c r="F138" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G138" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>4094</v>
+      </c>
+      <c r="E139" t="s">
+        <v>3853</v>
+      </c>
+      <c r="F139" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G139" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>4095</v>
+      </c>
+      <c r="E140" t="s">
+        <v>3953</v>
+      </c>
+      <c r="F140" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G140" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>4096</v>
+      </c>
+      <c r="E141" t="s">
+        <v>3853</v>
+      </c>
+      <c r="F141" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G141" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>4097</v>
+      </c>
+      <c r="E142" t="s">
+        <v>3747</v>
+      </c>
+      <c r="F142" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G142" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>3858</v>
+      </c>
+      <c r="E143" t="s">
+        <v>3857</v>
+      </c>
+      <c r="F143" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G143" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E144" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F144" s="200" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G144" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB_AGMS.xlsx
+++ b/DB_AGMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrespuertagonzalez/Documents/AGMS_Analitics/Datos/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97847FD4-99C1-604D-9D10-D7D4CF114EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BF3DD-659F-CB4F-96A2-C079F5E57438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="2" r:id="rId1"/>
@@ -13391,14 +13391,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -13809,17 +13809,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
     </row>
     <row r="2" spans="1:9" ht="49" customHeight="1">
       <c r="A2" s="44" t="s">
@@ -74651,8 +74651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925868F2-EAF0-1549-A5AE-CF82CA03C71B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -74707,7 +74707,7 @@
         <v>45899</v>
       </c>
       <c r="E2" s="164">
-        <v>45537</v>
+        <v>45902</v>
       </c>
       <c r="F2" s="154"/>
       <c r="G2" s="165">
@@ -75414,7 +75414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE787CD-2F1F-ED42-8EA4-E89B8397361C}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -75468,7 +75468,7 @@
       <c r="E2" t="s">
         <v>3834</v>
       </c>
-      <c r="F2" s="199">
+      <c r="F2" s="197">
         <v>392000</v>
       </c>
       <c r="G2" t="s">
@@ -75491,7 +75491,7 @@
       <c r="E3" t="s">
         <v>3898</v>
       </c>
-      <c r="F3" s="199">
+      <c r="F3" s="197">
         <v>120000</v>
       </c>
       <c r="G3" t="s">
@@ -75514,7 +75514,7 @@
       <c r="E4" t="s">
         <v>3891</v>
       </c>
-      <c r="F4" s="199">
+      <c r="F4" s="197">
         <v>199000</v>
       </c>
       <c r="G4" t="s">
@@ -75537,7 +75537,7 @@
       <c r="E5" t="s">
         <v>3891</v>
       </c>
-      <c r="F5" s="199">
+      <c r="F5" s="197">
         <v>199000</v>
       </c>
       <c r="G5" t="s">
@@ -75560,7 +75560,7 @@
       <c r="E6" t="s">
         <v>3902</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <v>124000</v>
       </c>
       <c r="G6" t="s">
@@ -75583,7 +75583,7 @@
       <c r="E7" t="s">
         <v>3903</v>
       </c>
-      <c r="F7" s="199" t="s">
+      <c r="F7" s="197" t="s">
         <v>3958</v>
       </c>
       <c r="G7" t="s">
@@ -75606,7 +75606,7 @@
       <c r="E8" t="s">
         <v>3905</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="197">
         <v>172000</v>
       </c>
       <c r="G8" t="s">
@@ -75629,7 +75629,7 @@
       <c r="E9" t="s">
         <v>3906</v>
       </c>
-      <c r="F9" s="199" t="s">
+      <c r="F9" s="197" t="s">
         <v>3958</v>
       </c>
       <c r="G9" t="s">
@@ -75652,7 +75652,7 @@
       <c r="E10" t="s">
         <v>3906</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="197">
         <v>206000</v>
       </c>
       <c r="G10" t="s">
@@ -75675,7 +75675,7 @@
       <c r="E11" t="s">
         <v>3907</v>
       </c>
-      <c r="F11" s="199">
+      <c r="F11" s="197">
         <v>340000</v>
       </c>
       <c r="G11" t="s">
@@ -75698,7 +75698,7 @@
       <c r="E12" t="s">
         <v>3836</v>
       </c>
-      <c r="F12" s="200" t="s">
+      <c r="F12" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G12" t="s">
@@ -75721,7 +75721,7 @@
       <c r="E13" t="s">
         <v>3814</v>
       </c>
-      <c r="F13" s="199">
+      <c r="F13" s="197">
         <v>365000</v>
       </c>
       <c r="G13" t="s">
@@ -75744,7 +75744,7 @@
       <c r="E14" t="s">
         <v>3768</v>
       </c>
-      <c r="F14" s="200" t="s">
+      <c r="F14" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G14" t="s">
@@ -75767,7 +75767,7 @@
       <c r="E15" t="s">
         <v>3908</v>
       </c>
-      <c r="F15" s="199">
+      <c r="F15" s="197">
         <v>290000</v>
       </c>
       <c r="G15" t="s">
@@ -75790,7 +75790,7 @@
       <c r="E16" t="s">
         <v>3910</v>
       </c>
-      <c r="F16" s="199">
+      <c r="F16" s="197">
         <v>278000</v>
       </c>
       <c r="G16" t="s">
@@ -75813,7 +75813,7 @@
       <c r="E17" t="s">
         <v>3911</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="197">
         <v>282000</v>
       </c>
       <c r="G17" t="s">
@@ -75836,7 +75836,7 @@
       <c r="E18" t="s">
         <v>3912</v>
       </c>
-      <c r="F18" s="199">
+      <c r="F18" s="197">
         <v>226000</v>
       </c>
       <c r="G18" t="s">
@@ -75859,7 +75859,7 @@
       <c r="E19" t="s">
         <v>3913</v>
       </c>
-      <c r="F19" s="199">
+      <c r="F19" s="197">
         <v>392000</v>
       </c>
       <c r="G19" t="s">
@@ -75882,7 +75882,7 @@
       <c r="E20" t="s">
         <v>3835</v>
       </c>
-      <c r="F20" s="199">
+      <c r="F20" s="197">
         <v>392000</v>
       </c>
       <c r="G20" t="s">
@@ -75905,7 +75905,7 @@
       <c r="E21" t="s">
         <v>3834</v>
       </c>
-      <c r="F21" s="199">
+      <c r="F21" s="197">
         <v>392000</v>
       </c>
       <c r="G21" t="s">
@@ -75928,7 +75928,7 @@
       <c r="E22" t="s">
         <v>3814</v>
       </c>
-      <c r="F22" s="199">
+      <c r="F22" s="197">
         <v>365000</v>
       </c>
       <c r="G22" t="s">
@@ -75951,7 +75951,7 @@
       <c r="E23" t="s">
         <v>3914</v>
       </c>
-      <c r="F23" s="199">
+      <c r="F23" s="197">
         <v>392000</v>
       </c>
       <c r="G23" t="s">
@@ -75974,7 +75974,7 @@
       <c r="E24" t="s">
         <v>3908</v>
       </c>
-      <c r="F24" s="200" t="s">
+      <c r="F24" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G24" t="s">
@@ -75997,7 +75997,7 @@
       <c r="E25" t="s">
         <v>3768</v>
       </c>
-      <c r="F25" s="200" t="s">
+      <c r="F25" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G25" t="s">
@@ -76020,7 +76020,7 @@
       <c r="E26" t="s">
         <v>3824</v>
       </c>
-      <c r="F26" s="199">
+      <c r="F26" s="197">
         <v>260000</v>
       </c>
       <c r="G26" t="s">
@@ -76043,7 +76043,7 @@
       <c r="E27" t="s">
         <v>3889</v>
       </c>
-      <c r="F27" s="199">
+      <c r="F27" s="197">
         <v>271000</v>
       </c>
       <c r="G27" t="s">
@@ -76066,7 +76066,7 @@
       <c r="E28" t="s">
         <v>3887</v>
       </c>
-      <c r="F28" s="199">
+      <c r="F28" s="197">
         <v>303000</v>
       </c>
       <c r="G28" t="s">
@@ -76089,7 +76089,7 @@
       <c r="E29" t="s">
         <v>3915</v>
       </c>
-      <c r="F29" s="199">
+      <c r="F29" s="197">
         <v>392000</v>
       </c>
       <c r="G29" t="s">
@@ -76112,7 +76112,7 @@
       <c r="E30" t="s">
         <v>3916</v>
       </c>
-      <c r="F30" s="199">
+      <c r="F30" s="197">
         <v>392000</v>
       </c>
       <c r="G30" t="s">
@@ -76135,7 +76135,7 @@
       <c r="E31" t="s">
         <v>3903</v>
       </c>
-      <c r="F31" s="200" t="s">
+      <c r="F31" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G31" t="s">
@@ -76155,7 +76155,7 @@
       <c r="E32" t="s">
         <v>3736</v>
       </c>
-      <c r="F32" s="200" t="s">
+      <c r="F32" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G32" t="s">
@@ -76172,7 +76172,7 @@
       <c r="E33" t="s">
         <v>3736</v>
       </c>
-      <c r="F33" s="200" t="s">
+      <c r="F33" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G33" t="s">
@@ -76189,7 +76189,7 @@
       <c r="E34" t="s">
         <v>3736</v>
       </c>
-      <c r="F34" s="200" t="s">
+      <c r="F34" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G34" t="s">
@@ -76203,7 +76203,7 @@
       <c r="E35" t="s">
         <v>3764</v>
       </c>
-      <c r="F35" s="199">
+      <c r="F35" s="197">
         <v>365000</v>
       </c>
       <c r="G35" t="s">
@@ -76217,7 +76217,7 @@
       <c r="E36" t="s">
         <v>3764</v>
       </c>
-      <c r="F36" s="199">
+      <c r="F36" s="197">
         <v>392000</v>
       </c>
       <c r="G36" t="s">
@@ -76231,7 +76231,7 @@
       <c r="E37" t="s">
         <v>3917</v>
       </c>
-      <c r="F37" s="200" t="s">
+      <c r="F37" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G37" t="s">
@@ -76245,7 +76245,7 @@
       <c r="E38" t="s">
         <v>3918</v>
       </c>
-      <c r="F38" s="199">
+      <c r="F38" s="197">
         <v>278000</v>
       </c>
       <c r="G38" t="s">
@@ -76259,7 +76259,7 @@
       <c r="E39" t="s">
         <v>3825</v>
       </c>
-      <c r="F39" s="200" t="s">
+      <c r="F39" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G39" t="s">
@@ -76273,7 +76273,7 @@
       <c r="E40" t="s">
         <v>3824</v>
       </c>
-      <c r="F40" s="199">
+      <c r="F40" s="197">
         <v>259000</v>
       </c>
       <c r="G40" t="s">
@@ -76287,7 +76287,7 @@
       <c r="E41" t="s">
         <v>3798</v>
       </c>
-      <c r="F41" s="199">
+      <c r="F41" s="197">
         <v>310000</v>
       </c>
       <c r="G41" t="s">
@@ -76301,7 +76301,7 @@
       <c r="E42" t="s">
         <v>3822</v>
       </c>
-      <c r="F42" s="199">
+      <c r="F42" s="197">
         <v>223000</v>
       </c>
       <c r="G42" t="s">
@@ -76315,7 +76315,7 @@
       <c r="E43" t="s">
         <v>3822</v>
       </c>
-      <c r="F43" s="199">
+      <c r="F43" s="197">
         <v>223000</v>
       </c>
       <c r="G43" t="s">
@@ -76329,7 +76329,7 @@
       <c r="E44" t="s">
         <v>3919</v>
       </c>
-      <c r="F44" s="200" t="s">
+      <c r="F44" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G44" t="s">
@@ -76343,7 +76343,7 @@
       <c r="E45" t="s">
         <v>3920</v>
       </c>
-      <c r="F45" s="199">
+      <c r="F45" s="197">
         <v>228000</v>
       </c>
       <c r="G45" t="s">
@@ -76357,7 +76357,7 @@
       <c r="E46" t="s">
         <v>3827</v>
       </c>
-      <c r="F46" s="200" t="s">
+      <c r="F46" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G46" t="s">
@@ -76371,7 +76371,7 @@
       <c r="E47" t="s">
         <v>3848</v>
       </c>
-      <c r="F47" s="199">
+      <c r="F47" s="197">
         <v>312000</v>
       </c>
       <c r="G47" t="s">
@@ -76385,7 +76385,7 @@
       <c r="E48" t="s">
         <v>3921</v>
       </c>
-      <c r="F48" s="199">
+      <c r="F48" s="197">
         <v>345000</v>
       </c>
       <c r="G48" t="s">
@@ -76399,7 +76399,7 @@
       <c r="E49" t="s">
         <v>3808</v>
       </c>
-      <c r="F49" s="200" t="s">
+      <c r="F49" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G49" t="s">
@@ -76413,7 +76413,7 @@
       <c r="E50" t="s">
         <v>3871</v>
       </c>
-      <c r="F50" s="199">
+      <c r="F50" s="197">
         <v>107000</v>
       </c>
       <c r="G50" t="s">
@@ -76427,7 +76427,7 @@
       <c r="E51" t="s">
         <v>3922</v>
       </c>
-      <c r="F51" s="200" t="s">
+      <c r="F51" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G51" t="s">
@@ -76441,7 +76441,7 @@
       <c r="E52" t="s">
         <v>3921</v>
       </c>
-      <c r="F52" s="199">
+      <c r="F52" s="197">
         <v>345000</v>
       </c>
       <c r="G52" t="s">
@@ -76455,7 +76455,7 @@
       <c r="E53" t="s">
         <v>3871</v>
       </c>
-      <c r="F53" s="199">
+      <c r="F53" s="197">
         <v>107000</v>
       </c>
       <c r="G53" t="s">
@@ -76469,7 +76469,7 @@
       <c r="E54" t="s">
         <v>3921</v>
       </c>
-      <c r="F54" s="199">
+      <c r="F54" s="197">
         <v>345000</v>
       </c>
       <c r="G54" t="s">
@@ -76483,7 +76483,7 @@
       <c r="E55" t="s">
         <v>3871</v>
       </c>
-      <c r="F55" s="199">
+      <c r="F55" s="197">
         <v>107000</v>
       </c>
       <c r="G55" t="s">
@@ -76497,7 +76497,7 @@
       <c r="E56" t="s">
         <v>3923</v>
       </c>
-      <c r="F56" s="199">
+      <c r="F56" s="197">
         <v>321000</v>
       </c>
       <c r="G56" t="s">
@@ -76511,7 +76511,7 @@
       <c r="E57" t="s">
         <v>3846</v>
       </c>
-      <c r="F57" s="199">
+      <c r="F57" s="197">
         <v>355000</v>
       </c>
       <c r="G57" t="s">
@@ -76525,7 +76525,7 @@
       <c r="E58" t="s">
         <v>3812</v>
       </c>
-      <c r="F58" s="200" t="s">
+      <c r="F58" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G58" t="s">
@@ -76539,7 +76539,7 @@
       <c r="E59" t="s">
         <v>3924</v>
       </c>
-      <c r="F59" s="199">
+      <c r="F59" s="197">
         <v>354000</v>
       </c>
       <c r="G59" t="s">
@@ -76553,7 +76553,7 @@
       <c r="E60" t="s">
         <v>3825</v>
       </c>
-      <c r="F60" s="199" t="s">
+      <c r="F60" s="197" t="s">
         <v>3965</v>
       </c>
       <c r="G60" t="s">
@@ -76567,7 +76567,7 @@
       <c r="E61" t="s">
         <v>3924</v>
       </c>
-      <c r="F61" s="199">
+      <c r="F61" s="197">
         <v>354000</v>
       </c>
       <c r="G61" t="s">
@@ -76581,7 +76581,7 @@
       <c r="E62" t="s">
         <v>3924</v>
       </c>
-      <c r="F62" s="199">
+      <c r="F62" s="197">
         <v>354000</v>
       </c>
       <c r="G62" t="s">
@@ -76595,7 +76595,7 @@
       <c r="E63" t="s">
         <v>3925</v>
       </c>
-      <c r="F63" s="199">
+      <c r="F63" s="197">
         <v>426000</v>
       </c>
       <c r="G63" t="s">
@@ -76609,7 +76609,7 @@
       <c r="E64" t="s">
         <v>3926</v>
       </c>
-      <c r="F64" s="199">
+      <c r="F64" s="197">
         <v>249000</v>
       </c>
       <c r="G64" t="s">
@@ -76623,7 +76623,7 @@
       <c r="E65" t="s">
         <v>3882</v>
       </c>
-      <c r="F65" s="199">
+      <c r="F65" s="197">
         <v>255000</v>
       </c>
       <c r="G65" t="s">
@@ -76637,7 +76637,7 @@
       <c r="E66" t="s">
         <v>3863</v>
       </c>
-      <c r="F66" s="200" t="s">
+      <c r="F66" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G66" t="s">
@@ -76651,7 +76651,7 @@
       <c r="E67" t="s">
         <v>3882</v>
       </c>
-      <c r="F67" s="199">
+      <c r="F67" s="197">
         <v>256000</v>
       </c>
       <c r="G67" t="s">
@@ -76665,7 +76665,7 @@
       <c r="E68" t="s">
         <v>3927</v>
       </c>
-      <c r="F68" s="200" t="s">
+      <c r="F68" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G68" t="s">
@@ -76679,7 +76679,7 @@
       <c r="E69" t="s">
         <v>3928</v>
       </c>
-      <c r="F69" s="199">
+      <c r="F69" s="197">
         <v>249000</v>
       </c>
       <c r="G69" t="s">
@@ -76693,7 +76693,7 @@
       <c r="E70" t="s">
         <v>3785</v>
       </c>
-      <c r="F70" s="200" t="s">
+      <c r="F70" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G70" t="s">
@@ -76704,10 +76704,10 @@
       <c r="A71" t="s">
         <v>4028</v>
       </c>
-      <c r="E71" s="200" t="s">
+      <c r="E71" s="198" t="s">
         <v>3965</v>
       </c>
-      <c r="F71" s="199">
+      <c r="F71" s="197">
         <v>46000</v>
       </c>
       <c r="G71" t="s">
@@ -76721,7 +76721,7 @@
       <c r="E72" t="s">
         <v>3929</v>
       </c>
-      <c r="F72" s="199">
+      <c r="F72" s="197">
         <v>379000</v>
       </c>
       <c r="G72" t="s">
@@ -76735,7 +76735,7 @@
       <c r="E73" t="s">
         <v>3916</v>
       </c>
-      <c r="F73" s="200" t="s">
+      <c r="F73" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G73" t="s">
@@ -76749,7 +76749,7 @@
       <c r="E74" t="s">
         <v>3930</v>
       </c>
-      <c r="F74" s="199">
+      <c r="F74" s="197">
         <v>407000</v>
       </c>
       <c r="G74" t="s">
@@ -76763,7 +76763,7 @@
       <c r="E75" t="s">
         <v>3810</v>
       </c>
-      <c r="F75" s="200" t="s">
+      <c r="F75" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G75" t="s">
@@ -76777,7 +76777,7 @@
       <c r="E76" t="s">
         <v>3764</v>
       </c>
-      <c r="F76" s="199">
+      <c r="F76" s="197">
         <v>345000</v>
       </c>
       <c r="G76" t="s">
@@ -76791,7 +76791,7 @@
       <c r="E77" t="s">
         <v>3931</v>
       </c>
-      <c r="F77" s="199">
+      <c r="F77" s="197">
         <v>371000</v>
       </c>
       <c r="G77" t="s">
@@ -76805,7 +76805,7 @@
       <c r="E78" t="s">
         <v>3932</v>
       </c>
-      <c r="F78" s="200" t="s">
+      <c r="F78" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G78" t="s">
@@ -76819,7 +76819,7 @@
       <c r="E79" t="s">
         <v>3933</v>
       </c>
-      <c r="F79" s="199">
+      <c r="F79" s="197">
         <v>365000</v>
       </c>
       <c r="G79" t="s">
@@ -76833,7 +76833,7 @@
       <c r="E80" t="s">
         <v>3934</v>
       </c>
-      <c r="F80" s="199">
+      <c r="F80" s="197">
         <v>308000</v>
       </c>
       <c r="G80" t="s">
@@ -76847,7 +76847,7 @@
       <c r="E81" t="s">
         <v>3927</v>
       </c>
-      <c r="F81" s="200" t="s">
+      <c r="F81" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G81" t="s">
@@ -76861,7 +76861,7 @@
       <c r="E82" t="s">
         <v>3935</v>
       </c>
-      <c r="F82" s="199">
+      <c r="F82" s="197">
         <v>384000</v>
       </c>
       <c r="G82" t="s">
@@ -76875,7 +76875,7 @@
       <c r="E83" t="s">
         <v>3936</v>
       </c>
-      <c r="F83" s="199">
+      <c r="F83" s="197">
         <v>392000</v>
       </c>
       <c r="G83" t="s">
@@ -76889,7 +76889,7 @@
       <c r="E84" t="s">
         <v>3792</v>
       </c>
-      <c r="F84" s="199">
+      <c r="F84" s="197">
         <v>421000</v>
       </c>
       <c r="G84" t="s">
@@ -76903,7 +76903,7 @@
       <c r="E85" t="s">
         <v>3753</v>
       </c>
-      <c r="F85" s="199">
+      <c r="F85" s="197">
         <v>656000</v>
       </c>
       <c r="G85" t="s">
@@ -76917,7 +76917,7 @@
       <c r="E86" t="s">
         <v>3764</v>
       </c>
-      <c r="F86" s="199">
+      <c r="F86" s="197">
         <v>391000</v>
       </c>
       <c r="G86" t="s">
@@ -76931,7 +76931,7 @@
       <c r="E87" t="s">
         <v>3937</v>
       </c>
-      <c r="F87" s="199">
+      <c r="F87" s="197">
         <v>365000</v>
       </c>
       <c r="G87" t="s">
@@ -76945,7 +76945,7 @@
       <c r="E88" t="s">
         <v>3818</v>
       </c>
-      <c r="F88" s="200" t="s">
+      <c r="F88" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G88" t="s">
@@ -76959,7 +76959,7 @@
       <c r="E89" t="s">
         <v>3798</v>
       </c>
-      <c r="F89" s="200" t="s">
+      <c r="F89" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G89" t="s">
@@ -76973,7 +76973,7 @@
       <c r="E90" t="s">
         <v>3822</v>
       </c>
-      <c r="F90" s="199">
+      <c r="F90" s="197">
         <v>223000</v>
       </c>
       <c r="G90" t="s">
@@ -76987,7 +76987,7 @@
       <c r="E91" t="s">
         <v>3938</v>
       </c>
-      <c r="F91" s="200" t="s">
+      <c r="F91" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G91" t="s">
@@ -77001,7 +77001,7 @@
       <c r="E92" t="s">
         <v>3939</v>
       </c>
-      <c r="F92" s="199">
+      <c r="F92" s="197">
         <v>224000</v>
       </c>
       <c r="G92" t="s">
@@ -77015,7 +77015,7 @@
       <c r="E93" t="s">
         <v>3602</v>
       </c>
-      <c r="F93" s="200" t="s">
+      <c r="F93" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G93" t="s">
@@ -77029,7 +77029,7 @@
       <c r="E94" t="s">
         <v>3908</v>
       </c>
-      <c r="F94" s="199">
+      <c r="F94" s="197">
         <v>292000</v>
       </c>
       <c r="G94" t="s">
@@ -77043,7 +77043,7 @@
       <c r="E95" t="s">
         <v>3816</v>
       </c>
-      <c r="F95" s="200" t="s">
+      <c r="F95" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G95" t="s">
@@ -77057,7 +77057,7 @@
       <c r="E96" t="s">
         <v>3940</v>
       </c>
-      <c r="F96" s="199">
+      <c r="F96" s="197">
         <v>325000</v>
       </c>
       <c r="G96" t="s">
@@ -77071,7 +77071,7 @@
       <c r="E97" t="s">
         <v>3822</v>
       </c>
-      <c r="F97" s="199">
+      <c r="F97" s="197">
         <v>223000</v>
       </c>
       <c r="G97" t="s">
@@ -77085,7 +77085,7 @@
       <c r="E98" t="s">
         <v>3914</v>
       </c>
-      <c r="F98" s="199">
+      <c r="F98" s="197">
         <v>361000</v>
       </c>
       <c r="G98" t="s">
@@ -77099,7 +77099,7 @@
       <c r="E99" t="s">
         <v>3941</v>
       </c>
-      <c r="F99" s="199">
+      <c r="F99" s="197">
         <v>286000</v>
       </c>
       <c r="G99" t="s">
@@ -77113,7 +77113,7 @@
       <c r="E100" t="s">
         <v>3942</v>
       </c>
-      <c r="F100" s="199">
+      <c r="F100" s="197">
         <v>434000</v>
       </c>
       <c r="G100" t="s">
@@ -77127,7 +77127,7 @@
       <c r="E101" t="s">
         <v>3934</v>
       </c>
-      <c r="F101" s="199">
+      <c r="F101" s="197">
         <v>308000</v>
       </c>
       <c r="G101" t="s">
@@ -77141,7 +77141,7 @@
       <c r="E102" t="s">
         <v>3943</v>
       </c>
-      <c r="F102" s="200" t="s">
+      <c r="F102" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G102" t="s">
@@ -77155,7 +77155,7 @@
       <c r="E103" t="s">
         <v>3829</v>
       </c>
-      <c r="F103" s="200" t="s">
+      <c r="F103" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G103" t="s">
@@ -77169,7 +77169,7 @@
       <c r="E104" t="s">
         <v>3875</v>
       </c>
-      <c r="F104" s="200" t="s">
+      <c r="F104" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G104" t="s">
@@ -77183,7 +77183,7 @@
       <c r="E105" t="s">
         <v>3879</v>
       </c>
-      <c r="F105" s="200" t="s">
+      <c r="F105" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G105" t="s">
@@ -77197,7 +77197,7 @@
       <c r="E106" t="s">
         <v>3781</v>
       </c>
-      <c r="F106" s="200" t="s">
+      <c r="F106" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G106" t="s">
@@ -77211,7 +77211,7 @@
       <c r="E107" t="s">
         <v>3944</v>
       </c>
-      <c r="F107" s="200" t="s">
+      <c r="F107" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G107" t="s">
@@ -77225,7 +77225,7 @@
       <c r="E108" t="s">
         <v>3783</v>
       </c>
-      <c r="F108" s="200" t="s">
+      <c r="F108" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G108" t="s">
@@ -77239,7 +77239,7 @@
       <c r="E109" t="s">
         <v>3946</v>
       </c>
-      <c r="F109" s="200" t="s">
+      <c r="F109" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G109" t="s">
@@ -77253,7 +77253,7 @@
       <c r="E110" t="s">
         <v>3877</v>
       </c>
-      <c r="F110" s="200" t="s">
+      <c r="F110" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G110" t="s">
@@ -77267,7 +77267,7 @@
       <c r="E111" t="s">
         <v>3745</v>
       </c>
-      <c r="F111" s="200" t="s">
+      <c r="F111" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G111" t="s">
@@ -77281,7 +77281,7 @@
       <c r="E112" t="s">
         <v>3757</v>
       </c>
-      <c r="F112" s="200" t="s">
+      <c r="F112" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G112" t="s">
@@ -77295,7 +77295,7 @@
       <c r="E113" t="s">
         <v>3879</v>
       </c>
-      <c r="F113" s="200" t="s">
+      <c r="F113" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G113" t="s">
@@ -77309,7 +77309,7 @@
       <c r="E114" t="s">
         <v>3947</v>
       </c>
-      <c r="F114" s="200" t="s">
+      <c r="F114" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G114" t="s">
@@ -77323,7 +77323,7 @@
       <c r="E115" t="s">
         <v>3749</v>
       </c>
-      <c r="F115" s="200" t="s">
+      <c r="F115" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G115" t="s">
@@ -77337,7 +77337,7 @@
       <c r="E116" t="s">
         <v>3749</v>
       </c>
-      <c r="F116" s="200" t="s">
+      <c r="F116" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G116" t="s">
@@ -77351,7 +77351,7 @@
       <c r="E117" t="s">
         <v>3749</v>
       </c>
-      <c r="F117" s="200" t="s">
+      <c r="F117" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G117" t="s">
@@ -77365,7 +77365,7 @@
       <c r="E118" t="s">
         <v>3948</v>
       </c>
-      <c r="F118" s="199">
+      <c r="F118" s="197">
         <v>403000</v>
       </c>
       <c r="G118" t="s">
@@ -77379,7 +77379,7 @@
       <c r="E119" t="s">
         <v>3857</v>
       </c>
-      <c r="F119" s="200" t="s">
+      <c r="F119" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G119" t="s">
@@ -77393,7 +77393,7 @@
       <c r="E120" t="s">
         <v>3794</v>
       </c>
-      <c r="F120" s="200" t="s">
+      <c r="F120" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G120" t="s">
@@ -77407,7 +77407,7 @@
       <c r="E121" t="s">
         <v>3853</v>
       </c>
-      <c r="F121" s="200" t="s">
+      <c r="F121" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G121" t="s">
@@ -77421,7 +77421,7 @@
       <c r="E122" t="s">
         <v>3949</v>
       </c>
-      <c r="F122" s="200" t="s">
+      <c r="F122" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G122" t="s">
@@ -77435,7 +77435,7 @@
       <c r="E123" t="s">
         <v>3949</v>
       </c>
-      <c r="F123" s="200" t="s">
+      <c r="F123" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G123" t="s">
@@ -77449,7 +77449,7 @@
       <c r="E124" t="s">
         <v>3949</v>
       </c>
-      <c r="F124" s="200" t="s">
+      <c r="F124" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G124" t="s">
@@ -77463,7 +77463,7 @@
       <c r="E125" t="s">
         <v>3841</v>
       </c>
-      <c r="F125" s="200" t="s">
+      <c r="F125" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G125" t="s">
@@ -77477,7 +77477,7 @@
       <c r="E126" t="s">
         <v>3844</v>
       </c>
-      <c r="F126" s="200" t="s">
+      <c r="F126" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G126" t="s">
@@ -77491,7 +77491,7 @@
       <c r="E127" t="s">
         <v>3844</v>
       </c>
-      <c r="F127" s="200" t="s">
+      <c r="F127" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G127" t="s">
@@ -77505,7 +77505,7 @@
       <c r="E128" t="s">
         <v>3841</v>
       </c>
-      <c r="F128" s="200" t="s">
+      <c r="F128" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G128" t="s">
@@ -77519,7 +77519,7 @@
       <c r="E129" t="s">
         <v>3841</v>
       </c>
-      <c r="F129" s="200" t="s">
+      <c r="F129" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G129" t="s">
@@ -77533,7 +77533,7 @@
       <c r="E130" t="s">
         <v>3841</v>
       </c>
-      <c r="F130" s="200" t="s">
+      <c r="F130" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G130" t="s">
@@ -77547,7 +77547,7 @@
       <c r="E131" t="s">
         <v>3841</v>
       </c>
-      <c r="F131" s="200" t="s">
+      <c r="F131" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G131" t="s">
@@ -77561,7 +77561,7 @@
       <c r="E132" t="s">
         <v>3846</v>
       </c>
-      <c r="F132" s="200" t="s">
+      <c r="F132" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G132" t="s">
@@ -77575,7 +77575,7 @@
       <c r="E133" t="s">
         <v>3950</v>
       </c>
-      <c r="F133" s="200" t="s">
+      <c r="F133" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G133" t="s">
@@ -77589,7 +77589,7 @@
       <c r="E134" t="s">
         <v>3951</v>
       </c>
-      <c r="F134" s="200" t="s">
+      <c r="F134" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G134" t="s">
@@ -77603,7 +77603,7 @@
       <c r="E135" t="s">
         <v>3798</v>
       </c>
-      <c r="F135" s="200" t="s">
+      <c r="F135" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G135" t="s">
@@ -77617,7 +77617,7 @@
       <c r="E136" t="s">
         <v>3853</v>
       </c>
-      <c r="F136" s="200" t="s">
+      <c r="F136" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G136" t="s">
@@ -77631,7 +77631,7 @@
       <c r="E137" t="s">
         <v>3952</v>
       </c>
-      <c r="F137" s="200" t="s">
+      <c r="F137" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G137" t="s">
@@ -77645,7 +77645,7 @@
       <c r="E138" t="s">
         <v>3853</v>
       </c>
-      <c r="F138" s="200" t="s">
+      <c r="F138" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G138" t="s">
@@ -77659,7 +77659,7 @@
       <c r="E139" t="s">
         <v>3853</v>
       </c>
-      <c r="F139" s="200" t="s">
+      <c r="F139" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G139" t="s">
@@ -77673,7 +77673,7 @@
       <c r="E140" t="s">
         <v>3953</v>
       </c>
-      <c r="F140" s="200" t="s">
+      <c r="F140" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G140" t="s">
@@ -77687,7 +77687,7 @@
       <c r="E141" t="s">
         <v>3853</v>
       </c>
-      <c r="F141" s="200" t="s">
+      <c r="F141" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G141" t="s">
@@ -77701,7 +77701,7 @@
       <c r="E142" t="s">
         <v>3747</v>
       </c>
-      <c r="F142" s="200" t="s">
+      <c r="F142" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G142" t="s">
@@ -77715,7 +77715,7 @@
       <c r="E143" t="s">
         <v>3857</v>
       </c>
-      <c r="F143" s="200" t="s">
+      <c r="F143" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G143" t="s">
@@ -77729,7 +77729,7 @@
       <c r="E144" t="s">
         <v>3954</v>
       </c>
-      <c r="F144" s="200" t="s">
+      <c r="F144" s="198" t="s">
         <v>3965</v>
       </c>
       <c r="G144" t="s">

--- a/DB_AGMS.xlsx
+++ b/DB_AGMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrespuertagonzalez/Documents/AGMS_Analitics/Datos/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BF3DD-659F-CB4F-96A2-C079F5E57438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB8E4E-6629-F942-B078-13D637D2A6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Metadatos" sheetId="3" r:id="rId3"/>
     <sheet name="Cartera" sheetId="13" r:id="rId4"/>
     <sheet name="Productos" sheetId="14" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Lista Medicos'!$A$1:$G$1045</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12014" uniqueCount="4099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12893" uniqueCount="4266">
   <si>
     <t>Gestión de Venta</t>
   </si>
@@ -11728,9 +11729,6 @@
     <t>CONDICION</t>
   </si>
   <si>
-    <t>SENSIBLE</t>
-  </si>
-  <si>
     <t>ANTIEDAD</t>
   </si>
   <si>
@@ -11821,9 +11819,6 @@
     <t>$ 230.000</t>
   </si>
   <si>
-    <t>$ 294.000</t>
-  </si>
-  <si>
     <t>$ 161.000</t>
   </si>
   <si>
@@ -11836,9 +11831,6 @@
     <t>$ 246.000</t>
   </si>
   <si>
-    <t>$ 277.000</t>
-  </si>
-  <si>
     <t>$ 242.000</t>
   </si>
   <si>
@@ -11911,9 +11903,6 @@
     <t>$ 10.000</t>
   </si>
   <si>
-    <t>Precio Medico</t>
-  </si>
-  <si>
     <t>Age Defense Treatment</t>
   </si>
   <si>
@@ -11923,57 +11912,30 @@
     <t>No aplica</t>
   </si>
   <si>
-    <t>Precio Paciente</t>
-  </si>
-  <si>
     <t>DD Urban Protec Cream LIGHT</t>
   </si>
   <si>
-    <t>DD Urban Protec Cream DARK</t>
-  </si>
-  <si>
     <t>Deep Cleanser 3 en 1 - 150 ml</t>
   </si>
   <si>
-    <t>Deep Cleanser 3 en 1- 500 ml</t>
-  </si>
-  <si>
     <t>Detox Cleanser Purifying Action B-HA 150ML</t>
   </si>
   <si>
     <t xml:space="preserve"> No aplica </t>
   </si>
   <si>
-    <t>Eye Contour Anti wrinkle GRIS 15 ml</t>
-  </si>
-  <si>
     <t>Eye Contour CIRCLE BLANCA 15 ml</t>
   </si>
   <si>
     <t>Eye Perfection Treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">GOLD MASK X10 </t>
-  </si>
-  <si>
-    <t>GOJI TREATMENT</t>
-  </si>
-  <si>
     <t>GREEN PURIFYNG MASK X 10</t>
   </si>
   <si>
-    <t>Hydra Lifting Firming Fresh Serum 50 ML</t>
-  </si>
-  <si>
     <t>Lightening Clarifying Concentrated Serum Noche - 1 oz/30ml</t>
   </si>
   <si>
-    <t>Lightening Clarifying Anti-aging Cream SPF50</t>
-  </si>
-  <si>
-    <t>HYDRO NUTRY ANTI-AGING 360 CREAM</t>
-  </si>
-  <si>
     <t>Infinity Treatment</t>
   </si>
   <si>
@@ -12001,24 +11963,12 @@
     <t>RETINOL PROAGE RENEWAL NIGHT CREAM 0.3% PURE</t>
   </si>
   <si>
-    <t>RETINOL PROAGE RENEWAL DAY CREAM SPF 50 ML</t>
-  </si>
-  <si>
-    <t>RETINOL PROAGE TREATMENT 0.30%</t>
-  </si>
-  <si>
     <t>RETINOL PROAGE TREATMENT 0.15%</t>
   </si>
   <si>
     <t>SENSATIONS HYDRO REVITALIZING CREAM 50 ML</t>
   </si>
   <si>
-    <t>Sheet Mask Retinol - V</t>
-  </si>
-  <si>
-    <t>Sheet Mask Vitamina C</t>
-  </si>
-  <si>
     <t>Sheet Mask Hyaluronic</t>
   </si>
   <si>
@@ -12031,45 +11981,21 @@
     <t>Eye Perfection Presotherapy</t>
   </si>
   <si>
-    <t>Three Action Peel Renewal Serum</t>
-  </si>
-  <si>
     <t>PRECLEANSE 473 ML</t>
   </si>
   <si>
-    <t>PreCleanse - 150ML</t>
-  </si>
-  <si>
     <t>Special Cleansing Gel - 500 ML</t>
   </si>
   <si>
-    <t>Special Cleansing Gel - 250 ML</t>
-  </si>
-  <si>
-    <t>Intensive Moisture Cleanser 150 ML</t>
-  </si>
-  <si>
-    <t>Intensive Moisture Cleanser 473 ML</t>
-  </si>
-  <si>
     <t>Multi-Active Toner 250 ML</t>
   </si>
   <si>
-    <t>Multi-Active Toner 473 ML</t>
-  </si>
-  <si>
-    <t>Liquid Peelfoliant 59 ML</t>
-  </si>
-  <si>
     <t>Daily Microfoliant - 75 G</t>
   </si>
   <si>
     <t>Daily MIcrofoliant 170 g</t>
   </si>
   <si>
-    <t>Daily Microfoliant - 13g</t>
-  </si>
-  <si>
     <t>DAILY MILK FOLIANT 6.0 170 ML</t>
   </si>
   <si>
@@ -12082,183 +12008,42 @@
     <t>Daily Superfoliant-57G</t>
   </si>
   <si>
-    <t>Daily Superfoliant-13g</t>
-  </si>
-  <si>
-    <t>Hydro Masque Exfoliant - 50ML</t>
-  </si>
-  <si>
-    <t>Intensive Moisture Balance 100ML</t>
-  </si>
-  <si>
-    <t>Skin Smoothing Cream New - 177ML</t>
-  </si>
-  <si>
-    <t>Skin Smoothing Cream New - 100ML</t>
-  </si>
-  <si>
-    <t>Active Moist - 177ML</t>
-  </si>
-  <si>
     <t>Active Moist - 100 ML</t>
   </si>
   <si>
-    <t>Stress Positive Eye Lift-25ML</t>
-  </si>
-  <si>
-    <t>Sound Sleep Cocoon - 50ml</t>
-  </si>
-  <si>
     <t>HYALURONIC CERAMIDE MIST 150 ML</t>
   </si>
   <si>
-    <t>Invisible Physical Defense spf 30 - 50ML</t>
-  </si>
-  <si>
-    <t>Invisible Physical Defense spf 30 - 177ML</t>
-  </si>
-  <si>
     <t>Skin Resurfacing Cleanser 150 ML</t>
   </si>
   <si>
-    <t>Skin Resurfacing Cleanser 473 ML</t>
-  </si>
-  <si>
     <t>Antioxidant HydraMist - 150 ML</t>
   </si>
   <si>
-    <t>Antioxidant HydraMist - 355 ML</t>
-  </si>
-  <si>
     <t>Antioxidante Hydramist pq</t>
   </si>
   <si>
-    <t>Dynamic Skin Recovery SPF50 - 50 ML</t>
-  </si>
-  <si>
-    <t>Dynamic Skin Recovery SPF50 - 120 ML</t>
-  </si>
-  <si>
-    <t>DYNAMIC SKIN RETINOL SERUM</t>
-  </si>
-  <si>
-    <t>MultiVitamin Power Recovery Masque - 177ML</t>
-  </si>
-  <si>
-    <t>MultiVitamin Power Recovery Masque - 75ML</t>
-  </si>
-  <si>
-    <t>MultiVitamin Power Serum 22ML</t>
-  </si>
-  <si>
-    <t>Multivitamin Power Firm - 74ML</t>
-  </si>
-  <si>
-    <t>Multivitamin Power Firm - 15ML</t>
-  </si>
-  <si>
     <t>Skin Perfect Primer - 22 ML</t>
   </si>
   <si>
-    <t>Skin perfect primer - 50ML</t>
-  </si>
-  <si>
-    <t>Super Rich Repair - 118ML</t>
-  </si>
-  <si>
-    <t>Biolumin-C PRO Serum - 59ML</t>
-  </si>
-  <si>
-    <t>Biolumin-C Serum - 30ML</t>
-  </si>
-  <si>
-    <t>Biolumin-C Serum - 59ML</t>
-  </si>
-  <si>
-    <t>Biolumin-C Eye Serum 15ML</t>
-  </si>
-  <si>
-    <t>Biolumin-C Gel Moisturizer - 50ML</t>
-  </si>
-  <si>
-    <t>Biolumin-C Gel Moisturizer - 177ML</t>
-  </si>
-  <si>
-    <t>Ultracalming Cleanser 500 ML</t>
-  </si>
-  <si>
     <t>UltraCalming Cleanser - 250 ML</t>
   </si>
   <si>
-    <t>Redness Relief Essence 355ML</t>
-  </si>
-  <si>
-    <t>Redness Relief Essence 150ML</t>
-  </si>
-  <si>
-    <t>Calm Water Gel - 177ML</t>
-  </si>
-  <si>
-    <t>Calm Water Gel - 50ML</t>
-  </si>
-  <si>
-    <t>Stabilizing Repair cream - 177ML</t>
-  </si>
-  <si>
-    <t>Stabilizing Repair cream - 50ML</t>
-  </si>
-  <si>
     <t>Clearing Skin Wash - 250 ML</t>
   </si>
   <si>
-    <t>Clearing Skin Wash - 500 ML</t>
-  </si>
-  <si>
-    <t>Sebum Clearing Masque - 75ML</t>
-  </si>
-  <si>
-    <t>CLEARING OIL RETINOL - 30ML</t>
-  </si>
-  <si>
     <t>Oil Free Matte SPF30 - 50 ML</t>
   </si>
   <si>
-    <t>Barrier Repair 118ML</t>
-  </si>
-  <si>
     <t>Conductive Masque-177ml</t>
   </si>
   <si>
-    <t>Light Energy Masque</t>
-  </si>
-  <si>
     <t>Massage Cream 6 oz - 177ML</t>
   </si>
   <si>
-    <t>Multi Active Scaling 237 ML</t>
-  </si>
-  <si>
-    <t>Neck Fit Refining Masque - 100ML</t>
-  </si>
-  <si>
-    <t>Post Extraction Solution 237 ML</t>
-  </si>
-  <si>
-    <t>PURIFYNG MASQ EXFOLIANTE 177 ML</t>
-  </si>
-  <si>
-    <t>Pro Power Eye Peel - 26 Trat 52 patches</t>
-  </si>
-  <si>
     <t>Melanopro peeling System</t>
   </si>
   <si>
-    <t>Massage Cream 177ML</t>
-  </si>
-  <si>
-    <t>NCTF</t>
-  </si>
-  <si>
     <t>BASIC ENZYME COLLAGENASE</t>
   </si>
   <si>
@@ -12268,79 +12053,796 @@
     <t>BASIC ENZYME LIPASE</t>
   </si>
   <si>
-    <t>CREMA LIGHTENING 50ml</t>
-  </si>
-  <si>
-    <t>Discovery Set</t>
-  </si>
-  <si>
     <t>FACE HAIR RESOR XTRA Pelo / 5 Viales de 5 ml</t>
   </si>
   <si>
-    <t>LIPOTROFIN Serum Intensive 20 amp</t>
-  </si>
-  <si>
-    <t>METABOLITES - Serum Intensive 20 amp</t>
-  </si>
-  <si>
-    <t>MUSCLEBIG Serum Intensive 20 amp</t>
-  </si>
-  <si>
     <t>PEELING ARGILAC MASK 60 ML</t>
   </si>
   <si>
-    <t xml:space="preserve">PEELING AZELAICO. 60 ML </t>
-  </si>
-  <si>
     <t>PEELING FERULICO. 60 ML</t>
   </si>
   <si>
     <t>PEELING GLICOLICO</t>
   </si>
   <si>
-    <t>PEELING LIGHTENING 60 ML</t>
-  </si>
-  <si>
     <t>PEELING MANDELICO. 60 ML</t>
   </si>
   <si>
     <t>SILICIO ORG. 20 amp. 2 c.c. Regenerador</t>
   </si>
   <si>
-    <t>SIMIL CARE Crema Post tratamiento 300 ML</t>
-  </si>
-  <si>
-    <t>SIMIL CARE Crema Post tratamiento 50 ML</t>
-  </si>
-  <si>
     <t>SKIN REPAIR SERUM</t>
   </si>
   <si>
     <t>SUERO LIGHTENING 30 ML</t>
   </si>
   <si>
-    <t>XTRA FACE ANTIAGING / 5 Viales de 5 ml</t>
-  </si>
-  <si>
-    <t>XTRA FACELIFT 3 Viales (5 ml ) Tercio superior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XTRA LIGTHENING PLUS / 5 Viales de 5 ml </t>
-  </si>
-  <si>
     <t>XTRA LIGTHENING PLUS / 1 vial 5ml</t>
   </si>
   <si>
     <t>XTRA SKIN FIRMING/ 5 viales 5ml</t>
   </si>
   <si>
-    <t>XTRA SKIN REPAIR / 5 Viales de 5 ml</t>
-  </si>
-  <si>
-    <t>VAPOR OZONO PORTATIL (F-100C)</t>
-  </si>
-  <si>
-    <t>PROFESIONAL o RETAIL</t>
+    <t>Código producto</t>
+  </si>
+  <si>
+    <t>Nombre producto</t>
+  </si>
+  <si>
+    <t>Referencia de fábrica</t>
+  </si>
+  <si>
+    <t>Saldo cantidades</t>
+  </si>
+  <si>
+    <t>0010002000002</t>
+  </si>
+  <si>
+    <t>MELAN 130+ PIGMENT CONTROL</t>
+  </si>
+  <si>
+    <t>06071</t>
+  </si>
+  <si>
+    <t>SIMILDIET</t>
+  </si>
+  <si>
+    <t>06072</t>
+  </si>
+  <si>
+    <t>PEELING AZELAICO. 60 ML</t>
+  </si>
+  <si>
+    <t>06075</t>
+  </si>
+  <si>
+    <t>06078</t>
+  </si>
+  <si>
+    <t>PEELING LIGHTENING 60ml</t>
+  </si>
+  <si>
+    <t>08017</t>
+  </si>
+  <si>
+    <t>METABOLITES -  Serum Intensive 20 amp.</t>
+  </si>
+  <si>
+    <t>08018</t>
+  </si>
+  <si>
+    <t>LIPOTROFIN   Serum Intensive 20 amp.</t>
+  </si>
+  <si>
+    <t>08019</t>
+  </si>
+  <si>
+    <t>MUSCLEBIG  Serum Intensive 20 amp.</t>
+  </si>
+  <si>
+    <t>101104-11</t>
+  </si>
+  <si>
+    <t>Special Cleansing Gel - 250ml</t>
+  </si>
+  <si>
+    <t>DERMALOGICA</t>
+  </si>
+  <si>
+    <t>101106-12</t>
+  </si>
+  <si>
+    <t>101511</t>
+  </si>
+  <si>
+    <t>102021</t>
+  </si>
+  <si>
+    <t>102022-10</t>
+  </si>
+  <si>
+    <t>110541-11</t>
+  </si>
+  <si>
+    <t>110542</t>
+  </si>
+  <si>
+    <t>Ultracalming Cleanser  500 ML</t>
+  </si>
+  <si>
+    <t>110616</t>
+  </si>
+  <si>
+    <t>110641</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>111051-12</t>
+  </si>
+  <si>
+    <t>PreCleanse - 150ml</t>
+  </si>
+  <si>
+    <t>111059-10</t>
+  </si>
+  <si>
+    <t>111248</t>
+  </si>
+  <si>
+    <t>Daily Microfoliant -13g</t>
+  </si>
+  <si>
+    <t>111249-10</t>
+  </si>
+  <si>
+    <t>111252</t>
+  </si>
+  <si>
+    <t>111257-1B-10</t>
+  </si>
+  <si>
+    <t>Stress Positive Eye Lift-25ml</t>
+  </si>
+  <si>
+    <t>111268-10</t>
+  </si>
+  <si>
+    <t>Calm Water Gel 1.7 oz-50ml</t>
+  </si>
+  <si>
+    <t>111279-1A-10</t>
+  </si>
+  <si>
+    <t>Sound Sleep Cocoon 1.7 oz/50ml</t>
+  </si>
+  <si>
+    <t>111326-10</t>
+  </si>
+  <si>
+    <t>Intensive Moisture Cleanser  150 ML</t>
+  </si>
+  <si>
+    <t>111341</t>
+  </si>
+  <si>
+    <t>Biolumin-C Serum - 1.0oz/30ml</t>
+  </si>
+  <si>
+    <t>111344-11</t>
+  </si>
+  <si>
+    <t>111346-10</t>
+  </si>
+  <si>
+    <t>111348-10</t>
+  </si>
+  <si>
+    <t>Clearing skin wash 16,9/500ML</t>
+  </si>
+  <si>
+    <t>111353-00</t>
+  </si>
+  <si>
+    <t>Sebum Clearing Masque - 75 ML</t>
+  </si>
+  <si>
+    <t>111412INT</t>
+  </si>
+  <si>
+    <t>Invisible Physical Defense spf 30</t>
+  </si>
+  <si>
+    <t>111418-10</t>
+  </si>
+  <si>
+    <t>Hydro Masque Exfoliant -1,7oz/50ml</t>
+  </si>
+  <si>
+    <t>111452-10</t>
+  </si>
+  <si>
+    <t>111453</t>
+  </si>
+  <si>
+    <t>111461</t>
+  </si>
+  <si>
+    <t>LIQUID PEELFOLIANT 59 ML</t>
+  </si>
+  <si>
+    <t>111467</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>13024</t>
+  </si>
+  <si>
+    <t>13026</t>
+  </si>
+  <si>
+    <t>13028</t>
+  </si>
+  <si>
+    <t>15002</t>
+  </si>
+  <si>
+    <t>XTRA FACE ANTIAGING  / 5 Viales de 5 ml</t>
+  </si>
+  <si>
+    <t>15004</t>
+  </si>
+  <si>
+    <t>15006</t>
+  </si>
+  <si>
+    <t>XTRA FACELIFT  3 Viales (5 ml ) Tercio superior</t>
+  </si>
+  <si>
+    <t>15012</t>
+  </si>
+  <si>
+    <t>15021</t>
+  </si>
+  <si>
+    <t>15036</t>
+  </si>
+  <si>
+    <t>XTRA LIGTHENING PLUS / 5 Viales de 5 ml</t>
+  </si>
+  <si>
+    <t>15040</t>
+  </si>
+  <si>
+    <t>15041</t>
+  </si>
+  <si>
+    <t>CREMA LIGHTENING . 50ml</t>
+  </si>
+  <si>
+    <t>201511-8-04</t>
+  </si>
+  <si>
+    <t>Skin Resurfacing Cleanser - 16 oz/473ML</t>
+  </si>
+  <si>
+    <t>202021-04</t>
+  </si>
+  <si>
+    <t>Antioxidant HydraMist - 12 oz/355ML</t>
+  </si>
+  <si>
+    <t>210640-10</t>
+  </si>
+  <si>
+    <t>Skin perfect primer - 1,7 oz - 50ML</t>
+  </si>
+  <si>
+    <t>211005-10</t>
+  </si>
+  <si>
+    <t>Dynamic Skin Recovery SPF50 - 4 oz/120ML</t>
+  </si>
+  <si>
+    <t>211051</t>
+  </si>
+  <si>
+    <t>211062-02</t>
+  </si>
+  <si>
+    <t>Multivitamin Power Firm - 2,5 oz/74ML</t>
+  </si>
+  <si>
+    <t>211063-03</t>
+  </si>
+  <si>
+    <t>Super Rich Repair - 4 oz/118ML</t>
+  </si>
+  <si>
+    <t>211243-01</t>
+  </si>
+  <si>
+    <t>Post Extraction Solution 237ml</t>
+  </si>
+  <si>
+    <t>211249-10</t>
+  </si>
+  <si>
+    <t>211268-10</t>
+  </si>
+  <si>
+    <t>Calm Water Gel - 6 oz -177ML</t>
+  </si>
+  <si>
+    <t>211282-02</t>
+  </si>
+  <si>
+    <t>Multi Active Scaling 237ml</t>
+  </si>
+  <si>
+    <t>211318-00</t>
+  </si>
+  <si>
+    <t>211319-10</t>
+  </si>
+  <si>
+    <t>211323-10</t>
+  </si>
+  <si>
+    <t>Skin Smoothing Cream New - 6 oz/177ML</t>
+  </si>
+  <si>
+    <t>211326-01</t>
+  </si>
+  <si>
+    <t>Intensive Moisture Cleanser (Pro) - 16oz/473ml</t>
+  </si>
+  <si>
+    <t>211330-00</t>
+  </si>
+  <si>
+    <t>NEW Prisma Protect SPF30 - 6.0 oz/177ML</t>
+  </si>
+  <si>
+    <t>211396-11</t>
+  </si>
+  <si>
+    <t>PURIFYNG MASQ EXFOLIANTE 177ml</t>
+  </si>
+  <si>
+    <t>211412-10</t>
+  </si>
+  <si>
+    <t>Invisible Physical Defense spf 30 -177ml</t>
+  </si>
+  <si>
+    <t>211416-11</t>
+  </si>
+  <si>
+    <t>Biolumin-C PRO Serum - 1.0 oz 2,0 oz</t>
+  </si>
+  <si>
+    <t>211423-10</t>
+  </si>
+  <si>
+    <t>Neck Fit Refining Masque 3,4 oz/100ML</t>
+  </si>
+  <si>
+    <t>211441-11</t>
+  </si>
+  <si>
+    <t>Biolumin-C Gel Moisturizer- 6oz/177ML</t>
+  </si>
+  <si>
+    <t>211453</t>
+  </si>
+  <si>
+    <t>211454-11</t>
+  </si>
+  <si>
+    <t>Pro Restore - 0,1 oz/3ml 12Pk</t>
+  </si>
+  <si>
+    <t>211462-10</t>
+  </si>
+  <si>
+    <t>Light Energy Masque 118ml</t>
+  </si>
+  <si>
+    <t>211596-10</t>
+  </si>
+  <si>
+    <t>Active moist - 177ML</t>
+  </si>
+  <si>
+    <t>300926</t>
+  </si>
+  <si>
+    <t>Daily Cleanser Trio</t>
+  </si>
+  <si>
+    <t>411453-10</t>
+  </si>
+  <si>
+    <t>6088</t>
+  </si>
+  <si>
+    <t>90009</t>
+  </si>
+  <si>
+    <t>SIMIL CARE Crema Post tratamiento 50ml</t>
+  </si>
+  <si>
+    <t>9004</t>
+  </si>
+  <si>
+    <t>SIMIL CARE Crema Post tratamiento 300ml</t>
+  </si>
+  <si>
+    <t>A00100</t>
+  </si>
+  <si>
+    <t>CASMARA</t>
+  </si>
+  <si>
+    <t>A00112</t>
+  </si>
+  <si>
+    <t>Shine Stop Antiaging Sebo-Regulating Cream - 1,7oz/50ml</t>
+  </si>
+  <si>
+    <t>A01002R</t>
+  </si>
+  <si>
+    <t>A01104</t>
+  </si>
+  <si>
+    <t>A06140</t>
+  </si>
+  <si>
+    <t>A06146</t>
+  </si>
+  <si>
+    <t>A06151</t>
+  </si>
+  <si>
+    <t>GOLD MASK X10</t>
+  </si>
+  <si>
+    <t>A07000</t>
+  </si>
+  <si>
+    <t>A07002</t>
+  </si>
+  <si>
+    <t>A07003</t>
+  </si>
+  <si>
+    <t>A07100</t>
+  </si>
+  <si>
+    <t>RETINOL PROAGE TRAEATMENT 0.30%</t>
+  </si>
+  <si>
+    <t>A09001</t>
+  </si>
+  <si>
+    <t>DD Urban Protect Cream LIGHT -50ML</t>
+  </si>
+  <si>
+    <t>A10000N</t>
+  </si>
+  <si>
+    <t>A11003</t>
+  </si>
+  <si>
+    <t>Hydra Lifting Firming Fresh Serum  50 ML</t>
+  </si>
+  <si>
+    <t>A13000</t>
+  </si>
+  <si>
+    <t>A13101</t>
+  </si>
+  <si>
+    <t>A18001</t>
+  </si>
+  <si>
+    <t>GOLDEN AGE INTENSE CREAM 50ML</t>
+  </si>
+  <si>
+    <t>A18002</t>
+  </si>
+  <si>
+    <t>GOLDEN AGE INTENSE SERUM 50ML</t>
+  </si>
+  <si>
+    <t>A18006</t>
+  </si>
+  <si>
+    <t>Golden Age Intente Ampoule 10UND X 4ML</t>
+  </si>
+  <si>
+    <t>A21000</t>
+  </si>
+  <si>
+    <t>A31000</t>
+  </si>
+  <si>
+    <t>A31002</t>
+  </si>
+  <si>
+    <t>A32001</t>
+  </si>
+  <si>
+    <t>Lightening Clarifyng antiaging Cream S.P.F. 50 - 1,7oz/50mlDIA</t>
+  </si>
+  <si>
+    <t>Camara</t>
+  </si>
+  <si>
+    <t>A50000</t>
+  </si>
+  <si>
+    <t>A50006R</t>
+  </si>
+  <si>
+    <t>A51006R</t>
+  </si>
+  <si>
+    <t>EYE CONTOUR GEL BLANCA - 15ML</t>
+  </si>
+  <si>
+    <t>A60000</t>
+  </si>
+  <si>
+    <t>A61001</t>
+  </si>
+  <si>
+    <t>Hydro Nutry Anti-aging 360 cream 1,7oz/50ml</t>
+  </si>
+  <si>
+    <t>A75001</t>
+  </si>
+  <si>
+    <t>Sheet Mask Vitamina C - CajaX10</t>
+  </si>
+  <si>
+    <t>A75002</t>
+  </si>
+  <si>
+    <t>Sheet Mask Retinol - V - CajaX10</t>
+  </si>
+  <si>
+    <t>A75003</t>
+  </si>
+  <si>
+    <t>A81000</t>
+  </si>
+  <si>
+    <t>A81003</t>
+  </si>
+  <si>
+    <t>A90007V</t>
+  </si>
+  <si>
+    <t>Oxigenating Mask - 1.7/50ml</t>
+  </si>
+  <si>
+    <t>A91005</t>
+  </si>
+  <si>
+    <t>Three Action Peel Renewal Serum - 150ML</t>
+  </si>
+  <si>
+    <t>A95000</t>
+  </si>
+  <si>
+    <t>AA0010</t>
+  </si>
+  <si>
+    <t>AG_A75002</t>
+  </si>
+  <si>
+    <t>Sheet Mask Retinol - V - UNIDAD</t>
+  </si>
+  <si>
+    <t>AGMS_AgujasHydra_002</t>
+  </si>
+  <si>
+    <t>AgujasHydraPen</t>
+  </si>
+  <si>
+    <t>AGMS_Hydra_001</t>
+  </si>
+  <si>
+    <t>HydraPen-2Agujas</t>
+  </si>
+  <si>
+    <t>AGMS15036</t>
+  </si>
+  <si>
+    <t>AL180</t>
+  </si>
+  <si>
+    <t>GOLDEN AGE LIMITED EDITION KIT</t>
+  </si>
+  <si>
+    <t>CXS10</t>
+  </si>
+  <si>
+    <t>CAJA SURTIDA MASK X10</t>
+  </si>
+  <si>
+    <t>EX01001</t>
+  </si>
+  <si>
+    <t>EXOS ANTIAGING 6 viales</t>
+  </si>
+  <si>
+    <t>Simildiet</t>
+  </si>
+  <si>
+    <t>MATERIAL001</t>
+  </si>
+  <si>
+    <t>MATERIALES KIT SISTEMAS</t>
+  </si>
+  <si>
+    <t>PROFESIONA o RETAIL</t>
+  </si>
+  <si>
+    <t>PRECIO PRO</t>
+  </si>
+  <si>
+    <t>PRECIO RETAIL</t>
+  </si>
+  <si>
+    <t>PIEL SENSIBLE</t>
+  </si>
+  <si>
+    <t>$ 120.000</t>
+  </si>
+  <si>
+    <t>$ 199.000</t>
+  </si>
+  <si>
+    <t>$ 124.000</t>
+  </si>
+  <si>
+    <t>Detox Cleanser Purifying Action B-HA 150ML - $113.000 / $172.000</t>
+  </si>
+  <si>
+    <t>Eye Contour Anti wrinkle GRIS 15 ml - $134.000</t>
+  </si>
+  <si>
+    <t>$ 206.000</t>
+  </si>
+  <si>
+    <t>$ 340.000</t>
+  </si>
+  <si>
+    <t>$ 365.000</t>
+  </si>
+  <si>
+    <t>REGENERIN INHIBITOR CONTRACTURE TREATMENT - $262.000 - $392.000</t>
+  </si>
+  <si>
+    <t>$ 271.000</t>
+  </si>
+  <si>
+    <t>RETINOL PROAGE RENEWAL DAY CREAM SPF 50 ML - $197.000 - $303.000</t>
+  </si>
+  <si>
+    <t>$ 303.000</t>
+  </si>
+  <si>
+    <t>Hydra Lifting Firming Fresh Serum 50 ML - $190.000 / $290.000</t>
+  </si>
+  <si>
+    <t>$ 278.000</t>
+  </si>
+  <si>
+    <t>$ 259.000</t>
+  </si>
+  <si>
+    <t>Intensive Moisture Cleanser 150 ML - $145.000 - $223.000</t>
+  </si>
+  <si>
+    <t>Intensive Moisture Cleanser 473 ML - $257.000</t>
+  </si>
+  <si>
+    <t>Daily Superfoliant-13g - $75.000 - $107.000</t>
+  </si>
+  <si>
+    <t>$ 46.000</t>
+  </si>
+  <si>
+    <t>Ultracalming Cleanser 500 ML - $235.000</t>
+  </si>
+  <si>
+    <t>LIPOTROFIN Serum Intensive 20 amp. - $264000</t>
+  </si>
+  <si>
+    <t>METABOLITES - Serum Intensive 20 amp. - $264000</t>
+  </si>
+  <si>
+    <t>MUSCLEBIG Serum Intensive 20 amp. - $264.000</t>
+  </si>
+  <si>
+    <t>CAPILAR</t>
+  </si>
+  <si>
+    <t>XTRA FACE ANTIAGING / 5 Viales de 5 ml - $701.000</t>
+  </si>
+  <si>
+    <t>XTRA FACELIFT 3 Viales (5 ml ) Tercio superior - $433.000</t>
+  </si>
+  <si>
+    <t>XTRA facelift SERUM / 30ML $320.000 - $230.000</t>
+  </si>
+  <si>
+    <t>FACE ANTIAGING XTRA CREAM / 50ML - $338.000 - $229.000</t>
+  </si>
+  <si>
+    <t>SKIN REPAIR SERUM / 30ML - $365.000 - $219.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  No aplica  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   No aplica   </t>
+  </si>
+  <si>
+    <t>AGMS427</t>
+  </si>
+  <si>
+    <t>$ 70.000,00</t>
+  </si>
+  <si>
+    <t>$ 420.000</t>
+  </si>
+  <si>
+    <t>AGMS428</t>
+  </si>
+  <si>
+    <t>ANAY AESTHETIC CLINIC SAS</t>
+  </si>
+  <si>
+    <t>AGMS429</t>
+  </si>
+  <si>
+    <t>AGMS430</t>
+  </si>
+  <si>
+    <t>$ 1.182.000</t>
+  </si>
+  <si>
+    <t>$ 2.790.000</t>
+  </si>
+  <si>
+    <t>9:48AM</t>
+  </si>
+  <si>
+    <t>AGMS431</t>
+  </si>
+  <si>
+    <t>$ 150.000,00</t>
+  </si>
+  <si>
+    <t>$ 300.000</t>
+  </si>
+  <si>
+    <t>AGMS432</t>
+  </si>
+  <si>
+    <t>AGMS433</t>
+  </si>
+  <si>
+    <t>Factura</t>
   </si>
 </sst>
 </file>
@@ -12678,7 +13180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -12898,6 +13400,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -12905,7 +13422,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -13391,8 +13908,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13406,7 +13936,27 @@
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -13786,12 +14336,12 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J1370"/>
+  <dimension ref="A1:J1359"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="151" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1200" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A1244" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="D1239" sqref="D1239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="40" customHeight="1"/>
@@ -13809,17 +14359,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
     </row>
     <row r="2" spans="1:9" ht="49" customHeight="1">
       <c r="A2" s="44" t="s">
@@ -50263,231 +50813,711 @@
       </c>
     </row>
     <row r="1227" spans="1:9" ht="40" customHeight="1">
+      <c r="A1227" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1227" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1227" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1227" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1227" s="62" t="s">
+        <v>3805</v>
+      </c>
       <c r="F1227" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1227" s="52">
-        <f t="shared" ref="G1227:G1270" si="47">E1227*F1227</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G1227" s="52" t="s">
+        <v>3825</v>
+      </c>
+      <c r="H1227" s="15" t="s">
+        <v>4250</v>
+      </c>
+      <c r="I1227" s="43" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="1228" spans="1:9" ht="40" customHeight="1">
+      <c r="A1228" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1228" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1228" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1228" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="E1228" s="62" t="s">
+        <v>3803</v>
+      </c>
       <c r="F1228" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1228" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G1228" s="52" t="s">
+        <v>3826</v>
+      </c>
+      <c r="H1228" s="15" t="s">
+        <v>4250</v>
+      </c>
+      <c r="I1228" s="43" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="1229" spans="1:9" ht="40" customHeight="1">
+      <c r="A1229" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1229" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1229" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1229" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1229" s="62" t="s">
+        <v>3807</v>
+      </c>
       <c r="F1229" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1229" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G1229" s="52" t="s">
+        <v>3808</v>
+      </c>
+      <c r="H1229" s="15" t="s">
+        <v>4250</v>
+      </c>
+      <c r="I1229" s="43" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="1230" spans="1:9" ht="40" customHeight="1">
+      <c r="A1230" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1230" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1230" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1230" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1230" s="62" t="s">
+        <v>3801</v>
+      </c>
       <c r="F1230" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1230" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G1230" s="52" t="s">
+        <v>3827</v>
+      </c>
+      <c r="H1230" s="15" t="s">
+        <v>4250</v>
+      </c>
+      <c r="I1230" s="43" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="1231" spans="1:9" ht="40" customHeight="1">
+      <c r="A1231" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1231" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1231" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1231" s="14" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E1231" s="62" t="s">
+        <v>3780</v>
+      </c>
       <c r="F1231" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1231" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G1231" s="52" t="s">
+        <v>3781</v>
+      </c>
+      <c r="H1231" s="15" t="s">
+        <v>4250</v>
+      </c>
+      <c r="I1231" s="43" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="1232" spans="1:9" ht="40" customHeight="1">
+      <c r="A1232" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1232" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1232" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1232" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1232" s="62" t="s">
+        <v>3782</v>
+      </c>
       <c r="F1232" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1232" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1233" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1232" s="52" t="s">
+        <v>3783</v>
+      </c>
+      <c r="H1232" s="15" t="s">
+        <v>4250</v>
+      </c>
+      <c r="I1232" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:9" ht="40" customHeight="1">
+      <c r="A1233" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1233" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1233" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1233" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1233" s="62" t="s">
+        <v>3828</v>
+      </c>
       <c r="F1233" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1233" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1234" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1233" s="52" t="s">
+        <v>3829</v>
+      </c>
+      <c r="H1233" s="15" t="s">
+        <v>4250</v>
+      </c>
+      <c r="I1233" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:9" ht="40" customHeight="1">
+      <c r="A1234" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1234" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1234" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1234" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1234" s="62" t="s">
+        <v>3811</v>
+      </c>
       <c r="F1234" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1234" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1235" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1234" s="52" t="s">
+        <v>3812</v>
+      </c>
+      <c r="H1234" s="15" t="s">
+        <v>4250</v>
+      </c>
+      <c r="I1234" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:9" ht="40" customHeight="1">
+      <c r="A1235" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1235" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1235" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1235" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1235" s="62" t="s">
+        <v>3862</v>
+      </c>
       <c r="F1235" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1235" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1236" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1235" s="52" t="s">
+        <v>3863</v>
+      </c>
+      <c r="H1235" s="15" t="s">
+        <v>4250</v>
+      </c>
+      <c r="I1235" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:9" ht="40" customHeight="1">
+      <c r="A1236" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1236" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1236" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1236" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1236" s="62" t="s">
+        <v>3756</v>
+      </c>
       <c r="F1236" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1236" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1237" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1236" s="52" t="s">
+        <v>3757</v>
+      </c>
+      <c r="H1236" s="15" t="s">
+        <v>4250</v>
+      </c>
+      <c r="I1236" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:9" ht="40" customHeight="1">
+      <c r="A1237" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1237" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1237" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1237" s="14" t="s">
+        <v>3870</v>
+      </c>
+      <c r="E1237" s="62" t="s">
+        <v>4251</v>
+      </c>
       <c r="F1237" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1237" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1238" spans="6:7" ht="40" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="G1237" s="52" t="s">
+        <v>4252</v>
+      </c>
+      <c r="H1237" s="15" t="s">
+        <v>4253</v>
+      </c>
+      <c r="I1237" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:9" ht="40" customHeight="1">
+      <c r="A1238" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1238" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1238" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1238" s="14" t="s">
+        <v>3867</v>
+      </c>
+      <c r="E1238" s="62" t="s">
+        <v>4251</v>
+      </c>
       <c r="F1238" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1238" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1239" spans="6:7" ht="40" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="G1238" s="52" t="s">
+        <v>4252</v>
+      </c>
+      <c r="H1238" s="15" t="s">
+        <v>4253</v>
+      </c>
+      <c r="I1238" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:9" ht="40" customHeight="1">
+      <c r="A1239" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1239" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1239" s="14" t="s">
+        <v>4254</v>
+      </c>
+      <c r="D1239" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1239" s="62" t="s">
+        <v>3843</v>
+      </c>
       <c r="F1239" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1239" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1240" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1239" s="52" t="s">
+        <v>3844</v>
+      </c>
+      <c r="H1239" s="15" t="s">
+        <v>4255</v>
+      </c>
+      <c r="I1239" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:9" ht="40" customHeight="1">
+      <c r="A1240" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1240" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1240" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1240" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1240" s="62" t="s">
+        <v>3793</v>
+      </c>
       <c r="F1240" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1240" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1241" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1240" s="52" t="s">
+        <v>3794</v>
+      </c>
+      <c r="H1240" s="15" t="s">
+        <v>4256</v>
+      </c>
+      <c r="I1240" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:9" ht="40" customHeight="1">
+      <c r="A1241" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1241" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1241" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1241" s="14" t="s">
+        <v>3842</v>
+      </c>
+      <c r="E1241" s="62" t="s">
+        <v>3840</v>
+      </c>
       <c r="F1241" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1241" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1242" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1241" s="52" t="s">
+        <v>3841</v>
+      </c>
+      <c r="H1241" s="15" t="s">
+        <v>4256</v>
+      </c>
+      <c r="I1241" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:9" ht="40" customHeight="1">
+      <c r="A1242" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1242" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1242" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1242" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1242" s="62" t="s">
+        <v>3886</v>
+      </c>
       <c r="F1242" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1242" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1243" spans="6:7" ht="40" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="G1242" s="52" t="s">
+        <v>4257</v>
+      </c>
+      <c r="H1242" s="15" t="s">
+        <v>4256</v>
+      </c>
+      <c r="I1242" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:9" ht="40" customHeight="1">
+      <c r="A1243" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1243" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1243" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1243" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1243" s="62" t="s">
+        <v>3765</v>
+      </c>
       <c r="F1243" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1243" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1244" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1243" s="52" t="s">
+        <v>3766</v>
+      </c>
+      <c r="H1243" s="15" t="s">
+        <v>4256</v>
+      </c>
+      <c r="I1243" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:9" ht="40" customHeight="1">
+      <c r="A1244" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1244" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1244" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1244" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1244" s="62" t="s">
+        <v>3758</v>
+      </c>
       <c r="F1244" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1244" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1245" spans="6:7" ht="40" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="G1244" s="52" t="s">
+        <v>4258</v>
+      </c>
+      <c r="H1244" s="15" t="s">
+        <v>4256</v>
+      </c>
+      <c r="I1244" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:9" ht="40" customHeight="1">
+      <c r="A1245" s="43">
+        <v>45901</v>
+      </c>
+      <c r="B1245" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1245" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1245" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1245" s="62" t="s">
+        <v>3765</v>
+      </c>
       <c r="F1245" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1245" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1246" spans="6:7" ht="40" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="G1245" s="52" t="s">
+        <v>3766</v>
+      </c>
+      <c r="H1245" s="15" t="s">
+        <v>4256</v>
+      </c>
+      <c r="I1245" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9" ht="40" customHeight="1">
+      <c r="A1246" s="43">
+        <v>45902</v>
+      </c>
+      <c r="B1246" s="41" t="s">
+        <v>4259</v>
+      </c>
+      <c r="C1246" s="14" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D1246" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1246" s="62" t="s">
+        <v>3799</v>
+      </c>
       <c r="F1246" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1246" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1247" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1246" s="52" t="s">
+        <v>3882</v>
+      </c>
+      <c r="H1246" s="15" t="s">
+        <v>4260</v>
+      </c>
+      <c r="I1246" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9" ht="40" customHeight="1">
+      <c r="A1247" s="43">
+        <v>45902</v>
+      </c>
+      <c r="B1247" s="41" t="s">
+        <v>4259</v>
+      </c>
+      <c r="C1247" s="14" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D1247" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1247" s="62" t="s">
+        <v>4261</v>
+      </c>
       <c r="F1247" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1247" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1248" spans="6:7" ht="40" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="G1247" s="52" t="s">
+        <v>4262</v>
+      </c>
+      <c r="H1247" s="15" t="s">
+        <v>4260</v>
+      </c>
+      <c r="I1247" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9" ht="40" customHeight="1">
+      <c r="A1248" s="43">
+        <v>45902</v>
+      </c>
+      <c r="B1248" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1248" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1248" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1248" s="62" t="s">
+        <v>3762</v>
+      </c>
       <c r="F1248" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1248" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1249" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1248" s="52" t="s">
+        <v>3764</v>
+      </c>
+      <c r="H1248" s="15" t="s">
+        <v>4263</v>
+      </c>
+      <c r="I1248" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9" ht="40" customHeight="1">
+      <c r="A1249" s="43">
+        <v>45902</v>
+      </c>
+      <c r="B1249" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1249" s="14" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D1249" s="14" t="s">
+        <v>3842</v>
+      </c>
+      <c r="E1249" s="62" t="s">
+        <v>3840</v>
+      </c>
       <c r="F1249" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1249" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1250" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1249" s="52" t="s">
+        <v>3841</v>
+      </c>
+      <c r="H1249" s="15" t="s">
+        <v>4264</v>
+      </c>
+      <c r="I1249" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9" ht="40" customHeight="1">
+      <c r="A1250" s="43">
+        <v>45902</v>
+      </c>
+      <c r="B1250" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1250" s="14" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D1250" s="14" t="s">
+        <v>3741</v>
+      </c>
+      <c r="E1250" s="62" t="s">
+        <v>3845</v>
+      </c>
       <c r="F1250" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1250" s="52">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1251" spans="6:7" ht="40" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1250" s="52" t="s">
+        <v>3846</v>
+      </c>
+      <c r="H1250" s="15" t="s">
+        <v>4264</v>
+      </c>
+      <c r="I1250" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:9" ht="40" customHeight="1">
       <c r="F1251" s="14">
         <v>0</v>
       </c>
       <c r="G1251" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="G1251:G1259" si="47">E1251*F1251</f>
         <v>0</v>
       </c>
     </row>
-    <row r="1252" spans="6:7" ht="40" customHeight="1">
+    <row r="1252" spans="1:9" ht="40" customHeight="1">
       <c r="F1252" s="14">
         <v>0</v>
       </c>
@@ -50496,7 +51526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1253" spans="6:7" ht="40" customHeight="1">
+    <row r="1253" spans="1:9" ht="40" customHeight="1">
       <c r="F1253" s="14">
         <v>0</v>
       </c>
@@ -50505,7 +51535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1254" spans="6:7" ht="40" customHeight="1">
+    <row r="1254" spans="1:9" ht="40" customHeight="1">
       <c r="F1254" s="14">
         <v>0</v>
       </c>
@@ -50514,7 +51544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1255" spans="6:7" ht="40" customHeight="1">
+    <row r="1255" spans="1:9" ht="40" customHeight="1">
       <c r="F1255" s="14">
         <v>0</v>
       </c>
@@ -50523,7 +51553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1256" spans="6:7" ht="40" customHeight="1">
+    <row r="1256" spans="1:9" ht="40" customHeight="1">
       <c r="F1256" s="14">
         <v>0</v>
       </c>
@@ -50532,7 +51562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1257" spans="6:7" ht="40" customHeight="1">
+    <row r="1257" spans="1:9" ht="40" customHeight="1">
       <c r="F1257" s="14">
         <v>0</v>
       </c>
@@ -50541,7 +51571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1258" spans="6:7" ht="40" customHeight="1">
+    <row r="1258" spans="1:9" ht="40" customHeight="1">
       <c r="F1258" s="14">
         <v>0</v>
       </c>
@@ -50550,7 +51580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1259" spans="6:7" ht="40" customHeight="1">
+    <row r="1259" spans="1:9" ht="40" customHeight="1">
       <c r="F1259" s="14">
         <v>0</v>
       </c>
@@ -50559,48 +51589,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1260" spans="6:7" ht="40" customHeight="1">
+    <row r="1260" spans="1:9" ht="40" customHeight="1">
       <c r="F1260" s="14">
         <v>0</v>
       </c>
       <c r="G1260" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="G1260:G1277" si="48">E1260*F1260</f>
         <v>0</v>
       </c>
     </row>
-    <row r="1261" spans="6:7" ht="40" customHeight="1">
+    <row r="1261" spans="1:9" ht="40" customHeight="1">
       <c r="F1261" s="14">
         <v>0</v>
       </c>
       <c r="G1261" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1262" spans="6:7" ht="40" customHeight="1">
+    <row r="1262" spans="1:9" ht="40" customHeight="1">
       <c r="F1262" s="14">
         <v>0</v>
       </c>
       <c r="G1262" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1263" spans="6:7" ht="40" customHeight="1">
+    <row r="1263" spans="1:9" ht="40" customHeight="1">
       <c r="F1263" s="14">
         <v>0</v>
       </c>
       <c r="G1263" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1264" spans="6:7" ht="40" customHeight="1">
+    <row r="1264" spans="1:9" ht="40" customHeight="1">
       <c r="F1264" s="14">
         <v>0</v>
       </c>
       <c r="G1264" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -50609,7 +51639,7 @@
         <v>0</v>
       </c>
       <c r="G1265" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -50618,7 +51648,7 @@
         <v>0</v>
       </c>
       <c r="G1266" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -50627,7 +51657,7 @@
         <v>0</v>
       </c>
       <c r="G1267" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -50636,7 +51666,7 @@
         <v>0</v>
       </c>
       <c r="G1268" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -50645,7 +51675,7 @@
         <v>0</v>
       </c>
       <c r="G1269" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -50654,7 +51684,7 @@
         <v>0</v>
       </c>
       <c r="G1270" s="52">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -50663,7 +51693,7 @@
         <v>0</v>
       </c>
       <c r="G1271" s="52">
-        <f t="shared" ref="G1271:G1288" si="48">E1271*F1271</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -50725,137 +51755,93 @@
       <c r="F1278" s="14">
         <v>0</v>
       </c>
-      <c r="G1278" s="52">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="1279" spans="6:7" ht="40" customHeight="1">
       <c r="F1279" s="14">
         <v>0</v>
       </c>
-      <c r="G1279" s="52">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="1280" spans="6:7" ht="40" customHeight="1">
       <c r="F1280" s="14">
         <v>0</v>
       </c>
-      <c r="G1280" s="52">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1281" spans="6:7" ht="40" customHeight="1">
+    </row>
+    <row r="1281" spans="6:6" ht="40" customHeight="1">
       <c r="F1281" s="14">
         <v>0</v>
       </c>
-      <c r="G1281" s="52">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1282" spans="6:7" ht="40" customHeight="1">
+    </row>
+    <row r="1282" spans="6:6" ht="40" customHeight="1">
       <c r="F1282" s="14">
         <v>0</v>
       </c>
-      <c r="G1282" s="52">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1283" spans="6:7" ht="40" customHeight="1">
+    </row>
+    <row r="1283" spans="6:6" ht="40" customHeight="1">
       <c r="F1283" s="14">
         <v>0</v>
       </c>
-      <c r="G1283" s="52">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1284" spans="6:7" ht="40" customHeight="1">
+    </row>
+    <row r="1284" spans="6:6" ht="40" customHeight="1">
       <c r="F1284" s="14">
         <v>0</v>
       </c>
-      <c r="G1284" s="52">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1285" spans="6:7" ht="40" customHeight="1">
+    </row>
+    <row r="1285" spans="6:6" ht="40" customHeight="1">
       <c r="F1285" s="14">
         <v>0</v>
       </c>
-      <c r="G1285" s="52">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1286" spans="6:7" ht="40" customHeight="1">
+    </row>
+    <row r="1286" spans="6:6" ht="40" customHeight="1">
       <c r="F1286" s="14">
         <v>0</v>
       </c>
-      <c r="G1286" s="52">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1287" spans="6:7" ht="40" customHeight="1">
+    </row>
+    <row r="1287" spans="6:6" ht="40" customHeight="1">
       <c r="F1287" s="14">
         <v>0</v>
       </c>
-      <c r="G1287" s="52">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1288" spans="6:7" ht="40" customHeight="1">
+    </row>
+    <row r="1288" spans="6:6" ht="40" customHeight="1">
       <c r="F1288" s="14">
         <v>0</v>
       </c>
-      <c r="G1288" s="52">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1289" spans="6:7" ht="40" customHeight="1">
+    </row>
+    <row r="1289" spans="6:6" ht="40" customHeight="1">
       <c r="F1289" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="1290" spans="6:7" ht="40" customHeight="1">
+    <row r="1290" spans="6:6" ht="40" customHeight="1">
       <c r="F1290" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="1291" spans="6:7" ht="40" customHeight="1">
+    <row r="1291" spans="6:6" ht="40" customHeight="1">
       <c r="F1291" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="1292" spans="6:7" ht="40" customHeight="1">
+    <row r="1292" spans="6:6" ht="40" customHeight="1">
       <c r="F1292" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="1293" spans="6:7" ht="40" customHeight="1">
+    <row r="1293" spans="6:6" ht="40" customHeight="1">
       <c r="F1293" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="1294" spans="6:7" ht="40" customHeight="1">
+    <row r="1294" spans="6:6" ht="40" customHeight="1">
       <c r="F1294" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="1295" spans="6:7" ht="40" customHeight="1">
+    <row r="1295" spans="6:6" ht="40" customHeight="1">
       <c r="F1295" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="1296" spans="6:7" ht="40" customHeight="1">
+    <row r="1296" spans="6:6" ht="40" customHeight="1">
       <c r="F1296" s="14">
         <v>0</v>
       </c>
@@ -51172,61 +52158,6 @@
     </row>
     <row r="1359" spans="6:6" ht="40" customHeight="1">
       <c r="F1359" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1360" spans="6:6" ht="40" customHeight="1">
-      <c r="F1360" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1361" spans="6:6" ht="40" customHeight="1">
-      <c r="F1361" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1362" spans="6:6" ht="40" customHeight="1">
-      <c r="F1362" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1363" spans="6:6" ht="40" customHeight="1">
-      <c r="F1363" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1364" spans="6:6" ht="40" customHeight="1">
-      <c r="F1364" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1365" spans="6:6" ht="40" customHeight="1">
-      <c r="F1365" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1366" spans="6:6" ht="40" customHeight="1">
-      <c r="F1366" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1367" spans="6:6" ht="40" customHeight="1">
-      <c r="F1367" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1368" spans="6:6" ht="40" customHeight="1">
-      <c r="F1368" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1369" spans="6:6" ht="40" customHeight="1">
-      <c r="F1369" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1370" spans="6:6" ht="40" customHeight="1">
-      <c r="F1370" s="14">
         <v>0</v>
       </c>
     </row>
@@ -51259,30 +52190,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I986">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="MONA LINDA">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="MONA LINDA">
       <formula>NOT(ISERROR(SEARCH("MONA LINDA",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="CAMI BELLA">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="CAMI BELLA">
       <formula>NOT(ISERROR(SEARCH("CAMI BELLA",I3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>$C$220</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>$C$219</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I991:I1009">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="MONA LINDA">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="MONA LINDA">
       <formula>NOT(ISERROR(SEARCH("MONA LINDA",I991)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="CAMI BELLA">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="CAMI BELLA">
       <formula>NOT(ISERROR(SEARCH("CAMI BELLA",I991)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>$C$220</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>$C$219</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51301,7 +52232,7 @@
           <x14:formula1>
             <xm:f>'Lista Medicos'!$A$3:$A$11247</xm:f>
           </x14:formula1>
-          <xm:sqref>C239:C797 C800:C2254 C190:C192</xm:sqref>
+          <xm:sqref>C239:C797 C190:C192 C800:C2243</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA2EE757-12AB-488B-A845-E5C186737155}">
           <x14:formula1>
@@ -51313,7 +52244,7 @@
           <x14:formula1>
             <xm:f>Metadatos!$G$2:$G$139</xm:f>
           </x14:formula1>
-          <xm:sqref>D190:D192 D239:D1089 D1140:D2241</xm:sqref>
+          <xm:sqref>D190:D192 D239:D1089 D1140:D2230</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0914C713-0244-41B2-A1D9-985A5A2AC92B}">
           <x14:formula1>
@@ -74652,7 +75583,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -74674,8 +75605,8 @@
       <c r="B1" s="150" t="s">
         <v>3616</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
+      <c r="C1" s="150" t="s">
+        <v>4265</v>
       </c>
       <c r="D1" s="150" t="s">
         <v>3617</v>
@@ -74707,7 +75638,7 @@
         <v>45899</v>
       </c>
       <c r="E2" s="164">
-        <v>45902</v>
+        <v>45537</v>
       </c>
       <c r="F2" s="154"/>
       <c r="G2" s="165">
@@ -74802,11 +75733,11 @@
         <v>45907</v>
       </c>
       <c r="F6" s="154">
-        <v>3939000</v>
+        <v>5239000</v>
       </c>
       <c r="G6" s="165">
         <f t="shared" si="0"/>
-        <v>1300000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="152"/>
     </row>
@@ -74826,10 +75757,12 @@
       <c r="E7" s="172">
         <v>45910</v>
       </c>
-      <c r="F7" s="154"/>
+      <c r="F7" s="154">
+        <v>700000</v>
+      </c>
       <c r="G7" s="165">
         <f t="shared" si="0"/>
-        <v>1002000</v>
+        <v>302000</v>
       </c>
       <c r="H7" s="152"/>
     </row>
@@ -75263,10 +76196,12 @@
       <c r="E26" s="172">
         <v>45929</v>
       </c>
-      <c r="F26" s="154"/>
+      <c r="F26" s="154">
+        <v>503000</v>
+      </c>
       <c r="G26" s="165">
         <f t="shared" si="0"/>
-        <v>503000</v>
+        <v>0</v>
       </c>
       <c r="H26" s="152"/>
     </row>
@@ -75296,17 +76231,17 @@
       <c r="E28" s="53"/>
       <c r="F28" s="173">
         <f>SUM(F2:F26)</f>
-        <v>3939000</v>
+        <v>6442000</v>
       </c>
       <c r="G28" s="173">
         <f>SUM(G2:G26)</f>
-        <v>34677500</v>
+        <v>32174500</v>
       </c>
       <c r="H28" s="39"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$B$28"/>
@@ -75314,7 +76249,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24489032-5760-A24C-9F4A-88C9F332A6DD}</x14:id>
+          <x14:id>{19E410FC-89A3-C440-B706-1DC0AB9C2EB1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$B$28"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F56F21F8-EE44-5248-8CBE-50C715C2D07B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -75328,7 +76277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$B$28"/>
@@ -75336,21 +76285,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E3AE148A-1939-6542-81E8-AB46DEAB0902}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="$B$28"/>
-        <color theme="6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19E410FC-89A3-C440-B706-1DC0AB9C2EB1}</x14:id>
+          <x14:id>{3BC9E102-5DCA-7848-BBE2-26D6B0636931}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -75359,36 +76294,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{24489032-5760-A24C-9F4A-88C9F332A6DD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>$B$28</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E3AE148A-1939-6542-81E8-AB46DEAB0902}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>$B$28</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor theme="0"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G28</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{19E410FC-89A3-C440-B706-1DC0AB9C2EB1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -75404,6 +76309,36 @@
           </x14:cfRule>
           <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F56F21F8-EE44-5248-8CBE-50C715C2D07B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$B$28</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3BC9E102-5DCA-7848-BBE2-26D6B0636931}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$B$28</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor theme="0"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G28</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -75412,10 +76347,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE787CD-2F1F-ED42-8EA4-E89B8397361C}">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -75440,13 +76375,13 @@
         <v>3893</v>
       </c>
       <c r="D1" t="s">
-        <v>4098</v>
+        <v>4215</v>
       </c>
       <c r="E1" t="s">
-        <v>3955</v>
+        <v>4216</v>
       </c>
       <c r="F1" t="s">
-        <v>3959</v>
+        <v>4217</v>
       </c>
       <c r="G1" t="s">
         <v>3537</v>
@@ -75454,22 +76389,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3956</v>
+        <v>3952</v>
       </c>
       <c r="B2" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C2" t="s">
         <v>3894</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3895</v>
       </c>
-      <c r="D2" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="200" t="s">
         <v>3834</v>
       </c>
-      <c r="F2" s="197">
-        <v>392000</v>
+      <c r="F2" s="200" t="s">
+        <v>3933</v>
       </c>
       <c r="G2" t="s">
         <v>3547</v>
@@ -75477,22 +76412,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>3957</v>
+        <v>3953</v>
       </c>
       <c r="B3" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E3" s="200" t="s">
         <v>3897</v>
       </c>
-      <c r="C3" t="s">
-        <v>3895</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3898</v>
-      </c>
-      <c r="F3" s="197">
-        <v>120000</v>
+      <c r="F3" s="200" t="s">
+        <v>4219</v>
       </c>
       <c r="G3" t="s">
         <v>3547</v>
@@ -75500,22 +76435,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>3960</v>
+        <v>3955</v>
       </c>
       <c r="B4" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D4" t="s">
         <v>3899</v>
       </c>
-      <c r="C4" t="s">
-        <v>3895</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E4" s="200" t="s">
         <v>3891</v>
       </c>
-      <c r="F4" s="197">
-        <v>199000</v>
+      <c r="F4" s="200" t="s">
+        <v>4220</v>
       </c>
       <c r="G4" t="s">
         <v>3547</v>
@@ -75523,22 +76458,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>3961</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D5" t="s">
         <v>3899</v>
       </c>
-      <c r="C5" t="s">
-        <v>3895</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E5" s="200" t="s">
         <v>3891</v>
       </c>
-      <c r="F5" s="197">
-        <v>199000</v>
+      <c r="F5" s="200" t="s">
+        <v>4220</v>
       </c>
       <c r="G5" t="s">
         <v>3547</v>
@@ -75546,22 +76481,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>3962</v>
+        <v>533</v>
       </c>
       <c r="B6" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E6" s="200" t="s">
         <v>3901</v>
       </c>
-      <c r="C6" t="s">
-        <v>3895</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3902</v>
-      </c>
-      <c r="F6" s="197">
-        <v>124000</v>
+      <c r="F6" s="200" t="s">
+        <v>4221</v>
       </c>
       <c r="G6" t="s">
         <v>3547</v>
@@ -75569,22 +76504,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>3963</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="C7" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D7" t="s">
         <v>3895</v>
       </c>
-      <c r="D7" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3903</v>
-      </c>
-      <c r="F7" s="197" t="s">
-        <v>3958</v>
+      <c r="E7" s="200" t="s">
+        <v>3902</v>
+      </c>
+      <c r="F7" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G7" t="s">
         <v>3547</v>
@@ -75592,22 +76527,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>3964</v>
+        <v>4222</v>
       </c>
       <c r="B8" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="C8" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E8" s="200" t="s">
         <v>3904</v>
       </c>
-      <c r="D8" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3905</v>
-      </c>
-      <c r="F8" s="197">
-        <v>172000</v>
+      <c r="F8" s="200" t="s">
+        <v>3902</v>
       </c>
       <c r="G8" t="s">
         <v>3547</v>
@@ -75615,22 +76550,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>3966</v>
+        <v>4223</v>
       </c>
       <c r="B9" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C9" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D9" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3906</v>
-      </c>
-      <c r="F9" s="197" t="s">
-        <v>3958</v>
+        <v>3899</v>
+      </c>
+      <c r="E9" s="200" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F9" s="200" t="s">
+        <v>3905</v>
       </c>
       <c r="G9" t="s">
         <v>3547</v>
@@ -75638,22 +76573,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>3967</v>
+        <v>478</v>
       </c>
       <c r="B10" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C10" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D10" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3906</v>
-      </c>
-      <c r="F10" s="197">
-        <v>206000</v>
+        <v>3899</v>
+      </c>
+      <c r="E10" s="200" t="s">
+        <v>3905</v>
+      </c>
+      <c r="F10" s="200" t="s">
+        <v>4224</v>
       </c>
       <c r="G10" t="s">
         <v>3547</v>
@@ -75661,22 +76596,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>3968</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
-        <v>3897</v>
+        <v>3900</v>
       </c>
       <c r="C11" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D11" t="s">
         <v>3895</v>
       </c>
-      <c r="D11" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3907</v>
-      </c>
-      <c r="F11" s="197">
-        <v>340000</v>
+      <c r="E11" s="200" t="s">
+        <v>3768</v>
+      </c>
+      <c r="F11" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G11" t="s">
         <v>3547</v>
@@ -75684,22 +76619,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>3969</v>
+        <v>3561</v>
       </c>
       <c r="B12" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C12" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D12" t="s">
         <v>3895</v>
       </c>
-      <c r="D12" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E12" s="200" t="s">
         <v>3836</v>
       </c>
-      <c r="F12" s="198" t="s">
-        <v>3965</v>
+      <c r="F12" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G12" t="s">
         <v>3547</v>
@@ -75707,22 +76642,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>3970</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>3899</v>
+        <v>3896</v>
       </c>
       <c r="C13" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D13" t="s">
         <v>3895</v>
       </c>
-      <c r="D13" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3814</v>
-      </c>
-      <c r="F13" s="197">
-        <v>365000</v>
+      <c r="E13" s="200" t="s">
+        <v>3906</v>
+      </c>
+      <c r="F13" s="200" t="s">
+        <v>4225</v>
       </c>
       <c r="G13" t="s">
         <v>3547</v>
@@ -75730,22 +76665,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>3971</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>3901</v>
+        <v>3898</v>
       </c>
       <c r="C14" t="s">
-        <v>3904</v>
+        <v>3894</v>
       </c>
       <c r="D14" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3768</v>
-      </c>
-      <c r="F14" s="198" t="s">
-        <v>3965</v>
+        <v>3895</v>
+      </c>
+      <c r="E14" s="200" t="s">
+        <v>3814</v>
+      </c>
+      <c r="F14" s="200" t="s">
+        <v>3933</v>
       </c>
       <c r="G14" t="s">
         <v>3547</v>
@@ -75753,22 +76688,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>3972</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C15" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D15" t="s">
         <v>3895</v>
       </c>
-      <c r="D15" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3908</v>
-      </c>
-      <c r="F15" s="197">
-        <v>290000</v>
+      <c r="E15" s="200" t="s">
+        <v>3912</v>
+      </c>
+      <c r="F15" s="200" t="s">
+        <v>3933</v>
       </c>
       <c r="G15" t="s">
         <v>3547</v>
@@ -75776,22 +76711,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>3973</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C16" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="D16" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3910</v>
-      </c>
-      <c r="F16" s="197">
-        <v>278000</v>
+        <v>3895</v>
+      </c>
+      <c r="E16" s="200" t="s">
+        <v>3835</v>
+      </c>
+      <c r="F16" s="200" t="s">
+        <v>3933</v>
       </c>
       <c r="G16" t="s">
         <v>3547</v>
@@ -75799,22 +76734,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>3974</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C17" t="s">
-        <v>3909</v>
+        <v>3894</v>
       </c>
       <c r="D17" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3911</v>
-      </c>
-      <c r="F17" s="197">
-        <v>282000</v>
+        <v>3895</v>
+      </c>
+      <c r="E17" s="200" t="s">
+        <v>3834</v>
+      </c>
+      <c r="F17" s="200" t="s">
+        <v>3933</v>
       </c>
       <c r="G17" t="s">
         <v>3547</v>
@@ -75822,22 +76757,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>3975</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>3899</v>
+        <v>3896</v>
       </c>
       <c r="C18" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D18" t="s">
         <v>3895</v>
       </c>
-      <c r="D18" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3912</v>
-      </c>
-      <c r="F18" s="197">
-        <v>226000</v>
+      <c r="E18" s="200" t="s">
+        <v>3814</v>
+      </c>
+      <c r="F18" s="200" t="s">
+        <v>4226</v>
       </c>
       <c r="G18" t="s">
         <v>3547</v>
@@ -75845,22 +76780,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>3976</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C19" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D19" t="s">
         <v>3895</v>
       </c>
-      <c r="D19" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3913</v>
-      </c>
-      <c r="F19" s="197">
-        <v>392000</v>
+      <c r="E19" s="200" t="s">
+        <v>3915</v>
+      </c>
+      <c r="F19" s="200" t="s">
+        <v>3933</v>
       </c>
       <c r="G19" t="s">
         <v>3547</v>
@@ -75868,22 +76803,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>3977</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C20" t="s">
-        <v>3909</v>
+        <v>3894</v>
       </c>
       <c r="D20" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3835</v>
-      </c>
-      <c r="F20" s="197">
-        <v>392000</v>
+        <v>3895</v>
+      </c>
+      <c r="E20" s="200" t="s">
+        <v>3914</v>
+      </c>
+      <c r="F20" s="200" t="s">
+        <v>3933</v>
       </c>
       <c r="G20" t="s">
         <v>3547</v>
@@ -75891,22 +76826,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>3978</v>
+        <v>4227</v>
       </c>
       <c r="B21" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C21" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D21" t="s">
         <v>3895</v>
       </c>
-      <c r="D21" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3834</v>
-      </c>
-      <c r="F21" s="197">
-        <v>392000</v>
+      <c r="E21" s="200" t="s">
+        <v>3913</v>
+      </c>
+      <c r="F21" s="200" t="s">
+        <v>3933</v>
       </c>
       <c r="G21" t="s">
         <v>3547</v>
@@ -75914,22 +76849,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>3979</v>
+        <v>3571</v>
       </c>
       <c r="B22" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C22" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D22" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3814</v>
-      </c>
-      <c r="F22" s="197">
-        <v>365000</v>
+        <v>3899</v>
+      </c>
+      <c r="E22" s="200" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F22" s="200" t="s">
+        <v>3907</v>
       </c>
       <c r="G22" t="s">
         <v>3547</v>
@@ -75937,22 +76872,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>3980</v>
+        <v>3575</v>
       </c>
       <c r="B23" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C23" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D23" t="s">
         <v>3895</v>
       </c>
-      <c r="D23" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3914</v>
-      </c>
-      <c r="F23" s="197">
-        <v>392000</v>
+      <c r="E23" s="200" t="s">
+        <v>3768</v>
+      </c>
+      <c r="F23" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G23" t="s">
         <v>3547</v>
@@ -75960,22 +76895,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>3981</v>
+        <v>3579</v>
       </c>
       <c r="B24" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C24" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D24" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3908</v>
-      </c>
-      <c r="F24" s="198" t="s">
-        <v>3965</v>
+        <v>3899</v>
+      </c>
+      <c r="E24" s="200" t="s">
+        <v>3824</v>
+      </c>
+      <c r="F24" s="200" t="s">
+        <v>3945</v>
       </c>
       <c r="G24" t="s">
         <v>3547</v>
@@ -75983,22 +76918,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>3982</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C25" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D25" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3768</v>
-      </c>
-      <c r="F25" s="198" t="s">
-        <v>3965</v>
+        <v>3899</v>
+      </c>
+      <c r="E25" s="200" t="s">
+        <v>3889</v>
+      </c>
+      <c r="F25" s="200" t="s">
+        <v>4228</v>
       </c>
       <c r="G25" t="s">
         <v>3547</v>
@@ -76006,22 +76941,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>3983</v>
+        <v>4229</v>
       </c>
       <c r="B26" t="s">
-        <v>3897</v>
+        <v>3900</v>
       </c>
       <c r="C26" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D26" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3824</v>
-      </c>
-      <c r="F26" s="197">
-        <v>260000</v>
+        <v>3899</v>
+      </c>
+      <c r="E26" s="200" t="s">
+        <v>3887</v>
+      </c>
+      <c r="F26" s="200" t="s">
+        <v>4230</v>
       </c>
       <c r="G26" t="s">
         <v>3547</v>
@@ -76029,22 +76964,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>3984</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C27" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D27" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3889</v>
-      </c>
-      <c r="F27" s="197">
-        <v>271000</v>
+        <v>3899</v>
+      </c>
+      <c r="E27" s="200" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F27" s="200" t="s">
+        <v>3902</v>
       </c>
       <c r="G27" t="s">
         <v>3547</v>
@@ -76052,22 +76987,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>3985</v>
+        <v>4231</v>
       </c>
       <c r="B28" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C28" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D28" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3887</v>
-      </c>
-      <c r="F28" s="197">
-        <v>303000</v>
+        <v>3899</v>
+      </c>
+      <c r="E28" s="200" t="s">
+        <v>3907</v>
+      </c>
+      <c r="F28" s="200" t="s">
+        <v>3835</v>
       </c>
       <c r="G28" t="s">
         <v>3547</v>
@@ -76075,22 +77010,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>3986</v>
+        <v>360</v>
       </c>
       <c r="B29" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C29" t="s">
-        <v>3895</v>
+        <v>3908</v>
       </c>
       <c r="D29" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3915</v>
-      </c>
-      <c r="F29" s="197">
-        <v>392000</v>
+        <v>3899</v>
+      </c>
+      <c r="E29" s="200" t="s">
+        <v>3909</v>
+      </c>
+      <c r="F29" s="200" t="s">
+        <v>4232</v>
       </c>
       <c r="G29" t="s">
         <v>3547</v>
@@ -76098,22 +77033,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>3987</v>
+        <v>361</v>
       </c>
       <c r="B30" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C30" t="s">
-        <v>3895</v>
+        <v>3908</v>
       </c>
       <c r="D30" t="s">
-        <v>3896</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3916</v>
-      </c>
-      <c r="F30" s="197">
-        <v>392000</v>
+        <v>3899</v>
+      </c>
+      <c r="E30" s="200" t="s">
+        <v>3910</v>
+      </c>
+      <c r="F30" s="200" t="s">
+        <v>3939</v>
       </c>
       <c r="G30" t="s">
         <v>3547</v>
@@ -76121,22 +77056,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>3988</v>
+        <v>411</v>
       </c>
       <c r="B31" t="s">
-        <v>3897</v>
+        <v>3898</v>
       </c>
       <c r="C31" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D31" t="s">
-        <v>3900</v>
-      </c>
-      <c r="E31" t="s">
-        <v>3903</v>
-      </c>
-      <c r="F31" s="198" t="s">
-        <v>3965</v>
+        <v>3899</v>
+      </c>
+      <c r="E31" s="200" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F31" s="200" t="s">
+        <v>3935</v>
       </c>
       <c r="G31" t="s">
         <v>3547</v>
@@ -76144,19 +77079,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>3989</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C32" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D32" t="s">
         <v>3895</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="200" t="s">
         <v>3736</v>
       </c>
-      <c r="F32" s="198" t="s">
-        <v>3965</v>
+      <c r="F32" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G32" t="s">
         <v>3547</v>
@@ -76164,16 +77102,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>3990</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>3897</v>
-      </c>
-      <c r="E33" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E33" s="200" t="s">
         <v>3736</v>
       </c>
-      <c r="F33" s="198" t="s">
-        <v>3965</v>
+      <c r="F33" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G33" t="s">
         <v>3547</v>
@@ -76181,16 +77125,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>3991</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>3897</v>
-      </c>
-      <c r="E34" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E34" s="200" t="s">
         <v>3736</v>
       </c>
-      <c r="F34" s="198" t="s">
-        <v>3965</v>
+      <c r="F34" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G34" t="s">
         <v>3547</v>
@@ -76198,13 +77148,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>3992</v>
-      </c>
-      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E35" s="200" t="s">
         <v>3764</v>
       </c>
-      <c r="F35" s="197">
-        <v>365000</v>
+      <c r="F35" s="200" t="s">
+        <v>4226</v>
       </c>
       <c r="G35" t="s">
         <v>3547</v>
@@ -76212,13 +77171,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>3993</v>
-      </c>
-      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E36" s="200" t="s">
         <v>3764</v>
       </c>
-      <c r="F36" s="197">
-        <v>392000</v>
+      <c r="F36" s="200" t="s">
+        <v>3933</v>
       </c>
       <c r="G36" t="s">
         <v>3547</v>
@@ -76226,13 +77194,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>3994</v>
-      </c>
-      <c r="E37" t="s">
-        <v>3917</v>
-      </c>
-      <c r="F37" s="198" t="s">
-        <v>3965</v>
+        <v>311</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E37" s="200" t="s">
+        <v>3916</v>
+      </c>
+      <c r="F37" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G37" t="s">
         <v>3547</v>
@@ -76240,13 +77217,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>3995</v>
-      </c>
-      <c r="E38" t="s">
-        <v>3918</v>
-      </c>
-      <c r="F38" s="197">
-        <v>278000</v>
+        <v>338</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E38" s="200" t="s">
+        <v>3917</v>
+      </c>
+      <c r="F38" s="200" t="s">
+        <v>4232</v>
       </c>
       <c r="G38" t="s">
         <v>3547</v>
@@ -76254,13 +77240,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>3996</v>
-      </c>
-      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E39" s="200" t="s">
         <v>3825</v>
       </c>
-      <c r="F39" s="198" t="s">
-        <v>3965</v>
+      <c r="F39" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G39" t="s">
         <v>3582</v>
@@ -76268,13 +77263,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>3997</v>
-      </c>
-      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E40" s="200" t="s">
         <v>3824</v>
       </c>
-      <c r="F40" s="197">
-        <v>259000</v>
+      <c r="F40" s="200" t="s">
+        <v>4233</v>
       </c>
       <c r="G40" t="s">
         <v>3582</v>
@@ -76282,13 +77286,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>3998</v>
-      </c>
-      <c r="E41" t="s">
+        <v>562</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E41" s="200" t="s">
         <v>3798</v>
       </c>
-      <c r="F41" s="197">
-        <v>310000</v>
+      <c r="F41" s="200" t="s">
+        <v>3825</v>
       </c>
       <c r="G41" t="s">
         <v>3582</v>
@@ -76296,12 +77309,21 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>3999</v>
-      </c>
-      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E42" s="200" t="s">
         <v>3822</v>
       </c>
-      <c r="F42" s="197">
+      <c r="F42" s="200">
         <v>223000</v>
       </c>
       <c r="G42" t="s">
@@ -76310,12 +77332,21 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>4000</v>
-      </c>
-      <c r="E43" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E43" s="200" t="s">
         <v>3822</v>
       </c>
-      <c r="F43" s="197">
+      <c r="F43" s="200">
         <v>223000</v>
       </c>
       <c r="G43" t="s">
@@ -76324,13 +77355,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>4001</v>
-      </c>
-      <c r="E44" t="s">
-        <v>3919</v>
-      </c>
-      <c r="F44" s="198" t="s">
-        <v>3965</v>
+        <v>4235</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E44" s="200" t="s">
+        <v>3918</v>
+      </c>
+      <c r="F44" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G44" t="s">
         <v>3582</v>
@@ -76338,12 +77378,21 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>4002</v>
-      </c>
-      <c r="E45" t="s">
-        <v>3920</v>
-      </c>
-      <c r="F45" s="197">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E45" s="200" t="s">
+        <v>3919</v>
+      </c>
+      <c r="F45" s="200">
         <v>228000</v>
       </c>
       <c r="G45" t="s">
@@ -76352,13 +77401,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>4003</v>
-      </c>
-      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E46" s="200" t="s">
         <v>3827</v>
       </c>
-      <c r="F46" s="198" t="s">
-        <v>3965</v>
+      <c r="F46" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G46" t="s">
         <v>3582</v>
@@ -76366,12 +77424,21 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>4004</v>
-      </c>
-      <c r="E47" t="s">
+        <v>635</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E47" s="200" t="s">
         <v>3848</v>
       </c>
-      <c r="F47" s="197">
+      <c r="F47" s="200">
         <v>312000</v>
       </c>
       <c r="G47" t="s">
@@ -76380,12 +77447,21 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>4005</v>
-      </c>
-      <c r="E48" t="s">
-        <v>3921</v>
-      </c>
-      <c r="F48" s="197">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E48" s="200" t="s">
+        <v>3920</v>
+      </c>
+      <c r="F48" s="200">
         <v>345000</v>
       </c>
       <c r="G48" t="s">
@@ -76394,13 +77470,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>4006</v>
-      </c>
-      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E49" s="200" t="s">
         <v>3808</v>
       </c>
-      <c r="F49" s="198" t="s">
-        <v>3965</v>
+      <c r="F49" s="200" t="s">
+        <v>3954</v>
       </c>
       <c r="G49" t="s">
         <v>3582</v>
@@ -76408,12 +77493,21 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>4007</v>
-      </c>
-      <c r="E50" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E50" s="200" t="s">
         <v>3871</v>
       </c>
-      <c r="F50" s="197">
+      <c r="F50" s="200">
         <v>107000</v>
       </c>
       <c r="G50" t="s">
@@ -76422,13 +77516,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>4008</v>
-      </c>
-      <c r="E51" t="s">
-        <v>3922</v>
-      </c>
-      <c r="F51" s="198" t="s">
-        <v>3965</v>
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E51" s="200" t="s">
+        <v>3921</v>
+      </c>
+      <c r="F51" s="201" t="s">
+        <v>3958</v>
       </c>
       <c r="G51" t="s">
         <v>3582</v>
@@ -76436,12 +77539,21 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>4009</v>
-      </c>
-      <c r="E52" t="s">
-        <v>3921</v>
-      </c>
-      <c r="F52" s="197">
+        <v>488</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E52" s="200" t="s">
+        <v>3920</v>
+      </c>
+      <c r="F52" s="200">
         <v>345000</v>
       </c>
       <c r="G52" t="s">
@@ -76450,12 +77562,21 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>4010</v>
-      </c>
-      <c r="E53" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E53" s="200" t="s">
         <v>3871</v>
       </c>
-      <c r="F53" s="197">
+      <c r="F53" s="200">
         <v>107000</v>
       </c>
       <c r="G53" t="s">
@@ -76464,12 +77585,21 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>4011</v>
-      </c>
-      <c r="E54" t="s">
-        <v>3921</v>
-      </c>
-      <c r="F54" s="197">
+        <v>225</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E54" s="200" t="s">
+        <v>3920</v>
+      </c>
+      <c r="F54" s="200">
         <v>345000</v>
       </c>
       <c r="G54" t="s">
@@ -76478,12 +77608,21 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>4012</v>
-      </c>
-      <c r="E55" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E55" s="200" t="s">
         <v>3871</v>
       </c>
-      <c r="F55" s="197">
+      <c r="F55" s="200">
         <v>107000</v>
       </c>
       <c r="G55" t="s">
@@ -76492,12 +77631,21 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>4013</v>
-      </c>
-      <c r="E56" t="s">
-        <v>3923</v>
-      </c>
-      <c r="F56" s="197">
+        <v>238</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E56" s="200" t="s">
+        <v>3922</v>
+      </c>
+      <c r="F56" s="200">
         <v>321000</v>
       </c>
       <c r="G56" t="s">
@@ -76506,12 +77654,21 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>4014</v>
-      </c>
-      <c r="E57" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E57" s="200" t="s">
         <v>3846</v>
       </c>
-      <c r="F57" s="197">
+      <c r="F57" s="200">
         <v>355000</v>
       </c>
       <c r="G57" t="s">
@@ -76520,13 +77677,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>4015</v>
-      </c>
-      <c r="E58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E58" s="200" t="s">
         <v>3812</v>
       </c>
-      <c r="F58" s="198" t="s">
-        <v>3965</v>
+      <c r="F58" s="201" t="s">
+        <v>3958</v>
       </c>
       <c r="G58" t="s">
         <v>3582</v>
@@ -76534,12 +77700,21 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>4016</v>
-      </c>
-      <c r="E59" t="s">
-        <v>3924</v>
-      </c>
-      <c r="F59" s="197">
+        <v>3586</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E59" s="200" t="s">
+        <v>3923</v>
+      </c>
+      <c r="F59" s="200">
         <v>354000</v>
       </c>
       <c r="G59" t="s">
@@ -76548,13 +77723,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>4017</v>
-      </c>
-      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E60" s="200" t="s">
         <v>3825</v>
       </c>
-      <c r="F60" s="197" t="s">
-        <v>3965</v>
+      <c r="F60" s="201" t="s">
+        <v>3958</v>
       </c>
       <c r="G60" t="s">
         <v>3582</v>
@@ -76562,12 +77746,21 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>4018</v>
-      </c>
-      <c r="E61" t="s">
-        <v>3924</v>
-      </c>
-      <c r="F61" s="197">
+        <v>3587</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E61" s="200" t="s">
+        <v>3923</v>
+      </c>
+      <c r="F61" s="200">
         <v>354000</v>
       </c>
       <c r="G61" t="s">
@@ -76576,12 +77769,21 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>4019</v>
-      </c>
-      <c r="E62" t="s">
-        <v>3924</v>
-      </c>
-      <c r="F62" s="197">
+        <v>597</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E62" s="200" t="s">
+        <v>3923</v>
+      </c>
+      <c r="F62" s="200">
         <v>354000</v>
       </c>
       <c r="G62" t="s">
@@ -76590,12 +77792,21 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>4020</v>
-      </c>
-      <c r="E63" t="s">
-        <v>3925</v>
-      </c>
-      <c r="F63" s="197">
+        <v>599</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E63" s="200">
+        <v>277000</v>
+      </c>
+      <c r="F63" s="200">
         <v>426000</v>
       </c>
       <c r="G63" t="s">
@@ -76604,12 +77815,21 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>4021</v>
-      </c>
-      <c r="E64" t="s">
-        <v>3926</v>
-      </c>
-      <c r="F64" s="197">
+        <v>3588</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E64" s="200" t="s">
+        <v>3924</v>
+      </c>
+      <c r="F64" s="200">
         <v>249000</v>
       </c>
       <c r="G64" t="s">
@@ -76618,12 +77838,21 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>4022</v>
-      </c>
-      <c r="E65" t="s">
+        <v>403</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E65" s="200" t="s">
         <v>3882</v>
       </c>
-      <c r="F65" s="197">
+      <c r="F65" s="200">
         <v>255000</v>
       </c>
       <c r="G65" t="s">
@@ -76632,13 +77861,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>4023</v>
-      </c>
-      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E66" s="200" t="s">
         <v>3863</v>
       </c>
-      <c r="F66" s="198" t="s">
-        <v>3965</v>
+      <c r="F66" s="201" t="s">
+        <v>3958</v>
       </c>
       <c r="G66" t="s">
         <v>3582</v>
@@ -76646,12 +77884,21 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>4024</v>
-      </c>
-      <c r="E67" t="s">
+        <v>600</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E67" s="200" t="s">
         <v>3882</v>
       </c>
-      <c r="F67" s="197">
+      <c r="F67" s="200">
         <v>256000</v>
       </c>
       <c r="G67" t="s">
@@ -76660,13 +77907,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>4025</v>
-      </c>
-      <c r="E68" t="s">
-        <v>3927</v>
-      </c>
-      <c r="F68" s="198" t="s">
-        <v>3965</v>
+        <v>3589</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E68" s="200" t="s">
+        <v>3925</v>
+      </c>
+      <c r="F68" s="201" t="s">
+        <v>4248</v>
       </c>
       <c r="G68" t="s">
         <v>3582</v>
@@ -76674,12 +77930,21 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>4026</v>
-      </c>
-      <c r="E69" t="s">
-        <v>3928</v>
-      </c>
-      <c r="F69" s="197">
+        <v>239</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E69" s="200" t="s">
+        <v>3926</v>
+      </c>
+      <c r="F69" s="200">
         <v>249000</v>
       </c>
       <c r="G69" t="s">
@@ -76688,13 +77953,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>4027</v>
-      </c>
-      <c r="E70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E70" s="200" t="s">
         <v>3785</v>
       </c>
-      <c r="F70" s="198" t="s">
-        <v>3965</v>
+      <c r="F70" s="201" t="s">
+        <v>4248</v>
       </c>
       <c r="G70" t="s">
         <v>3582</v>
@@ -76702,13 +77976,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>4028</v>
-      </c>
-      <c r="E71" s="198" t="s">
-        <v>3965</v>
-      </c>
-      <c r="F71" s="197">
-        <v>46000</v>
+        <v>374</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E71" s="200" t="s">
+        <v>4237</v>
+      </c>
+      <c r="F71" s="201" t="s">
+        <v>4248</v>
       </c>
       <c r="G71" t="s">
         <v>3582</v>
@@ -76716,12 +77999,21 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>4029</v>
-      </c>
-      <c r="E72" t="s">
-        <v>3929</v>
-      </c>
-      <c r="F72" s="197">
+        <v>609</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E72" s="200" t="s">
+        <v>3927</v>
+      </c>
+      <c r="F72" s="200">
         <v>379000</v>
       </c>
       <c r="G72" t="s">
@@ -76730,13 +78022,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>4030</v>
-      </c>
-      <c r="E73" t="s">
-        <v>3916</v>
-      </c>
-      <c r="F73" s="198" t="s">
-        <v>3965</v>
+        <v>156</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E73" s="200" t="s">
+        <v>3915</v>
+      </c>
+      <c r="F73" s="201" t="s">
+        <v>4248</v>
       </c>
       <c r="G73" t="s">
         <v>3582</v>
@@ -76744,12 +78045,21 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>4031</v>
-      </c>
-      <c r="E74" t="s">
-        <v>3930</v>
-      </c>
-      <c r="F74" s="197">
+        <v>583</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E74" s="200">
+        <v>264000</v>
+      </c>
+      <c r="F74" s="200">
         <v>407000</v>
       </c>
       <c r="G74" t="s">
@@ -76758,13 +78068,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>4032</v>
-      </c>
-      <c r="E75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E75" s="200" t="s">
         <v>3810</v>
       </c>
-      <c r="F75" s="198" t="s">
-        <v>3965</v>
+      <c r="F75" s="201" t="s">
+        <v>4248</v>
       </c>
       <c r="G75" t="s">
         <v>3582</v>
@@ -76772,12 +78091,21 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>4033</v>
-      </c>
-      <c r="E76" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E76" s="200" t="s">
         <v>3764</v>
       </c>
-      <c r="F76" s="197">
+      <c r="F76" s="200">
         <v>345000</v>
       </c>
       <c r="G76" t="s">
@@ -76786,12 +78114,21 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>4034</v>
-      </c>
-      <c r="E77" t="s">
-        <v>3931</v>
-      </c>
-      <c r="F77" s="197">
+        <v>3591</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E77" s="200" t="s">
+        <v>3928</v>
+      </c>
+      <c r="F77" s="200">
         <v>371000</v>
       </c>
       <c r="G77" t="s">
@@ -76800,13 +78137,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>4035</v>
-      </c>
-      <c r="E78" t="s">
-        <v>3932</v>
-      </c>
-      <c r="F78" s="198" t="s">
-        <v>3965</v>
+        <v>3592</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E78" s="200" t="s">
+        <v>3929</v>
+      </c>
+      <c r="F78" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G78" t="s">
         <v>3582</v>
@@ -76814,12 +78160,21 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>4036</v>
-      </c>
-      <c r="E79" t="s">
-        <v>3933</v>
-      </c>
-      <c r="F79" s="197">
+        <v>3593</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E79" s="200" t="s">
+        <v>3930</v>
+      </c>
+      <c r="F79" s="200">
         <v>365000</v>
       </c>
       <c r="G79" t="s">
@@ -76828,12 +78183,21 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>4037</v>
-      </c>
-      <c r="E80" t="s">
-        <v>3934</v>
-      </c>
-      <c r="F80" s="197">
+        <v>3594</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E80" s="200" t="s">
+        <v>3931</v>
+      </c>
+      <c r="F80" s="200">
         <v>308000</v>
       </c>
       <c r="G80" t="s">
@@ -76842,13 +78206,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>4038</v>
-      </c>
-      <c r="E81" t="s">
-        <v>3927</v>
-      </c>
-      <c r="F81" s="198" t="s">
-        <v>3965</v>
+        <v>147</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E81" s="200" t="s">
+        <v>3925</v>
+      </c>
+      <c r="F81" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G81" t="s">
         <v>3582</v>
@@ -76856,13 +78229,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>4039</v>
-      </c>
-      <c r="E82" t="s">
-        <v>3935</v>
-      </c>
-      <c r="F82" s="197">
-        <v>384000</v>
+        <v>3595</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E82" s="200" t="s">
+        <v>3932</v>
+      </c>
+      <c r="F82" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G82" t="s">
         <v>3582</v>
@@ -76870,13 +78252,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>4040</v>
-      </c>
-      <c r="E83" t="s">
-        <v>3936</v>
-      </c>
-      <c r="F83" s="197">
-        <v>392000</v>
+        <v>146</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E83" s="200" t="s">
+        <v>3933</v>
+      </c>
+      <c r="F83" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G83" t="s">
         <v>3582</v>
@@ -76884,12 +78275,21 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>4041</v>
-      </c>
-      <c r="E84" t="s">
+        <v>611</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E84" s="200" t="s">
         <v>3792</v>
       </c>
-      <c r="F84" s="197">
+      <c r="F84" s="200">
         <v>421000</v>
       </c>
       <c r="G84" t="s">
@@ -76898,12 +78298,21 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>4042</v>
-      </c>
-      <c r="E85" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E85" s="200" t="s">
         <v>3753</v>
       </c>
-      <c r="F85" s="197">
+      <c r="F85" s="200">
         <v>656000</v>
       </c>
       <c r="G85" t="s">
@@ -76912,12 +78321,21 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>4043</v>
-      </c>
-      <c r="E86" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E86" s="200" t="s">
         <v>3764</v>
       </c>
-      <c r="F86" s="197">
+      <c r="F86" s="200">
         <v>391000</v>
       </c>
       <c r="G86" t="s">
@@ -76926,12 +78344,21 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>4044</v>
-      </c>
-      <c r="E87" t="s">
-        <v>3937</v>
-      </c>
-      <c r="F87" s="197">
+        <v>3598</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E87" s="200" t="s">
+        <v>3934</v>
+      </c>
+      <c r="F87" s="200">
         <v>365000</v>
       </c>
       <c r="G87" t="s">
@@ -76940,13 +78367,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>4045</v>
-      </c>
-      <c r="E88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E88" s="200" t="s">
         <v>3818</v>
       </c>
-      <c r="F88" s="198" t="s">
-        <v>3965</v>
+      <c r="F88" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G88" t="s">
         <v>3582</v>
@@ -76954,13 +78390,22 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>4046</v>
-      </c>
-      <c r="E89" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E89" s="200" t="s">
         <v>3798</v>
       </c>
-      <c r="F89" s="198" t="s">
-        <v>3965</v>
+      <c r="F89" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G89" t="s">
         <v>3582</v>
@@ -76968,12 +78413,21 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>4047</v>
-      </c>
-      <c r="E90" t="s">
+        <v>332</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E90" s="200" t="s">
         <v>3822</v>
       </c>
-      <c r="F90" s="197">
+      <c r="F90" s="200">
         <v>223000</v>
       </c>
       <c r="G90" t="s">
@@ -76982,13 +78436,22 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>4048</v>
-      </c>
-      <c r="E91" t="s">
-        <v>3938</v>
-      </c>
-      <c r="F91" s="198" t="s">
-        <v>3965</v>
+        <v>3600</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E91" s="200" t="s">
+        <v>3935</v>
+      </c>
+      <c r="F91" s="200">
+        <v>226000</v>
       </c>
       <c r="G91" t="s">
         <v>3582</v>
@@ -76996,12 +78459,21 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>4049</v>
-      </c>
-      <c r="E92" t="s">
-        <v>3939</v>
-      </c>
-      <c r="F92" s="197">
+        <v>3601</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E92" s="200" t="s">
+        <v>3936</v>
+      </c>
+      <c r="F92" s="200">
         <v>224000</v>
       </c>
       <c r="G92" t="s">
@@ -77010,13 +78482,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>4050</v>
-      </c>
-      <c r="E93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E93" s="200" t="s">
         <v>3602</v>
       </c>
-      <c r="F93" s="198" t="s">
-        <v>3965</v>
+      <c r="F93" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G93" t="s">
         <v>3582</v>
@@ -77024,12 +78505,21 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>4051</v>
-      </c>
-      <c r="E94" t="s">
-        <v>3908</v>
-      </c>
-      <c r="F94" s="197">
+        <v>236</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E94" s="200" t="s">
+        <v>3907</v>
+      </c>
+      <c r="F94" s="200">
         <v>292000</v>
       </c>
       <c r="G94" t="s">
@@ -77038,13 +78528,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>4052</v>
-      </c>
-      <c r="E95" t="s">
+        <v>617</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E95" s="200" t="s">
         <v>3816</v>
       </c>
-      <c r="F95" s="198" t="s">
-        <v>3965</v>
+      <c r="F95" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G95" t="s">
         <v>3582</v>
@@ -77052,12 +78551,21 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>4053</v>
-      </c>
-      <c r="E96" t="s">
-        <v>3940</v>
-      </c>
-      <c r="F96" s="197">
+        <v>540</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E96" s="200" t="s">
+        <v>3937</v>
+      </c>
+      <c r="F96" s="200">
         <v>325000</v>
       </c>
       <c r="G96" t="s">
@@ -77066,12 +78574,21 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>4054</v>
-      </c>
-      <c r="E97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E97" s="200" t="s">
         <v>3822</v>
       </c>
-      <c r="F97" s="197">
+      <c r="F97" s="200">
         <v>223000</v>
       </c>
       <c r="G97" t="s">
@@ -77080,12 +78597,21 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>4055</v>
-      </c>
-      <c r="E98" t="s">
-        <v>3914</v>
-      </c>
-      <c r="F98" s="197">
+        <v>92</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E98" s="200" t="s">
+        <v>3913</v>
+      </c>
+      <c r="F98" s="200">
         <v>361000</v>
       </c>
       <c r="G98" t="s">
@@ -77094,12 +78620,21 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>4056</v>
-      </c>
-      <c r="E99" t="s">
-        <v>3941</v>
-      </c>
-      <c r="F99" s="197">
+        <v>550</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E99" s="200" t="s">
+        <v>3938</v>
+      </c>
+      <c r="F99" s="200">
         <v>286000</v>
       </c>
       <c r="G99" t="s">
@@ -77108,12 +78643,21 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>4057</v>
-      </c>
-      <c r="E100" t="s">
-        <v>3942</v>
-      </c>
-      <c r="F100" s="197">
+        <v>3603</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E100" s="200" t="s">
+        <v>3939</v>
+      </c>
+      <c r="F100" s="200">
         <v>434000</v>
       </c>
       <c r="G100" t="s">
@@ -77122,12 +78666,21 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>4058</v>
-      </c>
-      <c r="E101" t="s">
-        <v>3934</v>
-      </c>
-      <c r="F101" s="197">
+        <v>3604</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E101" s="200" t="s">
+        <v>3931</v>
+      </c>
+      <c r="F101" s="200">
         <v>308000</v>
       </c>
       <c r="G101" t="s">
@@ -77136,13 +78689,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>4059</v>
-      </c>
-      <c r="E102" t="s">
-        <v>3943</v>
-      </c>
-      <c r="F102" s="198" t="s">
-        <v>3965</v>
+        <v>3605</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E102" s="200" t="s">
+        <v>3940</v>
+      </c>
+      <c r="F102" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G102" t="s">
         <v>3582</v>
@@ -77150,13 +78712,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>4060</v>
-      </c>
-      <c r="E103" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E103" s="200" t="s">
         <v>3829</v>
       </c>
-      <c r="F103" s="198" t="s">
-        <v>3965</v>
+      <c r="F103" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G103" t="s">
         <v>3582</v>
@@ -77164,13 +78735,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>4061</v>
-      </c>
-      <c r="E104" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E104" s="200" t="s">
         <v>3875</v>
       </c>
-      <c r="F104" s="198" t="s">
-        <v>3965</v>
+      <c r="F104" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G104" t="s">
         <v>3582</v>
@@ -77178,13 +78758,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>4062</v>
-      </c>
-      <c r="E105" t="s">
+        <v>74</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E105" s="200" t="s">
         <v>3879</v>
       </c>
-      <c r="F105" s="198" t="s">
-        <v>3965</v>
+      <c r="F105" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G105" t="s">
         <v>3582</v>
@@ -77192,13 +78781,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>4063</v>
-      </c>
-      <c r="E106" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E106" s="200" t="s">
         <v>3781</v>
       </c>
-      <c r="F106" s="198" t="s">
-        <v>3965</v>
+      <c r="F106" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G106" t="s">
         <v>3582</v>
@@ -77206,13 +78804,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>4064</v>
-      </c>
-      <c r="E107" t="s">
-        <v>3944</v>
-      </c>
-      <c r="F107" s="198" t="s">
-        <v>3965</v>
+        <v>89</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E107" s="200" t="s">
+        <v>3941</v>
+      </c>
+      <c r="F107" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G107" t="s">
         <v>3582</v>
@@ -77220,13 +78827,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>4065</v>
-      </c>
-      <c r="E108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E108" s="200" t="s">
         <v>3783</v>
       </c>
-      <c r="F108" s="198" t="s">
-        <v>3965</v>
+      <c r="F108" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G108" t="s">
         <v>3582</v>
@@ -77234,13 +78850,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>3945</v>
-      </c>
-      <c r="E109" t="s">
-        <v>3946</v>
-      </c>
-      <c r="F109" s="198" t="s">
-        <v>3965</v>
+        <v>3942</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E109" s="200" t="s">
+        <v>3943</v>
+      </c>
+      <c r="F109" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G109" t="s">
         <v>3582</v>
@@ -77248,13 +78873,22 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>4066</v>
-      </c>
-      <c r="E110" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E110" s="200" t="s">
         <v>3877</v>
       </c>
-      <c r="F110" s="198" t="s">
-        <v>3965</v>
+      <c r="F110" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G110" t="s">
         <v>3582</v>
@@ -77262,13 +78896,22 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>4067</v>
-      </c>
-      <c r="E111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E111" s="200" t="s">
         <v>3745</v>
       </c>
-      <c r="F111" s="198" t="s">
-        <v>3965</v>
+      <c r="F111" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G111" t="s">
         <v>3582</v>
@@ -77276,13 +78919,22 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>4068</v>
-      </c>
-      <c r="E112" t="s">
+        <v>340</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E112" s="200" t="s">
         <v>3757</v>
       </c>
-      <c r="F112" s="198" t="s">
-        <v>3965</v>
+      <c r="F112" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G112" t="s">
         <v>3582</v>
@@ -77290,41 +78942,68 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>4069</v>
-      </c>
-      <c r="E113" t="s">
-        <v>3879</v>
-      </c>
-      <c r="F113" s="198" t="s">
-        <v>3965</v>
+        <v>167</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E113" s="200" t="s">
+        <v>3944</v>
+      </c>
+      <c r="F113" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G113" t="s">
-        <v>3582</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>4070</v>
-      </c>
-      <c r="E114" t="s">
-        <v>3947</v>
-      </c>
-      <c r="F114" s="198" t="s">
-        <v>3965</v>
+        <v>76</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E114" s="200" t="s">
+        <v>3841</v>
+      </c>
+      <c r="F114" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G114" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>4071</v>
-      </c>
-      <c r="E115" t="s">
-        <v>3749</v>
-      </c>
-      <c r="F115" s="198" t="s">
-        <v>3965</v>
+        <v>136</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E115" s="200" t="s">
+        <v>3844</v>
+      </c>
+      <c r="F115" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G115" t="s">
         <v>3608</v>
@@ -77332,13 +79011,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>4072</v>
-      </c>
-      <c r="E116" t="s">
-        <v>3749</v>
-      </c>
-      <c r="F116" s="198" t="s">
-        <v>3965</v>
+        <v>27</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E116" s="200" t="s">
+        <v>3844</v>
+      </c>
+      <c r="F116" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G116" t="s">
         <v>3608</v>
@@ -77346,13 +79034,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>4073</v>
-      </c>
-      <c r="E117" t="s">
-        <v>3749</v>
-      </c>
-      <c r="F117" s="198" t="s">
-        <v>3965</v>
+        <v>257</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E117" s="200" t="s">
+        <v>3841</v>
+      </c>
+      <c r="F117" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G117" t="s">
         <v>3608</v>
@@ -77360,13 +79057,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>4074</v>
-      </c>
-      <c r="E118" t="s">
-        <v>3948</v>
-      </c>
-      <c r="F118" s="197">
-        <v>403000</v>
+        <v>3842</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E118" s="200" t="s">
+        <v>3841</v>
+      </c>
+      <c r="F118" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G118" t="s">
         <v>3608</v>
@@ -77374,13 +79080,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>4075</v>
-      </c>
-      <c r="E119" t="s">
-        <v>3857</v>
-      </c>
-      <c r="F119" s="198" t="s">
-        <v>3965</v>
+        <v>158</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E119" s="200" t="s">
+        <v>3841</v>
+      </c>
+      <c r="F119" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G119" t="s">
         <v>3608</v>
@@ -77388,13 +79103,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>268</v>
-      </c>
-      <c r="E120" t="s">
-        <v>3794</v>
-      </c>
-      <c r="F120" s="198" t="s">
-        <v>3965</v>
+        <v>3741</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E120" s="200" t="s">
+        <v>3846</v>
+      </c>
+      <c r="F120" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G120" t="s">
         <v>3608</v>
@@ -77402,13 +79126,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>4076</v>
-      </c>
-      <c r="E121" t="s">
-        <v>3853</v>
-      </c>
-      <c r="F121" s="198" t="s">
-        <v>3965</v>
+        <v>3849</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E121" s="200" t="s">
+        <v>3947</v>
+      </c>
+      <c r="F121" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G121" t="s">
         <v>3608</v>
@@ -77416,13 +79149,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>4077</v>
-      </c>
-      <c r="E122" t="s">
-        <v>3949</v>
-      </c>
-      <c r="F122" s="198" t="s">
-        <v>3965</v>
+        <v>593</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E122" s="200" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F122" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G122" t="s">
         <v>3608</v>
@@ -77430,13 +79172,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>4078</v>
-      </c>
-      <c r="E123" t="s">
-        <v>3949</v>
-      </c>
-      <c r="F123" s="198" t="s">
-        <v>3965</v>
+        <v>3609</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E123" s="200" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F123" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G123" t="s">
         <v>3608</v>
@@ -77444,13 +79195,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>4079</v>
-      </c>
-      <c r="E124" t="s">
-        <v>3949</v>
-      </c>
-      <c r="F124" s="198" t="s">
-        <v>3965</v>
+        <v>595</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E124" s="200" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F124" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G124" t="s">
         <v>3608</v>
@@ -77458,13 +79218,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>4080</v>
-      </c>
-      <c r="E125" t="s">
-        <v>3841</v>
-      </c>
-      <c r="F125" s="198" t="s">
-        <v>3965</v>
+        <v>4239</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E125" s="200" t="s">
+        <v>3946</v>
+      </c>
+      <c r="F125" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G125" t="s">
         <v>3608</v>
@@ -77472,13 +79241,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>4081</v>
-      </c>
-      <c r="E126" t="s">
-        <v>3844</v>
-      </c>
-      <c r="F126" s="198" t="s">
-        <v>3965</v>
+        <v>4240</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E126" s="200" t="s">
+        <v>3946</v>
+      </c>
+      <c r="F126" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G126" t="s">
         <v>3608</v>
@@ -77486,13 +79264,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>4082</v>
-      </c>
-      <c r="E127" t="s">
-        <v>3844</v>
-      </c>
-      <c r="F127" s="198" t="s">
-        <v>3965</v>
+        <v>4241</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E127" s="200" t="s">
+        <v>3946</v>
+      </c>
+      <c r="F127" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G127" t="s">
         <v>3608</v>
@@ -77500,13 +79287,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>4083</v>
-      </c>
-      <c r="E128" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E128" s="200" t="s">
         <v>3841</v>
       </c>
-      <c r="F128" s="198" t="s">
-        <v>3965</v>
+      <c r="F128" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G128" t="s">
         <v>3608</v>
@@ -77514,13 +79310,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>4084</v>
-      </c>
-      <c r="E129" t="s">
-        <v>3841</v>
-      </c>
-      <c r="F129" s="198" t="s">
-        <v>3965</v>
+        <v>3610</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E129" s="200" t="s">
+        <v>3857</v>
+      </c>
+      <c r="F129" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G129" t="s">
         <v>3608</v>
@@ -77528,13 +79333,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>4085</v>
-      </c>
-      <c r="E130" t="s">
-        <v>3841</v>
-      </c>
-      <c r="F130" s="198" t="s">
-        <v>3965</v>
+        <v>268</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E130" s="200" t="s">
+        <v>3794</v>
+      </c>
+      <c r="F130" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G130" t="s">
         <v>3608</v>
@@ -77542,13 +79356,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>4086</v>
-      </c>
-      <c r="E131" t="s">
-        <v>3841</v>
-      </c>
-      <c r="F131" s="198" t="s">
-        <v>3965</v>
+        <v>135</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E131" s="200" t="s">
+        <v>3853</v>
+      </c>
+      <c r="F131" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G131" t="s">
         <v>3608</v>
@@ -77556,13 +79379,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>4087</v>
-      </c>
-      <c r="E132" t="s">
-        <v>3846</v>
-      </c>
-      <c r="F132" s="198" t="s">
-        <v>3965</v>
+        <v>4243</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E132" s="200" t="s">
+        <v>3853</v>
+      </c>
+      <c r="F132" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G132" t="s">
         <v>3608</v>
@@ -77570,13 +79402,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>4088</v>
-      </c>
-      <c r="E133" t="s">
-        <v>3950</v>
-      </c>
-      <c r="F133" s="198" t="s">
-        <v>3965</v>
+        <v>4244</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E133" s="200" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F133" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G133" t="s">
         <v>3608</v>
@@ -77584,13 +79425,22 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>4089</v>
-      </c>
-      <c r="E134" t="s">
-        <v>3951</v>
-      </c>
-      <c r="F134" s="198" t="s">
-        <v>3965</v>
+        <v>106</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E134" s="200" t="s">
+        <v>3853</v>
+      </c>
+      <c r="F134" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G134" t="s">
         <v>3608</v>
@@ -77598,13 +79448,22 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>4090</v>
-      </c>
-      <c r="E135" t="s">
-        <v>3798</v>
-      </c>
-      <c r="F135" s="198" t="s">
-        <v>3965</v>
+        <v>582</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E135" s="200" t="s">
+        <v>3853</v>
+      </c>
+      <c r="F135" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G135" t="s">
         <v>3608</v>
@@ -77612,13 +79471,22 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>4091</v>
-      </c>
-      <c r="E136" t="s">
-        <v>3853</v>
-      </c>
-      <c r="F136" s="198" t="s">
-        <v>3965</v>
+        <v>3613</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E136" s="200" t="s">
+        <v>3950</v>
+      </c>
+      <c r="F136" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G136" t="s">
         <v>3608</v>
@@ -77626,13 +79494,22 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>4092</v>
-      </c>
-      <c r="E137" t="s">
-        <v>3952</v>
-      </c>
-      <c r="F137" s="198" t="s">
-        <v>3965</v>
+        <v>109</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E137" s="200" t="s">
+        <v>3853</v>
+      </c>
+      <c r="F137" s="201" t="s">
+        <v>4249</v>
       </c>
       <c r="G137" t="s">
         <v>3608</v>
@@ -77640,13 +79517,22 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>4093</v>
-      </c>
-      <c r="E138" t="s">
-        <v>3853</v>
-      </c>
-      <c r="F138" s="198" t="s">
-        <v>3965</v>
+        <v>4245</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E138" s="200">
+        <v>320000</v>
+      </c>
+      <c r="F138" s="201">
+        <v>230000</v>
       </c>
       <c r="G138" t="s">
         <v>3608</v>
@@ -77654,13 +79540,22 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>4094</v>
-      </c>
-      <c r="E139" t="s">
-        <v>3853</v>
-      </c>
-      <c r="F139" s="198" t="s">
-        <v>3965</v>
+        <v>4246</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E139" s="200">
+        <v>338000</v>
+      </c>
+      <c r="F139" s="201">
+        <v>229000</v>
       </c>
       <c r="G139" t="s">
         <v>3608</v>
@@ -77668,13 +79563,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>4095</v>
-      </c>
-      <c r="E140" t="s">
-        <v>3953</v>
-      </c>
-      <c r="F140" s="198" t="s">
-        <v>3965</v>
+        <v>4247</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E140" s="200" t="s">
+        <v>3948</v>
+      </c>
+      <c r="F140" s="200">
+        <v>365000</v>
       </c>
       <c r="G140" t="s">
         <v>3608</v>
@@ -77682,13 +79586,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>4096</v>
-      </c>
-      <c r="E141" t="s">
-        <v>3853</v>
-      </c>
-      <c r="F141" s="198" t="s">
-        <v>3965</v>
+        <v>400</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E141" s="200" t="s">
+        <v>3945</v>
+      </c>
+      <c r="F141" s="200">
+        <v>403000</v>
       </c>
       <c r="G141" t="s">
         <v>3608</v>
@@ -77696,44 +79609,1807 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>4097</v>
-      </c>
-      <c r="E142" t="s">
-        <v>3747</v>
-      </c>
-      <c r="F142" s="198" t="s">
-        <v>3965</v>
+        <v>401</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E142" s="200" t="s">
+        <v>3798</v>
+      </c>
+      <c r="F142" s="200">
+        <v>389000</v>
       </c>
       <c r="G142" t="s">
-        <v>3614</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>3858</v>
-      </c>
-      <c r="E143" t="s">
-        <v>3857</v>
-      </c>
-      <c r="F143" s="198" t="s">
-        <v>3965</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E143" s="200" t="s">
+        <v>3747</v>
+      </c>
+      <c r="F143" s="200"/>
       <c r="G143" t="s">
         <v>3614</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E144" s="200" t="s">
+        <v>3857</v>
+      </c>
+      <c r="F144" s="200"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
         <v>3859</v>
       </c>
-      <c r="E144" t="s">
-        <v>3954</v>
-      </c>
-      <c r="F144" s="198" t="s">
+      <c r="D145" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E145" s="200" t="s">
+        <v>3951</v>
+      </c>
+      <c r="F145" s="200"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46BCCF6-8A08-7C42-9B5A-823F9EE4BDDE}">
+  <dimension ref="A1:D126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32">
+      <c r="A1" s="197" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B1" s="197" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C1" s="197" t="s">
+        <v>4014</v>
+      </c>
+      <c r="D1" s="197" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="198" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B2" s="198" t="s">
+        <v>4017</v>
+      </c>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="198" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B3" s="198" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C3" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D3" s="199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="198" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B4" s="198" t="s">
+        <v>4021</v>
+      </c>
+      <c r="C4" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D4" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="198" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B5" s="198" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C5" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D5" s="199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="198" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B6" s="198" t="s">
+        <v>4024</v>
+      </c>
+      <c r="C6" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D6" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="198" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B7" s="198" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C7" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D7" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="198" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B8" s="198" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C8" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D8" s="199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="198" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B9" s="198" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C9" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D9" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="198" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B10" s="198" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C10" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D10" s="199">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="198" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B11" s="198" t="s">
+        <v>3979</v>
+      </c>
+      <c r="C11" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D11" s="199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="198" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B12" s="198" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C12" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D12" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="198" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B13" s="198" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C13" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D13" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="198" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B14" s="198" t="s">
+        <v>3991</v>
+      </c>
+      <c r="C14" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D14" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="198" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B15" s="198" t="s">
+        <v>3993</v>
+      </c>
+      <c r="C15" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D15" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="198" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B16" s="198" t="s">
+        <v>4040</v>
+      </c>
+      <c r="C16" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D16" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="198" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B17" s="198" t="s">
+        <v>3980</v>
+      </c>
+      <c r="C17" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D17" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="198" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B18" s="198" t="s">
+        <v>3992</v>
+      </c>
+      <c r="C18" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D18" s="199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="198" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B19" s="198" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C19" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D19" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="198" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B20" s="198" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C20" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D20" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="198" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B21" s="198" t="s">
+        <v>3987</v>
+      </c>
+      <c r="C21" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D21" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="198" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B22" s="198" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="198" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B23" s="198" t="s">
+        <v>3981</v>
+      </c>
+      <c r="C23" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D23" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="198" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B24" s="198" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C24" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D24" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="198" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B25" s="198" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C25" s="198"/>
+      <c r="D25" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="198" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B26" s="198" t="s">
+        <v>4054</v>
+      </c>
+      <c r="C26" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D26" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="198" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B27" s="198" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C27" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D27" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="198" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B28" s="198" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C28" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D28" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="198" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B29" s="198" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="198" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B30" s="198" t="s">
+        <v>3995</v>
+      </c>
+      <c r="C30" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D30" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="198" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B31" s="198" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C31" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D31" s="199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="198" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B32" s="198" t="s">
+        <v>4064</v>
+      </c>
+      <c r="C32" s="198"/>
+      <c r="D32" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="198" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B33" s="198" t="s">
+        <v>4066</v>
+      </c>
+      <c r="C33" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D33" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="198" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B34" s="198" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C34" s="198" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D34" s="199">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="198" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B35" s="198" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C35" s="198" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D35" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="198" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B36" s="198" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C36" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D36" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="198" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B37" s="198" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C37" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D37" s="199">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="198" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B38" s="198" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C38" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D38" s="199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="198" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B39" s="198" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C39" s="198" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D39" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="198" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B40" s="198" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C40" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D40" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="198" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B41" s="198" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C41" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D41" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="198" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B42" s="198" t="s">
+        <v>3999</v>
+      </c>
+      <c r="C42" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D42" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="198" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B43" s="198" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C43" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D43" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="198" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B44" s="198" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C44" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D44" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="198" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B45" s="198" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C45" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D45" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="198" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B46" s="198" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C46" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D46" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="198" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B47" s="198" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C47" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D47" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="198" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B48" s="198" t="s">
+        <v>4008</v>
+      </c>
+      <c r="C48" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D48" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="198" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B49" s="198" t="s">
+        <v>4088</v>
+      </c>
+      <c r="C49" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D49" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="198" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B50" s="198" t="s">
+        <v>4009</v>
+      </c>
+      <c r="C50" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D50" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="198" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B51" s="198" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C51" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D51" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="198" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B52" s="198" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C52" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D52" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="198" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B53" s="198" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C53" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D53" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="198" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B54" s="198" t="s">
+        <v>4097</v>
+      </c>
+      <c r="C54" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D54" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="198" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B55" s="198" t="s">
+        <v>4099</v>
+      </c>
+      <c r="C55" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D55" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="198" t="s">
+        <v>4100</v>
+      </c>
+      <c r="B56" s="198" t="s">
+        <v>3978</v>
+      </c>
+      <c r="C56" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D56" s="199">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="198" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B57" s="198" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C57" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D57" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="198" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B58" s="198" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C58" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D58" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="198" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B59" s="198" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C59" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D59" s="199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="198" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B60" s="198" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C60" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D60" s="199">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="198" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B61" s="198" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C61" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D61" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="198" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B62" s="198" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C62" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D62" s="199">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="198" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B63" s="198" t="s">
+        <v>3996</v>
+      </c>
+      <c r="C63" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D63" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="198" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B64" s="198" t="s">
+        <v>3997</v>
+      </c>
+      <c r="C64" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D64" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="198" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B65" s="198" t="s">
+        <v>4115</v>
+      </c>
+      <c r="C65" s="198"/>
+      <c r="D65" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="198" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B66" s="198" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C66" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D66" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="198" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B67" s="198" t="s">
+        <v>4119</v>
+      </c>
+      <c r="C67" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D67" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="198" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B68" s="198" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C68" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D68" s="199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="198" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B69" s="198" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C69" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D69" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="198" t="s">
+        <v>4124</v>
+      </c>
+      <c r="B70" s="198" t="s">
+        <v>4125</v>
+      </c>
+      <c r="C70" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D70" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="198" t="s">
+        <v>4126</v>
+      </c>
+      <c r="B71" s="198" t="s">
+        <v>4127</v>
+      </c>
+      <c r="C71" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D71" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="198" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B72" s="198" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C72" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D72" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="198" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B73" s="198" t="s">
+        <v>3983</v>
+      </c>
+      <c r="C73" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D73" s="199">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="198" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B74" s="198" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C74" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D74" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="198" t="s">
+        <v>4133</v>
+      </c>
+      <c r="B75" s="198" t="s">
+        <v>4134</v>
+      </c>
+      <c r="C75" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D75" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="198" t="s">
+        <v>4135</v>
+      </c>
+      <c r="B76" s="198" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C76" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D76" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="198" t="s">
+        <v>4137</v>
+      </c>
+      <c r="B77" s="198" t="s">
+        <v>4138</v>
+      </c>
+      <c r="C77" s="198" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D77" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="198" t="s">
+        <v>4139</v>
+      </c>
+      <c r="B78" s="198" t="s">
+        <v>3985</v>
+      </c>
+      <c r="C78" s="198"/>
+      <c r="D78" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="198" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B79" s="198" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C79" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D79" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="198" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B80" s="198" t="s">
+        <v>4142</v>
+      </c>
+      <c r="C80" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D80" s="199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="198" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B81" s="198" t="s">
+        <v>4144</v>
+      </c>
+      <c r="C81" s="198" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D81" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="198" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B82" s="198" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C82" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D82" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="198" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B83" s="198" t="s">
+        <v>4148</v>
+      </c>
+      <c r="C83" s="198" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D83" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="198" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B84" s="198" t="s">
+        <v>3956</v>
+      </c>
+      <c r="C84" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D84" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="198" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B85" s="198" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C85" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D85" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="198" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B86" s="198" t="s">
+        <v>3961</v>
+      </c>
+      <c r="C86" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D86" s="199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="198" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B87" s="198" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C87" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D87" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="198" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B88" s="198" t="s">
+        <v>4154</v>
+      </c>
+      <c r="C88" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D88" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="198" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B89" s="198" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C89" s="198"/>
+      <c r="D89" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="198" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B90" s="198" t="s">
+        <v>3970</v>
+      </c>
+      <c r="C90" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D90" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="198" t="s">
+        <v>4157</v>
+      </c>
+      <c r="B91" s="198" t="s">
+        <v>3971</v>
+      </c>
+      <c r="C91" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D91" s="199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="198" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B92" s="198" t="s">
+        <v>4159</v>
+      </c>
+      <c r="C92" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D92" s="199">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="198" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B93" s="198" t="s">
+        <v>4161</v>
+      </c>
+      <c r="C93" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D93" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="198" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B94" s="198" t="s">
         <v>3965</v>
       </c>
-      <c r="G144" t="s">
-        <v>3614</v>
+      <c r="C94" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D94" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="198" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B95" s="198" t="s">
+        <v>4164</v>
+      </c>
+      <c r="C95" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D95" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="198" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B96" s="198" t="s">
+        <v>3976</v>
+      </c>
+      <c r="C96" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D96" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="198" t="s">
+        <v>4166</v>
+      </c>
+      <c r="B97" s="198" t="s">
+        <v>3973</v>
+      </c>
+      <c r="C97" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D97" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="198" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B98" s="198" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C98" s="198"/>
+      <c r="D98" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="198" t="s">
+        <v>4169</v>
+      </c>
+      <c r="B99" s="198" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C99" s="198"/>
+      <c r="D99" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="198" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B100" s="198" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C100" s="198"/>
+      <c r="D100" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="198" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B101" s="198" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C101" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D101" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="198" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B102" s="198" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C102" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D102" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="198" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B103" s="198" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C103" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D103" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="198" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B104" s="198" t="s">
+        <v>4177</v>
+      </c>
+      <c r="C104" s="198" t="s">
+        <v>4178</v>
+      </c>
+      <c r="D104" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="198" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B105" s="198" t="s">
+        <v>3960</v>
+      </c>
+      <c r="C105" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D105" s="199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="198" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B106" s="198" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C106" s="198"/>
+      <c r="D106" s="199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="198" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B107" s="198" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C107" s="198"/>
+      <c r="D107" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="198" t="s">
+        <v>4183</v>
+      </c>
+      <c r="B108" s="198" t="s">
+        <v>3952</v>
+      </c>
+      <c r="C108" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D108" s="199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="198" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B109" s="198" t="s">
+        <v>4185</v>
+      </c>
+      <c r="C109" s="198"/>
+      <c r="D109" s="199">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="198" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B110" s="198" t="s">
+        <v>4187</v>
+      </c>
+      <c r="C110" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D110" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="198" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B111" s="198" t="s">
+        <v>4189</v>
+      </c>
+      <c r="C111" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D111" s="199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="198" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B112" s="198" t="s">
+        <v>3974</v>
+      </c>
+      <c r="C112" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D112" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="198" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B113" s="198" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C113" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D113" s="199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="198" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B114" s="198" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C114" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D114" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="198" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B115" s="198" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C115" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D115" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="198" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B116" s="198" t="s">
+        <v>4196</v>
+      </c>
+      <c r="C116" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D116" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="198" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B117" s="198" t="s">
+        <v>3963</v>
+      </c>
+      <c r="C117" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D117" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="198" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B118" s="198" t="s">
+        <v>3977</v>
+      </c>
+      <c r="C118" s="198"/>
+      <c r="D118" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="198" t="s">
+        <v>4199</v>
+      </c>
+      <c r="B119" s="198" t="s">
+        <v>4200</v>
+      </c>
+      <c r="C119" s="198" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D119" s="199">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="198" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B120" s="198" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C120" s="198"/>
+      <c r="D120" s="199">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="198" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B121" s="198" t="s">
+        <v>4204</v>
+      </c>
+      <c r="C121" s="198"/>
+      <c r="D121" s="199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="198" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B122" s="198" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C122" s="198"/>
+      <c r="D122" s="199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="198" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B123" s="198" t="s">
+        <v>4207</v>
+      </c>
+      <c r="C123" s="198"/>
+      <c r="D123" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="198" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B124" s="198" t="s">
+        <v>4209</v>
+      </c>
+      <c r="C124" s="198"/>
+      <c r="D124" s="199">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="198" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B125" s="198" t="s">
+        <v>4211</v>
+      </c>
+      <c r="C125" s="198" t="s">
+        <v>4212</v>
+      </c>
+      <c r="D125" s="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="198" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B126" s="198" t="s">
+        <v>4214</v>
+      </c>
+      <c r="C126" s="198"/>
+      <c r="D126" s="199">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DB_AGMS.xlsx
+++ b/DB_AGMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrespuertagonzalez/Documents/AGMS_Analitics/Datos/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB8E4E-6629-F942-B078-13D637D2A6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A605C882-6DA2-804E-A330-9B6EB9A465C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Metadatos" sheetId="3" r:id="rId3"/>
     <sheet name="Cartera" sheetId="13" r:id="rId4"/>
     <sheet name="Productos" sheetId="14" r:id="rId5"/>
-    <sheet name="Hoja1" sheetId="15" r:id="rId6"/>
+    <sheet name="Inventario" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Lista Medicos'!$A$1:$G$1045</definedName>
@@ -14338,8 +14338,8 @@
   </sheetPr>
   <dimension ref="A1:J1359"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="151" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1244" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="151" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1242" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="D1239" sqref="D1239"/>
     </sheetView>
@@ -75582,8 +75582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925868F2-EAF0-1549-A5AE-CF82CA03C71B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -79679,7 +79679,7 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/DB_AGMS.xlsx
+++ b/DB_AGMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrespuertagonzalez/Documents/AGMS_Analitics/Datos/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A605C882-6DA2-804E-A330-9B6EB9A465C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C939348-0D19-CB41-A4BD-622FFAC4C131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12893" uniqueCount="4266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12893" uniqueCount="4264">
   <si>
     <t>Gestión de Venta</t>
   </si>
@@ -11906,13 +11906,7 @@
     <t>Age Defense Treatment</t>
   </si>
   <si>
-    <t>Micelar Water - 400ml</t>
-  </si>
-  <si>
     <t>No aplica</t>
-  </si>
-  <si>
-    <t>DD Urban Protec Cream LIGHT</t>
   </si>
   <si>
     <t>Deep Cleanser 3 en 1 - 150 ml</t>
@@ -14338,7 +14332,7 @@
   </sheetPr>
   <dimension ref="A1:J1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="151" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="151" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1242" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="D1239" sqref="D1239"/>
@@ -50835,7 +50829,7 @@
         <v>3825</v>
       </c>
       <c r="H1227" s="15" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="I1227" s="43" t="s">
         <v>313</v>
@@ -50864,7 +50858,7 @@
         <v>3826</v>
       </c>
       <c r="H1228" s="15" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="I1228" s="43" t="s">
         <v>313</v>
@@ -50893,7 +50887,7 @@
         <v>3808</v>
       </c>
       <c r="H1229" s="15" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="I1229" s="43" t="s">
         <v>313</v>
@@ -50922,7 +50916,7 @@
         <v>3827</v>
       </c>
       <c r="H1230" s="15" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="I1230" s="43" t="s">
         <v>313</v>
@@ -50951,7 +50945,7 @@
         <v>3781</v>
       </c>
       <c r="H1231" s="15" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="I1231" s="43" t="s">
         <v>313</v>
@@ -50980,7 +50974,7 @@
         <v>3783</v>
       </c>
       <c r="H1232" s="15" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="I1232" s="43" t="s">
         <v>313</v>
@@ -51009,7 +51003,7 @@
         <v>3829</v>
       </c>
       <c r="H1233" s="15" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="I1233" s="43" t="s">
         <v>313</v>
@@ -51038,7 +51032,7 @@
         <v>3812</v>
       </c>
       <c r="H1234" s="15" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="I1234" s="43" t="s">
         <v>313</v>
@@ -51067,7 +51061,7 @@
         <v>3863</v>
       </c>
       <c r="H1235" s="15" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="I1235" s="43" t="s">
         <v>313</v>
@@ -51096,7 +51090,7 @@
         <v>3757</v>
       </c>
       <c r="H1236" s="15" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="I1236" s="43" t="s">
         <v>313</v>
@@ -51116,16 +51110,16 @@
         <v>3870</v>
       </c>
       <c r="E1237" s="62" t="s">
-        <v>4251</v>
+        <v>4249</v>
       </c>
       <c r="F1237" s="14">
         <v>6</v>
       </c>
       <c r="G1237" s="52" t="s">
-        <v>4252</v>
+        <v>4250</v>
       </c>
       <c r="H1237" s="15" t="s">
-        <v>4253</v>
+        <v>4251</v>
       </c>
       <c r="I1237" s="43" t="s">
         <v>14</v>
@@ -51145,16 +51139,16 @@
         <v>3867</v>
       </c>
       <c r="E1238" s="62" t="s">
-        <v>4251</v>
+        <v>4249</v>
       </c>
       <c r="F1238" s="14">
         <v>6</v>
       </c>
       <c r="G1238" s="52" t="s">
-        <v>4252</v>
+        <v>4250</v>
       </c>
       <c r="H1238" s="15" t="s">
-        <v>4253</v>
+        <v>4251</v>
       </c>
       <c r="I1238" s="43" t="s">
         <v>14</v>
@@ -51168,7 +51162,7 @@
         <v>33</v>
       </c>
       <c r="C1239" s="14" t="s">
-        <v>4254</v>
+        <v>4252</v>
       </c>
       <c r="D1239" s="14" t="s">
         <v>136</v>
@@ -51183,7 +51177,7 @@
         <v>3844</v>
       </c>
       <c r="H1239" s="15" t="s">
-        <v>4255</v>
+        <v>4253</v>
       </c>
       <c r="I1239" s="43" t="s">
         <v>14</v>
@@ -51212,7 +51206,7 @@
         <v>3794</v>
       </c>
       <c r="H1240" s="15" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
       <c r="I1240" s="43" t="s">
         <v>14</v>
@@ -51241,7 +51235,7 @@
         <v>3841</v>
       </c>
       <c r="H1241" s="15" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
       <c r="I1241" s="43" t="s">
         <v>14</v>
@@ -51267,10 +51261,10 @@
         <v>6</v>
       </c>
       <c r="G1242" s="52" t="s">
-        <v>4257</v>
+        <v>4255</v>
       </c>
       <c r="H1242" s="15" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
       <c r="I1242" s="43" t="s">
         <v>14</v>
@@ -51299,7 +51293,7 @@
         <v>3766</v>
       </c>
       <c r="H1243" s="15" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
       <c r="I1243" s="43" t="s">
         <v>14</v>
@@ -51325,10 +51319,10 @@
         <v>10</v>
       </c>
       <c r="G1244" s="52" t="s">
-        <v>4258</v>
+        <v>4256</v>
       </c>
       <c r="H1244" s="15" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
       <c r="I1244" s="43" t="s">
         <v>14</v>
@@ -51357,7 +51351,7 @@
         <v>3766</v>
       </c>
       <c r="H1245" s="15" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
       <c r="I1245" s="43" t="s">
         <v>14</v>
@@ -51368,7 +51362,7 @@
         <v>45902</v>
       </c>
       <c r="B1246" s="41" t="s">
-        <v>4259</v>
+        <v>4257</v>
       </c>
       <c r="C1246" s="14" t="s">
         <v>3881</v>
@@ -51386,7 +51380,7 @@
         <v>3882</v>
       </c>
       <c r="H1246" s="15" t="s">
-        <v>4260</v>
+        <v>4258</v>
       </c>
       <c r="I1246" s="43" t="s">
         <v>313</v>
@@ -51397,7 +51391,7 @@
         <v>45902</v>
       </c>
       <c r="B1247" s="41" t="s">
-        <v>4259</v>
+        <v>4257</v>
       </c>
       <c r="C1247" s="14" t="s">
         <v>3881</v>
@@ -51406,16 +51400,16 @@
         <v>411</v>
       </c>
       <c r="E1247" s="62" t="s">
-        <v>4261</v>
+        <v>4259</v>
       </c>
       <c r="F1247" s="14">
         <v>2</v>
       </c>
       <c r="G1247" s="52" t="s">
-        <v>4262</v>
+        <v>4260</v>
       </c>
       <c r="H1247" s="15" t="s">
-        <v>4260</v>
+        <v>4258</v>
       </c>
       <c r="I1247" s="43" t="s">
         <v>313</v>
@@ -51444,7 +51438,7 @@
         <v>3764</v>
       </c>
       <c r="H1248" s="15" t="s">
-        <v>4263</v>
+        <v>4261</v>
       </c>
       <c r="I1248" s="43" t="s">
         <v>14</v>
@@ -51473,7 +51467,7 @@
         <v>3841</v>
       </c>
       <c r="H1249" s="15" t="s">
-        <v>4264</v>
+        <v>4262</v>
       </c>
       <c r="I1249" s="43" t="s">
         <v>14</v>
@@ -51502,7 +51496,7 @@
         <v>3846</v>
       </c>
       <c r="H1250" s="15" t="s">
-        <v>4264</v>
+        <v>4262</v>
       </c>
       <c r="I1250" s="43" t="s">
         <v>14</v>
@@ -75606,7 +75600,7 @@
         <v>3616</v>
       </c>
       <c r="C1" s="150" t="s">
-        <v>4265</v>
+        <v>4263</v>
       </c>
       <c r="D1" s="150" t="s">
         <v>3617</v>
@@ -76349,8 +76343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE787CD-2F1F-ED42-8EA4-E89B8397361C}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -76375,13 +76369,13 @@
         <v>3893</v>
       </c>
       <c r="D1" t="s">
+        <v>4213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="F1" t="s">
         <v>4215</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4217</v>
       </c>
       <c r="G1" t="s">
         <v>3537</v>
@@ -76389,10 +76383,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3952</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C2" t="s">
         <v>3894</v>
@@ -76412,7 +76406,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>3953</v>
+        <v>573</v>
       </c>
       <c r="B3" t="s">
         <v>3896</v>
@@ -76427,7 +76421,7 @@
         <v>3897</v>
       </c>
       <c r="F3" s="200" t="s">
-        <v>4219</v>
+        <v>4217</v>
       </c>
       <c r="G3" t="s">
         <v>3547</v>
@@ -76435,7 +76429,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>3955</v>
+        <v>3548</v>
       </c>
       <c r="B4" t="s">
         <v>3898</v>
@@ -76450,7 +76444,7 @@
         <v>3891</v>
       </c>
       <c r="F4" s="200" t="s">
-        <v>4220</v>
+        <v>4218</v>
       </c>
       <c r="G4" t="s">
         <v>3547</v>
@@ -76473,7 +76467,7 @@
         <v>3891</v>
       </c>
       <c r="F5" s="200" t="s">
-        <v>4220</v>
+        <v>4218</v>
       </c>
       <c r="G5" t="s">
         <v>3547</v>
@@ -76496,7 +76490,7 @@
         <v>3901</v>
       </c>
       <c r="F6" s="200" t="s">
-        <v>4221</v>
+        <v>4219</v>
       </c>
       <c r="G6" t="s">
         <v>3547</v>
@@ -76519,7 +76513,7 @@
         <v>3902</v>
       </c>
       <c r="F7" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G7" t="s">
         <v>3547</v>
@@ -76527,7 +76521,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>4222</v>
+        <v>4220</v>
       </c>
       <c r="B8" t="s">
         <v>3900</v>
@@ -76550,7 +76544,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>4223</v>
+        <v>4221</v>
       </c>
       <c r="B9" t="s">
         <v>3896</v>
@@ -76562,7 +76556,7 @@
         <v>3899</v>
       </c>
       <c r="E9" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="F9" s="200" t="s">
         <v>3905</v>
@@ -76588,7 +76582,7 @@
         <v>3905</v>
       </c>
       <c r="F10" s="200" t="s">
-        <v>4224</v>
+        <v>4222</v>
       </c>
       <c r="G10" t="s">
         <v>3547</v>
@@ -76611,7 +76605,7 @@
         <v>3768</v>
       </c>
       <c r="F11" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G11" t="s">
         <v>3547</v>
@@ -76634,7 +76628,7 @@
         <v>3836</v>
       </c>
       <c r="F12" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G12" t="s">
         <v>3547</v>
@@ -76657,7 +76651,7 @@
         <v>3906</v>
       </c>
       <c r="F13" s="200" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="G13" t="s">
         <v>3547</v>
@@ -76772,7 +76766,7 @@
         <v>3814</v>
       </c>
       <c r="F18" s="200" t="s">
-        <v>4226</v>
+        <v>4224</v>
       </c>
       <c r="G18" t="s">
         <v>3547</v>
@@ -76826,7 +76820,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
       <c r="B21" t="s">
         <v>3896</v>
@@ -76861,7 +76855,7 @@
         <v>3899</v>
       </c>
       <c r="E22" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="F22" s="200" t="s">
         <v>3907</v>
@@ -76887,7 +76881,7 @@
         <v>3768</v>
       </c>
       <c r="F23" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G23" t="s">
         <v>3547</v>
@@ -76933,7 +76927,7 @@
         <v>3889</v>
       </c>
       <c r="F25" s="200" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
       <c r="G25" t="s">
         <v>3547</v>
@@ -76941,7 +76935,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>4229</v>
+        <v>4227</v>
       </c>
       <c r="B26" t="s">
         <v>3900</v>
@@ -76956,7 +76950,7 @@
         <v>3887</v>
       </c>
       <c r="F26" s="200" t="s">
-        <v>4230</v>
+        <v>4228</v>
       </c>
       <c r="G26" t="s">
         <v>3547</v>
@@ -76976,7 +76970,7 @@
         <v>3899</v>
       </c>
       <c r="E27" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="F27" s="200" t="s">
         <v>3902</v>
@@ -76987,7 +76981,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>4231</v>
+        <v>4229</v>
       </c>
       <c r="B28" t="s">
         <v>3896</v>
@@ -77025,7 +77019,7 @@
         <v>3909</v>
       </c>
       <c r="F29" s="200" t="s">
-        <v>4232</v>
+        <v>4230</v>
       </c>
       <c r="G29" t="s">
         <v>3547</v>
@@ -77094,7 +77088,7 @@
         <v>3736</v>
       </c>
       <c r="F32" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G32" t="s">
         <v>3547</v>
@@ -77117,7 +77111,7 @@
         <v>3736</v>
       </c>
       <c r="F33" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G33" t="s">
         <v>3547</v>
@@ -77140,7 +77134,7 @@
         <v>3736</v>
       </c>
       <c r="F34" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G34" t="s">
         <v>3547</v>
@@ -77163,7 +77157,7 @@
         <v>3764</v>
       </c>
       <c r="F35" s="200" t="s">
-        <v>4226</v>
+        <v>4224</v>
       </c>
       <c r="G35" t="s">
         <v>3547</v>
@@ -77209,7 +77203,7 @@
         <v>3916</v>
       </c>
       <c r="F37" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G37" t="s">
         <v>3547</v>
@@ -77232,7 +77226,7 @@
         <v>3917</v>
       </c>
       <c r="F38" s="200" t="s">
-        <v>4232</v>
+        <v>4230</v>
       </c>
       <c r="G38" t="s">
         <v>3547</v>
@@ -77255,7 +77249,7 @@
         <v>3825</v>
       </c>
       <c r="F39" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G39" t="s">
         <v>3582</v>
@@ -77278,7 +77272,7 @@
         <v>3824</v>
       </c>
       <c r="F40" s="200" t="s">
-        <v>4233</v>
+        <v>4231</v>
       </c>
       <c r="G40" t="s">
         <v>3582</v>
@@ -77332,7 +77326,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>4234</v>
+        <v>4232</v>
       </c>
       <c r="B43" t="s">
         <v>3898</v>
@@ -77355,7 +77349,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>4235</v>
+        <v>4233</v>
       </c>
       <c r="B44" t="s">
         <v>3898</v>
@@ -77370,7 +77364,7 @@
         <v>3918</v>
       </c>
       <c r="F44" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G44" t="s">
         <v>3582</v>
@@ -77416,7 +77410,7 @@
         <v>3827</v>
       </c>
       <c r="F46" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G46" t="s">
         <v>3582</v>
@@ -77485,7 +77479,7 @@
         <v>3808</v>
       </c>
       <c r="F49" s="200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="G49" t="s">
         <v>3582</v>
@@ -77519,7 +77513,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C51" t="s">
         <v>3894</v>
@@ -77531,7 +77525,7 @@
         <v>3921</v>
       </c>
       <c r="F51" s="201" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="G51" t="s">
         <v>3582</v>
@@ -77542,7 +77536,7 @@
         <v>488</v>
       </c>
       <c r="B52" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C52" t="s">
         <v>3894</v>
@@ -77565,7 +77559,7 @@
         <v>3870</v>
       </c>
       <c r="B53" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C53" t="s">
         <v>3894</v>
@@ -77608,7 +77602,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>4236</v>
+        <v>4234</v>
       </c>
       <c r="B55" t="s">
         <v>3900</v>
@@ -77692,7 +77686,7 @@
         <v>3812</v>
       </c>
       <c r="F58" s="201" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="G58" t="s">
         <v>3582</v>
@@ -77738,7 +77732,7 @@
         <v>3825</v>
       </c>
       <c r="F60" s="201" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="G60" t="s">
         <v>3582</v>
@@ -77876,7 +77870,7 @@
         <v>3863</v>
       </c>
       <c r="F66" s="201" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="G66" t="s">
         <v>3582</v>
@@ -77922,7 +77916,7 @@
         <v>3925</v>
       </c>
       <c r="F68" s="201" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="G68" t="s">
         <v>3582</v>
@@ -77968,7 +77962,7 @@
         <v>3785</v>
       </c>
       <c r="F70" s="201" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="G70" t="s">
         <v>3582</v>
@@ -77988,10 +77982,10 @@
         <v>3899</v>
       </c>
       <c r="E71" s="200" t="s">
-        <v>4237</v>
+        <v>4235</v>
       </c>
       <c r="F71" s="201" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="G71" t="s">
         <v>3582</v>
@@ -78037,7 +78031,7 @@
         <v>3915</v>
       </c>
       <c r="F73" s="201" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="G73" t="s">
         <v>3582</v>
@@ -78083,7 +78077,7 @@
         <v>3810</v>
       </c>
       <c r="F75" s="201" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="G75" t="s">
         <v>3582</v>
@@ -78152,7 +78146,7 @@
         <v>3929</v>
       </c>
       <c r="F78" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G78" t="s">
         <v>3582</v>
@@ -78221,7 +78215,7 @@
         <v>3925</v>
       </c>
       <c r="F81" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G81" t="s">
         <v>3582</v>
@@ -78244,7 +78238,7 @@
         <v>3932</v>
       </c>
       <c r="F82" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G82" t="s">
         <v>3582</v>
@@ -78267,7 +78261,7 @@
         <v>3933</v>
       </c>
       <c r="F83" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G83" t="s">
         <v>3582</v>
@@ -78382,7 +78376,7 @@
         <v>3818</v>
       </c>
       <c r="F88" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G88" t="s">
         <v>3582</v>
@@ -78390,10 +78384,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>4238</v>
+        <v>4236</v>
       </c>
       <c r="B89" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C89" t="s">
         <v>3894</v>
@@ -78405,7 +78399,7 @@
         <v>3798</v>
       </c>
       <c r="F89" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G89" t="s">
         <v>3582</v>
@@ -78416,7 +78410,7 @@
         <v>332</v>
       </c>
       <c r="B90" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C90" t="s">
         <v>3894</v>
@@ -78439,7 +78433,7 @@
         <v>3600</v>
       </c>
       <c r="B91" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C91" t="s">
         <v>3894</v>
@@ -78462,7 +78456,7 @@
         <v>3601</v>
       </c>
       <c r="B92" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C92" t="s">
         <v>3894</v>
@@ -78485,7 +78479,7 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C93" t="s">
         <v>3894</v>
@@ -78497,7 +78491,7 @@
         <v>3602</v>
       </c>
       <c r="F93" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G93" t="s">
         <v>3582</v>
@@ -78508,7 +78502,7 @@
         <v>236</v>
       </c>
       <c r="B94" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C94" t="s">
         <v>3894</v>
@@ -78531,7 +78525,7 @@
         <v>617</v>
       </c>
       <c r="B95" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C95" t="s">
         <v>3894</v>
@@ -78543,7 +78537,7 @@
         <v>3816</v>
       </c>
       <c r="F95" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G95" t="s">
         <v>3582</v>
@@ -78554,7 +78548,7 @@
         <v>540</v>
       </c>
       <c r="B96" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C96" t="s">
         <v>3894</v>
@@ -78692,7 +78686,7 @@
         <v>3605</v>
       </c>
       <c r="B102" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C102" t="s">
         <v>3894</v>
@@ -78704,7 +78698,7 @@
         <v>3940</v>
       </c>
       <c r="F102" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G102" t="s">
         <v>3582</v>
@@ -78727,7 +78721,7 @@
         <v>3829</v>
       </c>
       <c r="F103" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G103" t="s">
         <v>3582</v>
@@ -78750,7 +78744,7 @@
         <v>3875</v>
       </c>
       <c r="F104" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G104" t="s">
         <v>3582</v>
@@ -78773,7 +78767,7 @@
         <v>3879</v>
       </c>
       <c r="F105" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G105" t="s">
         <v>3582</v>
@@ -78796,7 +78790,7 @@
         <v>3781</v>
       </c>
       <c r="F106" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G106" t="s">
         <v>3582</v>
@@ -78819,7 +78813,7 @@
         <v>3941</v>
       </c>
       <c r="F107" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G107" t="s">
         <v>3582</v>
@@ -78842,7 +78836,7 @@
         <v>3783</v>
       </c>
       <c r="F108" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G108" t="s">
         <v>3582</v>
@@ -78853,7 +78847,7 @@
         <v>3942</v>
       </c>
       <c r="B109" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C109" t="s">
         <v>3894</v>
@@ -78865,7 +78859,7 @@
         <v>3943</v>
       </c>
       <c r="F109" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G109" t="s">
         <v>3582</v>
@@ -78888,7 +78882,7 @@
         <v>3877</v>
       </c>
       <c r="F110" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G110" t="s">
         <v>3582</v>
@@ -78911,7 +78905,7 @@
         <v>3745</v>
       </c>
       <c r="F111" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G111" t="s">
         <v>3582</v>
@@ -78934,7 +78928,7 @@
         <v>3757</v>
       </c>
       <c r="F112" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G112" t="s">
         <v>3582</v>
@@ -78957,7 +78951,7 @@
         <v>3944</v>
       </c>
       <c r="F113" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G113" t="s">
         <v>3607</v>
@@ -78968,7 +78962,7 @@
         <v>76</v>
       </c>
       <c r="B114" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C114" t="s">
         <v>3894</v>
@@ -78980,7 +78974,7 @@
         <v>3841</v>
       </c>
       <c r="F114" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G114" t="s">
         <v>3608</v>
@@ -79003,7 +78997,7 @@
         <v>3844</v>
       </c>
       <c r="F115" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G115" t="s">
         <v>3608</v>
@@ -79026,7 +79020,7 @@
         <v>3844</v>
       </c>
       <c r="F116" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G116" t="s">
         <v>3608</v>
@@ -79049,7 +79043,7 @@
         <v>3841</v>
       </c>
       <c r="F117" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G117" t="s">
         <v>3608</v>
@@ -79072,7 +79066,7 @@
         <v>3841</v>
       </c>
       <c r="F118" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G118" t="s">
         <v>3608</v>
@@ -79095,7 +79089,7 @@
         <v>3841</v>
       </c>
       <c r="F119" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G119" t="s">
         <v>3608</v>
@@ -79106,7 +79100,7 @@
         <v>3741</v>
       </c>
       <c r="B120" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C120" t="s">
         <v>3894</v>
@@ -79118,7 +79112,7 @@
         <v>3846</v>
       </c>
       <c r="F120" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G120" t="s">
         <v>3608</v>
@@ -79129,7 +79123,7 @@
         <v>3849</v>
       </c>
       <c r="B121" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C121" t="s">
         <v>3894</v>
@@ -79141,7 +79135,7 @@
         <v>3947</v>
       </c>
       <c r="F121" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G121" t="s">
         <v>3608</v>
@@ -79164,7 +79158,7 @@
         <v>3749</v>
       </c>
       <c r="F122" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G122" t="s">
         <v>3608</v>
@@ -79187,7 +79181,7 @@
         <v>3749</v>
       </c>
       <c r="F123" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G123" t="s">
         <v>3608</v>
@@ -79210,7 +79204,7 @@
         <v>3749</v>
       </c>
       <c r="F124" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G124" t="s">
         <v>3608</v>
@@ -79218,10 +79212,10 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>4239</v>
+        <v>4237</v>
       </c>
       <c r="B125" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C125" t="s">
         <v>3894</v>
@@ -79233,7 +79227,7 @@
         <v>3946</v>
       </c>
       <c r="F125" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G125" t="s">
         <v>3608</v>
@@ -79241,7 +79235,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>4240</v>
+        <v>4238</v>
       </c>
       <c r="B126" t="s">
         <v>3896</v>
@@ -79256,7 +79250,7 @@
         <v>3946</v>
       </c>
       <c r="F126" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G126" t="s">
         <v>3608</v>
@@ -79264,7 +79258,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>4241</v>
+        <v>4239</v>
       </c>
       <c r="B127" t="s">
         <v>3896</v>
@@ -79279,7 +79273,7 @@
         <v>3946</v>
       </c>
       <c r="F127" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G127" t="s">
         <v>3608</v>
@@ -79302,7 +79296,7 @@
         <v>3841</v>
       </c>
       <c r="F128" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G128" t="s">
         <v>3608</v>
@@ -79325,7 +79319,7 @@
         <v>3857</v>
       </c>
       <c r="F129" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G129" t="s">
         <v>3608</v>
@@ -79348,7 +79342,7 @@
         <v>3794</v>
       </c>
       <c r="F130" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G130" t="s">
         <v>3608</v>
@@ -79362,7 +79356,7 @@
         <v>3896</v>
       </c>
       <c r="C131" t="s">
-        <v>4242</v>
+        <v>4240</v>
       </c>
       <c r="D131" t="s">
         <v>3895</v>
@@ -79371,7 +79365,7 @@
         <v>3853</v>
       </c>
       <c r="F131" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G131" t="s">
         <v>3608</v>
@@ -79379,7 +79373,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>4243</v>
+        <v>4241</v>
       </c>
       <c r="B132" t="s">
         <v>3896</v>
@@ -79394,7 +79388,7 @@
         <v>3853</v>
       </c>
       <c r="F132" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G132" t="s">
         <v>3608</v>
@@ -79402,7 +79396,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="B133" t="s">
         <v>3896</v>
@@ -79417,7 +79411,7 @@
         <v>3949</v>
       </c>
       <c r="F133" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G133" t="s">
         <v>3608</v>
@@ -79440,7 +79434,7 @@
         <v>3853</v>
       </c>
       <c r="F134" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G134" t="s">
         <v>3608</v>
@@ -79463,7 +79457,7 @@
         <v>3853</v>
       </c>
       <c r="F135" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G135" t="s">
         <v>3608</v>
@@ -79486,7 +79480,7 @@
         <v>3950</v>
       </c>
       <c r="F136" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G136" t="s">
         <v>3608</v>
@@ -79497,7 +79491,7 @@
         <v>109</v>
       </c>
       <c r="B137" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C137" t="s">
         <v>3894</v>
@@ -79509,7 +79503,7 @@
         <v>3853</v>
       </c>
       <c r="F137" s="201" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="G137" t="s">
         <v>3608</v>
@@ -79517,7 +79511,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>4245</v>
+        <v>4243</v>
       </c>
       <c r="B138" t="s">
         <v>3896</v>
@@ -79540,7 +79534,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>4246</v>
+        <v>4244</v>
       </c>
       <c r="B139" t="s">
         <v>3896</v>
@@ -79563,10 +79557,10 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>4247</v>
+        <v>4245</v>
       </c>
       <c r="B140" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="C140" t="s">
         <v>3894</v>
@@ -79692,24 +79686,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32">
       <c r="A1" s="197" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B1" s="197" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C1" s="197" t="s">
         <v>4012</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="D1" s="197" t="s">
         <v>4013</v>
-      </c>
-      <c r="C1" s="197" t="s">
-        <v>4014</v>
-      </c>
-      <c r="D1" s="197" t="s">
-        <v>4015</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="198" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="B2" s="198" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="C2" s="198"/>
       <c r="D2" s="199">
@@ -79718,13 +79712,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="198" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="B3" s="198" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="C3" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D3" s="199">
         <v>4</v>
@@ -79732,13 +79726,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="198" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="B4" s="198" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="C4" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D4" s="199">
         <v>3</v>
@@ -79746,13 +79740,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="198" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="B5" s="198" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="C5" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D5" s="199">
         <v>5</v>
@@ -79760,13 +79754,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="198" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="B6" s="198" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="C6" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D6" s="199">
         <v>2</v>
@@ -79774,13 +79768,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="198" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="B7" s="198" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="C7" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D7" s="199">
         <v>3</v>
@@ -79788,13 +79782,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="198" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="B8" s="198" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="C8" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D8" s="199">
         <v>4</v>
@@ -79802,13 +79796,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="198" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="B9" s="198" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
       <c r="C9" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D9" s="199">
         <v>3</v>
@@ -79816,13 +79810,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="198" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B10" s="198" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C10" s="198" t="s">
         <v>4031</v>
-      </c>
-      <c r="B10" s="198" t="s">
-        <v>4032</v>
-      </c>
-      <c r="C10" s="198" t="s">
-        <v>4033</v>
       </c>
       <c r="D10" s="199">
         <v>17</v>
@@ -79830,13 +79824,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="198" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
       <c r="B11" s="198" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="C11" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D11" s="199">
         <v>-1</v>
@@ -79844,13 +79838,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="198" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="B12" s="198" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="C12" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D12" s="199">
         <v>3</v>
@@ -79858,13 +79852,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="198" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="B13" s="198" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="C13" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D13" s="199">
         <v>3</v>
@@ -79872,13 +79866,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="198" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="B14" s="198" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="C14" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D14" s="199">
         <v>1</v>
@@ -79886,13 +79880,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="198" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="B15" s="198" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="C15" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D15" s="199">
         <v>3</v>
@@ -79900,13 +79894,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="198" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="B16" s="198" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="C16" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D16" s="199">
         <v>1</v>
@@ -79914,13 +79908,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="198" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="B17" s="198" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
       <c r="C17" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D17" s="199">
         <v>3</v>
@@ -79928,13 +79922,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="198" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="B18" s="198" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="C18" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D18" s="199">
         <v>4</v>
@@ -79942,13 +79936,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="198" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="B19" s="198" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="C19" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D19" s="199">
         <v>2</v>
@@ -79956,13 +79950,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="198" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
       <c r="B20" s="198" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="C20" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D20" s="199">
         <v>1</v>
@@ -79970,13 +79964,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="198" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
       <c r="B21" s="198" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="C21" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D21" s="199">
         <v>3</v>
@@ -79984,10 +79978,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="198" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="B22" s="198" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
       <c r="C22" s="198"/>
       <c r="D22" s="199">
@@ -79996,13 +79990,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="198" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
       <c r="B23" s="198" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="C23" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D23" s="199">
         <v>2</v>
@@ -80010,13 +80004,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="198" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
       <c r="B24" s="198" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="C24" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D24" s="199">
         <v>3</v>
@@ -80024,10 +80018,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="198" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="B25" s="198" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
       <c r="C25" s="198"/>
       <c r="D25" s="199">
@@ -80036,13 +80030,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="198" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="B26" s="198" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
       <c r="C26" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D26" s="199">
         <v>1</v>
@@ -80050,13 +80044,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="198" t="s">
-        <v>4055</v>
+        <v>4053</v>
       </c>
       <c r="B27" s="198" t="s">
-        <v>4056</v>
+        <v>4054</v>
       </c>
       <c r="C27" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D27" s="199">
         <v>1</v>
@@ -80064,13 +80058,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="198" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="B28" s="198" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
       <c r="C28" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D28" s="199">
         <v>1</v>
@@ -80078,10 +80072,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="198" t="s">
-        <v>4059</v>
+        <v>4057</v>
       </c>
       <c r="B29" s="198" t="s">
-        <v>4060</v>
+        <v>4058</v>
       </c>
       <c r="C29" s="198"/>
       <c r="D29" s="199">
@@ -80090,13 +80084,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="198" t="s">
-        <v>4061</v>
+        <v>4059</v>
       </c>
       <c r="B30" s="198" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="C30" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D30" s="199">
         <v>1</v>
@@ -80104,13 +80098,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="198" t="s">
-        <v>4062</v>
+        <v>4060</v>
       </c>
       <c r="B31" s="198" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="C31" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D31" s="199">
         <v>4</v>
@@ -80118,10 +80112,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="198" t="s">
-        <v>4063</v>
+        <v>4061</v>
       </c>
       <c r="B32" s="198" t="s">
-        <v>4064</v>
+        <v>4062</v>
       </c>
       <c r="C32" s="198"/>
       <c r="D32" s="199">
@@ -80130,13 +80124,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="198" t="s">
-        <v>4065</v>
+        <v>4063</v>
       </c>
       <c r="B33" s="198" t="s">
-        <v>4066</v>
+        <v>4064</v>
       </c>
       <c r="C33" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D33" s="199">
         <v>1</v>
@@ -80144,10 +80138,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="198" t="s">
-        <v>4067</v>
+        <v>4065</v>
       </c>
       <c r="B34" s="198" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
       <c r="C34" s="198" t="s">
         <v>3582</v>
@@ -80158,10 +80152,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="198" t="s">
-        <v>4069</v>
+        <v>4067</v>
       </c>
       <c r="B35" s="198" t="s">
-        <v>4070</v>
+        <v>4068</v>
       </c>
       <c r="C35" s="198" t="s">
         <v>3582</v>
@@ -80172,13 +80166,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="198" t="s">
-        <v>4071</v>
+        <v>4069</v>
       </c>
       <c r="B36" s="198" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="C36" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D36" s="199">
         <v>2</v>
@@ -80186,13 +80180,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="198" t="s">
-        <v>4072</v>
+        <v>4070</v>
       </c>
       <c r="B37" s="198" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="C37" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D37" s="199">
         <v>-2</v>
@@ -80200,13 +80194,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="198" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
       <c r="B38" s="198" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
       <c r="C38" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D38" s="199">
         <v>4</v>
@@ -80214,10 +80208,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="198" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="B39" s="198" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="C39" s="198" t="s">
         <v>3582</v>
@@ -80228,13 +80222,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="198" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="B40" s="198" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="C40" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D40" s="199">
         <v>2</v>
@@ -80242,13 +80236,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="198" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="B41" s="198" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="C41" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D41" s="199">
         <v>1</v>
@@ -80256,13 +80250,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="198" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="B42" s="198" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="C42" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D42" s="199">
         <v>1</v>
@@ -80270,13 +80264,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="198" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="B43" s="198" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="C43" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D43" s="199">
         <v>1</v>
@@ -80284,13 +80278,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="198" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="B44" s="198" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="C44" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D44" s="199">
         <v>1</v>
@@ -80298,13 +80292,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="198" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="B45" s="198" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="C45" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D45" s="199">
         <v>1</v>
@@ -80312,13 +80306,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="198" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="B46" s="198" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="C46" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D46" s="199">
         <v>2</v>
@@ -80326,13 +80320,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="198" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="B47" s="198" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="C47" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D47" s="199">
         <v>1</v>
@@ -80340,13 +80334,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="198" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="B48" s="198" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="C48" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D48" s="199">
         <v>2</v>
@@ -80354,13 +80348,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="198" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="B49" s="198" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="C49" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D49" s="199">
         <v>3</v>
@@ -80368,13 +80362,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="198" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="B50" s="198" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="C50" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D50" s="199">
         <v>2</v>
@@ -80382,13 +80376,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="198" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="B51" s="198" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
       <c r="C51" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D51" s="199">
         <v>3</v>
@@ -80396,13 +80390,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="198" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
       <c r="B52" s="198" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="C52" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D52" s="199">
         <v>1</v>
@@ -80410,13 +80404,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="198" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
       <c r="B53" s="198" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
       <c r="C53" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D53" s="199">
         <v>1</v>
@@ -80424,13 +80418,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="198" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
       <c r="B54" s="198" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="C54" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D54" s="199">
         <v>1</v>
@@ -80438,13 +80432,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="198" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="B55" s="198" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="C55" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D55" s="199">
         <v>1</v>
@@ -80452,13 +80446,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="198" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
       <c r="B56" s="198" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
       <c r="C56" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D56" s="199">
         <v>-3</v>
@@ -80466,13 +80460,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="198" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
       <c r="B57" s="198" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
       <c r="C57" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D57" s="199">
         <v>1</v>
@@ -80480,13 +80474,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="198" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
       <c r="B58" s="198" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
       <c r="C58" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D58" s="199">
         <v>2</v>
@@ -80494,13 +80488,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="198" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
       <c r="B59" s="198" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
       <c r="C59" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D59" s="199">
         <v>4</v>
@@ -80508,13 +80502,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="198" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="B60" s="198" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="C60" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D60" s="199">
         <v>-10</v>
@@ -80522,13 +80516,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="198" t="s">
-        <v>4108</v>
+        <v>4106</v>
       </c>
       <c r="B61" s="198" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="C61" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D61" s="199">
         <v>1</v>
@@ -80536,13 +80530,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="198" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="B62" s="198" t="s">
-        <v>4111</v>
+        <v>4109</v>
       </c>
       <c r="C62" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D62" s="199">
         <v>-2</v>
@@ -80550,13 +80544,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="198" t="s">
-        <v>4112</v>
+        <v>4110</v>
       </c>
       <c r="B63" s="198" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="C63" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D63" s="199">
         <v>2</v>
@@ -80564,13 +80558,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="198" t="s">
-        <v>4113</v>
+        <v>4111</v>
       </c>
       <c r="B64" s="198" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="C64" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D64" s="199">
         <v>1</v>
@@ -80578,10 +80572,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="198" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
       <c r="B65" s="198" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
       <c r="C65" s="198"/>
       <c r="D65" s="199">
@@ -80590,13 +80584,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="198" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
       <c r="B66" s="198" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="C66" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D66" s="199">
         <v>1</v>
@@ -80604,13 +80598,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="198" t="s">
-        <v>4118</v>
+        <v>4116</v>
       </c>
       <c r="B67" s="198" t="s">
-        <v>4119</v>
+        <v>4117</v>
       </c>
       <c r="C67" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D67" s="199">
         <v>1</v>
@@ -80618,13 +80612,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="198" t="s">
-        <v>4120</v>
+        <v>4118</v>
       </c>
       <c r="B68" s="198" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
       <c r="C68" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D68" s="199">
         <v>6</v>
@@ -80632,13 +80626,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="198" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
       <c r="B69" s="198" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
       <c r="C69" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D69" s="199">
         <v>1</v>
@@ -80646,13 +80640,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="198" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
       <c r="B70" s="198" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="C70" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D70" s="199">
         <v>1</v>
@@ -80660,13 +80654,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="198" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
       <c r="B71" s="198" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
       <c r="C71" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D71" s="199">
         <v>2</v>
@@ -80674,13 +80668,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="198" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
       <c r="B72" s="198" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
       <c r="C72" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D72" s="199">
         <v>1</v>
@@ -80688,13 +80682,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="198" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
       <c r="B73" s="198" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="C73" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D73" s="199">
         <v>12</v>
@@ -80702,13 +80696,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="198" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="B74" s="198" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
       <c r="C74" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D74" s="199">
         <v>1</v>
@@ -80716,13 +80710,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="198" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
       <c r="B75" s="198" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
       <c r="C75" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D75" s="199">
         <v>2</v>
@@ -80730,13 +80724,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="198" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
       <c r="B76" s="198" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
       <c r="C76" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D76" s="199">
         <v>2</v>
@@ -80744,10 +80738,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="198" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
       <c r="B77" s="198" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
       <c r="C77" s="198" t="s">
         <v>3582</v>
@@ -80758,10 +80752,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="198" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
       <c r="B78" s="198" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="C78" s="198"/>
       <c r="D78" s="199">
@@ -80770,13 +80764,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="198" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
       <c r="B79" s="198" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="C79" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D79" s="199">
         <v>3</v>
@@ -80784,13 +80778,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="198" t="s">
-        <v>4141</v>
+        <v>4139</v>
       </c>
       <c r="B80" s="198" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
       <c r="C80" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D80" s="199">
         <v>11</v>
@@ -80798,13 +80792,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="198" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
       <c r="B81" s="198" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
       <c r="C81" s="198" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D81" s="199">
         <v>3</v>
@@ -80812,13 +80806,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="198" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
       <c r="B82" s="198" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="C82" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D82" s="199">
         <v>2</v>
@@ -80826,13 +80820,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="198" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
       <c r="B83" s="198" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
       <c r="C83" s="198" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D83" s="199">
         <v>1</v>
@@ -80840,13 +80834,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="198" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
       <c r="B84" s="198" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="C84" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D84" s="199">
         <v>1</v>
@@ -80854,13 +80848,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="198" t="s">
-        <v>4150</v>
+        <v>4148</v>
       </c>
       <c r="B85" s="198" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="C85" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D85" s="199">
         <v>3</v>
@@ -80868,13 +80862,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="198" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="B86" s="198" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
       <c r="C86" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D86" s="199">
         <v>-1</v>
@@ -80882,13 +80876,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="198" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
       <c r="B87" s="198" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="C87" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D87" s="199">
         <v>2</v>
@@ -80896,13 +80890,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="198" t="s">
-        <v>4153</v>
+        <v>4151</v>
       </c>
       <c r="B88" s="198" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
       <c r="C88" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D88" s="199">
         <v>1</v>
@@ -80910,10 +80904,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="198" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
       <c r="B89" s="198" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="C89" s="198"/>
       <c r="D89" s="199">
@@ -80922,13 +80916,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="198" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
       <c r="B90" s="198" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="C90" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D90" s="199">
         <v>2</v>
@@ -80936,13 +80930,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="198" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
       <c r="B91" s="198" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="C91" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D91" s="199">
         <v>11</v>
@@ -80950,13 +80944,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="198" t="s">
-        <v>4158</v>
+        <v>4156</v>
       </c>
       <c r="B92" s="198" t="s">
-        <v>4159</v>
+        <v>4157</v>
       </c>
       <c r="C92" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D92" s="199">
         <v>-10</v>
@@ -80964,13 +80958,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="198" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
       <c r="B93" s="198" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
       <c r="C93" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D93" s="199">
         <v>1</v>
@@ -80978,13 +80972,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="198" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
       <c r="B94" s="198" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
       <c r="C94" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D94" s="199">
         <v>2</v>
@@ -80992,13 +80986,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="198" t="s">
-        <v>4163</v>
+        <v>4161</v>
       </c>
       <c r="B95" s="198" t="s">
-        <v>4164</v>
+        <v>4162</v>
       </c>
       <c r="C95" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D95" s="199">
         <v>1</v>
@@ -81006,13 +81000,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="198" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B96" s="198" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="C96" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D96" s="199">
         <v>2</v>
@@ -81020,13 +81014,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="198" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
       <c r="B97" s="198" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="C97" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D97" s="199">
         <v>2</v>
@@ -81034,10 +81028,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="198" t="s">
-        <v>4167</v>
+        <v>4165</v>
       </c>
       <c r="B98" s="198" t="s">
-        <v>4168</v>
+        <v>4166</v>
       </c>
       <c r="C98" s="198"/>
       <c r="D98" s="199">
@@ -81046,10 +81040,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="198" t="s">
-        <v>4169</v>
+        <v>4167</v>
       </c>
       <c r="B99" s="198" t="s">
-        <v>4170</v>
+        <v>4168</v>
       </c>
       <c r="C99" s="198"/>
       <c r="D99" s="199">
@@ -81058,10 +81052,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="198" t="s">
-        <v>4171</v>
+        <v>4169</v>
       </c>
       <c r="B100" s="198" t="s">
-        <v>4172</v>
+        <v>4170</v>
       </c>
       <c r="C100" s="198"/>
       <c r="D100" s="199">
@@ -81070,13 +81064,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="198" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="B101" s="198" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
       <c r="C101" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D101" s="199">
         <v>1</v>
@@ -81084,13 +81078,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="198" t="s">
-        <v>4174</v>
+        <v>4172</v>
       </c>
       <c r="B102" s="198" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
       <c r="C102" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D102" s="199">
         <v>3</v>
@@ -81098,13 +81092,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="198" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="B103" s="198" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="C103" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D103" s="199">
         <v>1</v>
@@ -81112,13 +81106,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="198" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B104" s="198" t="s">
+        <v>4175</v>
+      </c>
+      <c r="C104" s="198" t="s">
         <v>4176</v>
-      </c>
-      <c r="B104" s="198" t="s">
-        <v>4177</v>
-      </c>
-      <c r="C104" s="198" t="s">
-        <v>4178</v>
       </c>
       <c r="D104" s="199">
         <v>2</v>
@@ -81126,13 +81120,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="198" t="s">
-        <v>4179</v>
+        <v>4177</v>
       </c>
       <c r="B105" s="198" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="C105" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D105" s="199">
         <v>4</v>
@@ -81140,10 +81134,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="198" t="s">
-        <v>4180</v>
+        <v>4178</v>
       </c>
       <c r="B106" s="198" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="C106" s="198"/>
       <c r="D106" s="199">
@@ -81152,10 +81146,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="198" t="s">
-        <v>4181</v>
+        <v>4179</v>
       </c>
       <c r="B107" s="198" t="s">
-        <v>4182</v>
+        <v>4180</v>
       </c>
       <c r="C107" s="198"/>
       <c r="D107" s="199">
@@ -81164,13 +81158,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="198" t="s">
-        <v>4183</v>
+        <v>4181</v>
       </c>
       <c r="B108" s="198" t="s">
         <v>3952</v>
       </c>
       <c r="C108" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D108" s="199">
         <v>6</v>
@@ -81178,10 +81172,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="198" t="s">
-        <v>4184</v>
+        <v>4182</v>
       </c>
       <c r="B109" s="198" t="s">
-        <v>4185</v>
+        <v>4183</v>
       </c>
       <c r="C109" s="198"/>
       <c r="D109" s="199">
@@ -81190,13 +81184,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="198" t="s">
-        <v>4186</v>
+        <v>4184</v>
       </c>
       <c r="B110" s="198" t="s">
-        <v>4187</v>
+        <v>4185</v>
       </c>
       <c r="C110" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D110" s="199">
         <v>2</v>
@@ -81204,13 +81198,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="198" t="s">
-        <v>4188</v>
+        <v>4186</v>
       </c>
       <c r="B111" s="198" t="s">
-        <v>4189</v>
+        <v>4187</v>
       </c>
       <c r="C111" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D111" s="199">
         <v>4</v>
@@ -81218,13 +81212,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="198" t="s">
-        <v>4190</v>
+        <v>4188</v>
       </c>
       <c r="B112" s="198" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
       <c r="C112" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D112" s="199">
         <v>3</v>
@@ -81232,13 +81226,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="198" t="s">
-        <v>4191</v>
+        <v>4189</v>
       </c>
       <c r="B113" s="198" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
       <c r="C113" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D113" s="199">
         <v>3</v>
@@ -81246,13 +81240,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="198" t="s">
-        <v>4192</v>
+        <v>4190</v>
       </c>
       <c r="B114" s="198" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
       <c r="C114" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D114" s="199">
         <v>2</v>
@@ -81260,13 +81254,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="198" t="s">
-        <v>4193</v>
+        <v>4191</v>
       </c>
       <c r="B115" s="198" t="s">
-        <v>4194</v>
+        <v>4192</v>
       </c>
       <c r="C115" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D115" s="199">
         <v>1</v>
@@ -81274,13 +81268,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="198" t="s">
-        <v>4195</v>
+        <v>4193</v>
       </c>
       <c r="B116" s="198" t="s">
-        <v>4196</v>
+        <v>4194</v>
       </c>
       <c r="C116" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D116" s="199">
         <v>1</v>
@@ -81288,13 +81282,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="198" t="s">
-        <v>4197</v>
+        <v>4195</v>
       </c>
       <c r="B117" s="198" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
       <c r="C117" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D117" s="199">
         <v>1</v>
@@ -81302,10 +81296,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="198" t="s">
-        <v>4198</v>
+        <v>4196</v>
       </c>
       <c r="B118" s="198" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="C118" s="198"/>
       <c r="D118" s="199">
@@ -81314,13 +81308,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="198" t="s">
-        <v>4199</v>
+        <v>4197</v>
       </c>
       <c r="B119" s="198" t="s">
-        <v>4200</v>
+        <v>4198</v>
       </c>
       <c r="C119" s="198" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D119" s="199">
         <v>10</v>
@@ -81328,10 +81322,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="198" t="s">
-        <v>4201</v>
+        <v>4199</v>
       </c>
       <c r="B120" s="198" t="s">
-        <v>4202</v>
+        <v>4200</v>
       </c>
       <c r="C120" s="198"/>
       <c r="D120" s="199">
@@ -81340,10 +81334,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="198" t="s">
-        <v>4203</v>
+        <v>4201</v>
       </c>
       <c r="B121" s="198" t="s">
-        <v>4204</v>
+        <v>4202</v>
       </c>
       <c r="C121" s="198"/>
       <c r="D121" s="199">
@@ -81352,10 +81346,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="198" t="s">
-        <v>4205</v>
+        <v>4203</v>
       </c>
       <c r="B122" s="198" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="C122" s="198"/>
       <c r="D122" s="199">
@@ -81364,10 +81358,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="198" t="s">
-        <v>4206</v>
+        <v>4204</v>
       </c>
       <c r="B123" s="198" t="s">
-        <v>4207</v>
+        <v>4205</v>
       </c>
       <c r="C123" s="198"/>
       <c r="D123" s="199">
@@ -81376,10 +81370,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="198" t="s">
-        <v>4208</v>
+        <v>4206</v>
       </c>
       <c r="B124" s="198" t="s">
-        <v>4209</v>
+        <v>4207</v>
       </c>
       <c r="C124" s="198"/>
       <c r="D124" s="199">
@@ -81388,13 +81382,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="198" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B125" s="198" t="s">
+        <v>4209</v>
+      </c>
+      <c r="C125" s="198" t="s">
         <v>4210</v>
-      </c>
-      <c r="B125" s="198" t="s">
-        <v>4211</v>
-      </c>
-      <c r="C125" s="198" t="s">
-        <v>4212</v>
       </c>
       <c r="D125" s="199">
         <v>2</v>
@@ -81402,10 +81396,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="198" t="s">
-        <v>4213</v>
+        <v>4211</v>
       </c>
       <c r="B126" s="198" t="s">
-        <v>4214</v>
+        <v>4212</v>
       </c>
       <c r="C126" s="198"/>
       <c r="D126" s="199">

--- a/DB_AGMS.xlsx
+++ b/DB_AGMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrespuertagonzalez/Documents/AGMS_Analitics/Datos/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C939348-0D19-CB41-A4BD-622FFAC4C131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15615A5-0FE8-6447-95E4-315A0E3AADCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="620" windowWidth="32620" windowHeight="18040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
